--- a/HPI_PO_monthly_hist.xlsx
+++ b/HPI_PO_monthly_hist.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twcro\Documents\GitHub\EPPS6323\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8DE9E9C2-04FC-415C-BE2B-D79DC0193C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEACBA2-EAD1-41CB-A4DD-627CE92E7014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Downloadable--Series to91--FLAT" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="CBSA_01">#REF!</definedName>
-    <definedName name="currperiod">'[2]Diagnostics--Tests &amp; NSA vs. SA'!$C$8</definedName>
-    <definedName name="date_final_use">'[1]Input Page'!$B$2</definedName>
-    <definedName name="date_final_use_penultimate">'[1]Graphing Data-relative_to_peak'!$N$3</definedName>
+    <definedName name="currperiod">'[1]Diagnostics--Tests &amp; NSA vs. SA'!$C$8</definedName>
+    <definedName name="date_final_use">'[2]Input Page'!$B$2</definedName>
+    <definedName name="date_final_use_penultimate">'[2]Graphing Data-relative_to_peak'!$N$3</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
@@ -50,17 +50,17 @@
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="max_ind">'[1]Graphing Data-relative_to_peak'!$E$249</definedName>
-    <definedName name="max_ind_penultimate">'[1]Graphing Data-relative_to_peak'!$Q$249</definedName>
-    <definedName name="month_final_use">'[1]Input Page'!$B$4</definedName>
-    <definedName name="month_within_final_use">'[1]Input Page'!$B$5</definedName>
+    <definedName name="max_ind">'[2]Graphing Data-relative_to_peak'!$E$249</definedName>
+    <definedName name="max_ind_penultimate">'[2]Graphing Data-relative_to_peak'!$Q$249</definedName>
+    <definedName name="month_final_use">'[2]Input Page'!$B$4</definedName>
+    <definedName name="month_within_final_use">'[2]Input Page'!$B$5</definedName>
     <definedName name="month2">#REF!</definedName>
-    <definedName name="monumb">'[1]Diagnostics--Part 1'!$B$1</definedName>
+    <definedName name="monumb">'[2]Diagnostics--Part 1'!$B$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Downloadable--Series to91--FLAT'!$A:$A,'Downloadable--Series to91--FLAT'!$1:$4</definedName>
-    <definedName name="year_final_use">'[1]Input Page'!$B$6</definedName>
-    <definedName name="yrmo">'[1]Input Page'!$B$7</definedName>
+    <definedName name="year_final_use">'[2]Input Page'!$B$6</definedName>
+    <definedName name="yrmo">'[2]Input Page'!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -315,6 +315,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -322,7 +359,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
@@ -362,9 +399,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,12 +434,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Book1" xfId="2"/>
-    <cellStyle name="Normal_monthly sa and nsa" xfId="3"/>
+    <cellStyle name="Normal_Book1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_monthly sa and nsa" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,6 +467,53 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Diagnostics--Tests &amp; NSA vs. SA"/>
+      <sheetName val="Diagnostics--Revisions"/>
+      <sheetName val="Summary--NSAvsSA_1"/>
+      <sheetName val="Summary--NSAvsSA_2"/>
+      <sheetName val="Tests-Utility"/>
+      <sheetName val="Tests-Utility2"/>
+      <sheetName val="Tests-Utility3"/>
+      <sheetName val="CD Summary for Release"/>
+      <sheetName val="New Summary_CD"/>
+      <sheetName val="Old Summary_CD"/>
+      <sheetName val="Summary"/>
+      <sheetName val="New_Summary_State"/>
+      <sheetName val="st_weights_detached"/>
+      <sheetName val="Periods Since 1991Q1"/>
+      <sheetName val="State-CD Lookup"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>20111</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -556,53 +649,6 @@
       <sheetData sheetId="39"/>
       <sheetData sheetId="40" refreshError="1"/>
       <sheetData sheetId="41"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Diagnostics--Tests &amp; NSA vs. SA"/>
-      <sheetName val="Diagnostics--Revisions"/>
-      <sheetName val="Summary--NSAvsSA_1"/>
-      <sheetName val="Summary--NSAvsSA_2"/>
-      <sheetName val="Tests-Utility"/>
-      <sheetName val="Tests-Utility2"/>
-      <sheetName val="Tests-Utility3"/>
-      <sheetName val="CD Summary for Release"/>
-      <sheetName val="New Summary_CD"/>
-      <sheetName val="Old Summary_CD"/>
-      <sheetName val="Summary"/>
-      <sheetName val="New_Summary_State"/>
-      <sheetName val="st_weights_detached"/>
-      <sheetName val="Periods Since 1991Q1"/>
-      <sheetName val="State-CD Lookup"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>20111</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -904,17 +950,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="42"/>
   </sheetPr>
   <dimension ref="A1:IV555"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K367" sqref="K367"/>
+      <selection pane="bottomRight" activeCell="R390" sqref="R390:R392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -925,7 +971,7 @@
     <col min="10" max="10" width="12.59765625" customWidth="1"/>
     <col min="11" max="11" width="13.09765625" customWidth="1"/>
     <col min="12" max="17" width="10.59765625" customWidth="1"/>
-    <col min="18" max="18" width="10.59765625" style="24" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" style="23" customWidth="1"/>
     <col min="19" max="19" width="10.59765625" customWidth="1"/>
     <col min="20" max="20" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.09765625" bestFit="1" customWidth="1"/>
@@ -950,35 +996,35 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="18"/>
+      <c r="R1" s="17"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -998,7 +1044,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="19"/>
+      <c r="R3" s="18"/>
       <c r="S3" s="6"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -1055,7 +1101,7 @@
       <c r="Q4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="S4" s="9" t="s">
@@ -1086,7 +1132,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="21"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
@@ -1143,7 +1189,7 @@
       <c r="Q6" s="14">
         <v>100</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="21">
         <v>100</v>
       </c>
       <c r="S6" s="14">
@@ -1208,7 +1254,7 @@
       <c r="Q7" s="14">
         <v>100.49</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="21">
         <v>99.82</v>
       </c>
       <c r="S7" s="14">
@@ -1273,7 +1319,7 @@
       <c r="Q8" s="14">
         <v>100.12</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="21">
         <v>100.62</v>
       </c>
       <c r="S8" s="14">
@@ -1338,7 +1384,7 @@
       <c r="Q9" s="14">
         <v>100.35</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="21">
         <v>100.36</v>
       </c>
       <c r="S9" s="14">
@@ -1403,7 +1449,7 @@
       <c r="Q10" s="14">
         <v>100.29</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="21">
         <v>100.77</v>
       </c>
       <c r="S10" s="14">
@@ -1468,7 +1514,7 @@
       <c r="Q11" s="14">
         <v>100.52</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="21">
         <v>101.95</v>
       </c>
       <c r="S11" s="14">
@@ -1533,7 +1579,7 @@
       <c r="Q12" s="14">
         <v>100.34</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="21">
         <v>101.8</v>
       </c>
       <c r="S12" s="14">
@@ -1598,7 +1644,7 @@
       <c r="Q13" s="14">
         <v>100.74</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="21">
         <v>101.55</v>
       </c>
       <c r="S13" s="14">
@@ -1663,7 +1709,7 @@
       <c r="Q14" s="14">
         <v>100.84</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="21">
         <v>102.12</v>
       </c>
       <c r="S14" s="14">
@@ -1728,7 +1774,7 @@
       <c r="Q15" s="14">
         <v>101.48</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="21">
         <v>101.37</v>
       </c>
       <c r="S15" s="14">
@@ -1793,7 +1839,7 @@
       <c r="Q16" s="14">
         <v>101.43</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="21">
         <v>101.82</v>
       </c>
       <c r="S16" s="14">
@@ -1858,7 +1904,7 @@
       <c r="Q17" s="14">
         <v>102.49</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="21">
         <v>102.2</v>
       </c>
       <c r="S17" s="14">
@@ -1923,7 +1969,7 @@
       <c r="Q18" s="14">
         <v>102.33</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="21">
         <v>102.34</v>
       </c>
       <c r="S18" s="14">
@@ -1988,7 +2034,7 @@
       <c r="Q19" s="14">
         <v>102.86</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="21">
         <v>103.46</v>
       </c>
       <c r="S19" s="14">
@@ -2053,7 +2099,7 @@
       <c r="Q20" s="14">
         <v>103.62</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="21">
         <v>102.82</v>
       </c>
       <c r="S20" s="14">
@@ -2118,7 +2164,7 @@
       <c r="Q21" s="14">
         <v>103.59</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="21">
         <v>103.06</v>
       </c>
       <c r="S21" s="14">
@@ -2183,7 +2229,7 @@
       <c r="Q22" s="14">
         <v>103.8</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="21">
         <v>103.16</v>
       </c>
       <c r="S22" s="14">
@@ -2248,7 +2294,7 @@
       <c r="Q23" s="14">
         <v>104.22</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="21">
         <v>103.97</v>
       </c>
       <c r="S23" s="14">
@@ -2313,7 +2359,7 @@
       <c r="Q24" s="14">
         <v>104.67</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="21">
         <v>104.27</v>
       </c>
       <c r="S24" s="14">
@@ -2378,7 +2424,7 @@
       <c r="Q25" s="14">
         <v>104.83</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="21">
         <v>104.85</v>
       </c>
       <c r="S25" s="14">
@@ -2443,7 +2489,7 @@
       <c r="Q26" s="14">
         <v>105.45</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="21">
         <v>104.85</v>
       </c>
       <c r="S26" s="14">
@@ -2508,7 +2554,7 @@
       <c r="Q27" s="14">
         <v>105.66</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="21">
         <v>105.58</v>
       </c>
       <c r="S27" s="14">
@@ -2573,7 +2619,7 @@
       <c r="Q28" s="14">
         <v>106.03</v>
       </c>
-      <c r="R28" s="22">
+      <c r="R28" s="21">
         <v>105.98</v>
       </c>
       <c r="S28" s="14">
@@ -2638,7 +2684,7 @@
       <c r="Q29" s="14">
         <v>106.24</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="21">
         <v>105.22</v>
       </c>
       <c r="S29" s="14">
@@ -2703,7 +2749,7 @@
       <c r="Q30" s="14">
         <v>107.29</v>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="21">
         <v>105.34</v>
       </c>
       <c r="S30" s="14">
@@ -2768,7 +2814,7 @@
       <c r="Q31" s="14">
         <v>107.65</v>
       </c>
-      <c r="R31" s="22">
+      <c r="R31" s="21">
         <v>105.61</v>
       </c>
       <c r="S31" s="14">
@@ -2833,7 +2879,7 @@
       <c r="Q32" s="14">
         <v>106.84</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="21">
         <v>106.1</v>
       </c>
       <c r="S32" s="14">
@@ -2898,7 +2944,7 @@
       <c r="Q33" s="14">
         <v>108.18</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R33" s="21">
         <v>106.86</v>
       </c>
       <c r="S33" s="14">
@@ -2963,7 +3009,7 @@
       <c r="Q34" s="14">
         <v>108.87</v>
       </c>
-      <c r="R34" s="22">
+      <c r="R34" s="21">
         <v>107.71</v>
       </c>
       <c r="S34" s="14">
@@ -3028,7 +3074,7 @@
       <c r="Q35" s="14">
         <v>109.45</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R35" s="21">
         <v>108.61</v>
       </c>
       <c r="S35" s="14">
@@ -3093,7 +3139,7 @@
       <c r="Q36" s="14">
         <v>109.9</v>
       </c>
-      <c r="R36" s="22">
+      <c r="R36" s="21">
         <v>109.09</v>
       </c>
       <c r="S36" s="14">
@@ -3158,7 +3204,7 @@
       <c r="Q37" s="14">
         <v>110.62</v>
       </c>
-      <c r="R37" s="22">
+      <c r="R37" s="21">
         <v>109.51</v>
       </c>
       <c r="S37" s="14">
@@ -3223,7 +3269,7 @@
       <c r="Q38" s="14">
         <v>111.4</v>
       </c>
-      <c r="R38" s="22">
+      <c r="R38" s="21">
         <v>109.43</v>
       </c>
       <c r="S38" s="14">
@@ -3288,7 +3334,7 @@
       <c r="Q39" s="14">
         <v>112</v>
       </c>
-      <c r="R39" s="22">
+      <c r="R39" s="21">
         <v>110.12</v>
       </c>
       <c r="S39" s="14">
@@ -3353,7 +3399,7 @@
       <c r="Q40" s="14">
         <v>112.48</v>
       </c>
-      <c r="R40" s="22">
+      <c r="R40" s="21">
         <v>110.45</v>
       </c>
       <c r="S40" s="14">
@@ -3418,7 +3464,7 @@
       <c r="Q41" s="14">
         <v>113.25</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R41" s="21">
         <v>110.83</v>
       </c>
       <c r="S41" s="14">
@@ -3483,7 +3529,7 @@
       <c r="Q42" s="14">
         <v>113.79</v>
       </c>
-      <c r="R42" s="22">
+      <c r="R42" s="21">
         <v>110.42</v>
       </c>
       <c r="S42" s="14">
@@ -3548,7 +3594,7 @@
       <c r="Q43" s="14">
         <v>113.83</v>
       </c>
-      <c r="R43" s="22">
+      <c r="R43" s="21">
         <v>111.23</v>
       </c>
       <c r="S43" s="14">
@@ -3613,7 +3659,7 @@
       <c r="Q44" s="14">
         <v>114.76</v>
       </c>
-      <c r="R44" s="22">
+      <c r="R44" s="21">
         <v>112.18</v>
       </c>
       <c r="S44" s="14">
@@ -3678,7 +3724,7 @@
       <c r="Q45" s="14">
         <v>115.13</v>
       </c>
-      <c r="R45" s="22">
+      <c r="R45" s="21">
         <v>112.02</v>
       </c>
       <c r="S45" s="14">
@@ -3743,7 +3789,7 @@
       <c r="Q46" s="14">
         <v>115.46</v>
       </c>
-      <c r="R46" s="22">
+      <c r="R46" s="21">
         <v>113.44</v>
       </c>
       <c r="S46" s="14">
@@ -3808,7 +3854,7 @@
       <c r="Q47" s="14">
         <v>115.79</v>
       </c>
-      <c r="R47" s="22">
+      <c r="R47" s="21">
         <v>113.46</v>
       </c>
       <c r="S47" s="14">
@@ -3873,7 +3919,7 @@
       <c r="Q48" s="14">
         <v>116.31</v>
       </c>
-      <c r="R48" s="22">
+      <c r="R48" s="21">
         <v>113.37</v>
       </c>
       <c r="S48" s="14">
@@ -3938,7 +3984,7 @@
       <c r="Q49" s="14">
         <v>116.73</v>
       </c>
-      <c r="R49" s="22">
+      <c r="R49" s="21">
         <v>114.09</v>
       </c>
       <c r="S49" s="14">
@@ -4003,7 +4049,7 @@
       <c r="Q50" s="14">
         <v>116.62</v>
       </c>
-      <c r="R50" s="22">
+      <c r="R50" s="21">
         <v>113.72</v>
       </c>
       <c r="S50" s="14">
@@ -4068,7 +4114,7 @@
       <c r="Q51" s="14">
         <v>116.97</v>
       </c>
-      <c r="R51" s="22">
+      <c r="R51" s="21">
         <v>114.01</v>
       </c>
       <c r="S51" s="14">
@@ -4133,7 +4179,7 @@
       <c r="Q52" s="14">
         <v>117.81</v>
       </c>
-      <c r="R52" s="22">
+      <c r="R52" s="21">
         <v>114.22</v>
       </c>
       <c r="S52" s="14">
@@ -4198,7 +4244,7 @@
       <c r="Q53" s="14">
         <v>117.49</v>
       </c>
-      <c r="R53" s="22">
+      <c r="R53" s="21">
         <v>113.8</v>
       </c>
       <c r="S53" s="14">
@@ -4263,7 +4309,7 @@
       <c r="Q54" s="14">
         <v>118.1</v>
       </c>
-      <c r="R54" s="22">
+      <c r="R54" s="21">
         <v>113.84</v>
       </c>
       <c r="S54" s="14">
@@ -4328,7 +4374,7 @@
       <c r="Q55" s="14">
         <v>118.88</v>
       </c>
-      <c r="R55" s="22">
+      <c r="R55" s="21">
         <v>114.2</v>
       </c>
       <c r="S55" s="14">
@@ -4393,7 +4439,7 @@
       <c r="Q56" s="14">
         <v>119.07</v>
       </c>
-      <c r="R56" s="22">
+      <c r="R56" s="21">
         <v>114.14</v>
       </c>
       <c r="S56" s="14">
@@ -4458,7 +4504,7 @@
       <c r="Q57" s="14">
         <v>119.58</v>
       </c>
-      <c r="R57" s="22">
+      <c r="R57" s="21">
         <v>115.23</v>
       </c>
       <c r="S57" s="14">
@@ -4523,7 +4569,7 @@
       <c r="Q58" s="14">
         <v>119.97</v>
       </c>
-      <c r="R58" s="22">
+      <c r="R58" s="21">
         <v>115.78</v>
       </c>
       <c r="S58" s="14">
@@ -4588,7 +4634,7 @@
       <c r="Q59" s="14">
         <v>120.64</v>
       </c>
-      <c r="R59" s="22">
+      <c r="R59" s="21">
         <v>115.89</v>
       </c>
       <c r="S59" s="14">
@@ -4653,7 +4699,7 @@
       <c r="Q60" s="14">
         <v>121.05</v>
       </c>
-      <c r="R60" s="22">
+      <c r="R60" s="21">
         <v>116.8</v>
       </c>
       <c r="S60" s="14">
@@ -4718,7 +4764,7 @@
       <c r="Q61" s="14">
         <v>121.69</v>
       </c>
-      <c r="R61" s="22">
+      <c r="R61" s="21">
         <v>116.95</v>
       </c>
       <c r="S61" s="14">
@@ -4783,7 +4829,7 @@
       <c r="Q62" s="14">
         <v>122.31</v>
       </c>
-      <c r="R62" s="22">
+      <c r="R62" s="21">
         <v>117.31</v>
       </c>
       <c r="S62" s="14">
@@ -4848,7 +4894,7 @@
       <c r="Q63" s="14">
         <v>122.87</v>
       </c>
-      <c r="R63" s="22">
+      <c r="R63" s="21">
         <v>116.76</v>
       </c>
       <c r="S63" s="14">
@@ -4913,7 +4959,7 @@
       <c r="Q64" s="14">
         <v>122.83</v>
       </c>
-      <c r="R64" s="22">
+      <c r="R64" s="21">
         <v>117.4</v>
       </c>
       <c r="S64" s="14">
@@ -4978,7 +5024,7 @@
       <c r="Q65" s="14">
         <v>123.75</v>
       </c>
-      <c r="R65" s="22">
+      <c r="R65" s="21">
         <v>117.78</v>
       </c>
       <c r="S65" s="14">
@@ -5043,7 +5089,7 @@
       <c r="Q66" s="14">
         <v>123.87</v>
       </c>
-      <c r="R66" s="22">
+      <c r="R66" s="21">
         <v>117.23</v>
       </c>
       <c r="S66" s="14">
@@ -5108,7 +5154,7 @@
       <c r="Q67" s="14">
         <v>124.29</v>
       </c>
-      <c r="R67" s="22">
+      <c r="R67" s="21">
         <v>117.74</v>
       </c>
       <c r="S67" s="14">
@@ -5173,7 +5219,7 @@
       <c r="Q68" s="14">
         <v>124.92</v>
       </c>
-      <c r="R68" s="22">
+      <c r="R68" s="21">
         <v>118.21</v>
       </c>
       <c r="S68" s="14">
@@ -5238,7 +5284,7 @@
       <c r="Q69" s="14">
         <v>125.72</v>
       </c>
-      <c r="R69" s="22">
+      <c r="R69" s="21">
         <v>118.56</v>
       </c>
       <c r="S69" s="14">
@@ -5303,7 +5349,7 @@
       <c r="Q70" s="14">
         <v>125.93</v>
       </c>
-      <c r="R70" s="22">
+      <c r="R70" s="21">
         <v>119.38</v>
       </c>
       <c r="S70" s="14">
@@ -5368,7 +5414,7 @@
       <c r="Q71" s="14">
         <v>126.04</v>
       </c>
-      <c r="R71" s="22">
+      <c r="R71" s="21">
         <v>120.05</v>
       </c>
       <c r="S71" s="14">
@@ -5433,7 +5479,7 @@
       <c r="Q72" s="14">
         <v>126.63</v>
       </c>
-      <c r="R72" s="22">
+      <c r="R72" s="21">
         <v>119.91</v>
       </c>
       <c r="S72" s="14">
@@ -5498,7 +5544,7 @@
       <c r="Q73" s="14">
         <v>126.76</v>
       </c>
-      <c r="R73" s="22">
+      <c r="R73" s="21">
         <v>120.07</v>
       </c>
       <c r="S73" s="14">
@@ -5563,7 +5609,7 @@
       <c r="Q74" s="14">
         <v>127.29</v>
       </c>
-      <c r="R74" s="22">
+      <c r="R74" s="21">
         <v>120.07</v>
       </c>
       <c r="S74" s="14">
@@ -5628,7 +5674,7 @@
       <c r="Q75" s="14">
         <v>127.58</v>
       </c>
-      <c r="R75" s="22">
+      <c r="R75" s="21">
         <v>119.75</v>
       </c>
       <c r="S75" s="14">
@@ -5693,7 +5739,7 @@
       <c r="Q76" s="14">
         <v>127.87</v>
       </c>
-      <c r="R76" s="22">
+      <c r="R76" s="21">
         <v>120.08</v>
       </c>
       <c r="S76" s="14">
@@ -5758,7 +5804,7 @@
       <c r="Q77" s="14">
         <v>128.84</v>
       </c>
-      <c r="R77" s="22">
+      <c r="R77" s="21">
         <v>120.2</v>
       </c>
       <c r="S77" s="14">
@@ -5823,7 +5869,7 @@
       <c r="Q78" s="14">
         <v>128.83000000000001</v>
       </c>
-      <c r="R78" s="22">
+      <c r="R78" s="21">
         <v>119.83</v>
       </c>
       <c r="S78" s="14">
@@ -5888,7 +5934,7 @@
       <c r="Q79" s="14">
         <v>129.27000000000001</v>
       </c>
-      <c r="R79" s="22">
+      <c r="R79" s="21">
         <v>120.57</v>
       </c>
       <c r="S79" s="14">
@@ -5953,7 +5999,7 @@
       <c r="Q80" s="14">
         <v>129.85</v>
       </c>
-      <c r="R80" s="22">
+      <c r="R80" s="21">
         <v>121.08</v>
       </c>
       <c r="S80" s="14">
@@ -6018,7 +6064,7 @@
       <c r="Q81" s="14">
         <v>129.69999999999999</v>
       </c>
-      <c r="R81" s="22">
+      <c r="R81" s="21">
         <v>121.33</v>
       </c>
       <c r="S81" s="14">
@@ -6083,7 +6129,7 @@
       <c r="Q82" s="14">
         <v>130.66999999999999</v>
       </c>
-      <c r="R82" s="22">
+      <c r="R82" s="21">
         <v>122.4</v>
       </c>
       <c r="S82" s="14">
@@ -6148,7 +6194,7 @@
       <c r="Q83" s="14">
         <v>130.26</v>
       </c>
-      <c r="R83" s="22">
+      <c r="R83" s="21">
         <v>122.59</v>
       </c>
       <c r="S83" s="14">
@@ -6213,7 +6259,7 @@
       <c r="Q84" s="14">
         <v>131.24</v>
       </c>
-      <c r="R84" s="22">
+      <c r="R84" s="21">
         <v>122.88</v>
       </c>
       <c r="S84" s="14">
@@ -6278,7 +6324,7 @@
       <c r="Q85" s="14">
         <v>131.30000000000001</v>
       </c>
-      <c r="R85" s="22">
+      <c r="R85" s="21">
         <v>122.86</v>
       </c>
       <c r="S85" s="14">
@@ -6343,7 +6389,7 @@
       <c r="Q86" s="14">
         <v>132.16999999999999</v>
       </c>
-      <c r="R86" s="22">
+      <c r="R86" s="21">
         <v>122.89</v>
       </c>
       <c r="S86" s="14">
@@ -6408,7 +6454,7 @@
       <c r="Q87" s="14">
         <v>132.53</v>
       </c>
-      <c r="R87" s="22">
+      <c r="R87" s="21">
         <v>123.3</v>
       </c>
       <c r="S87" s="14">
@@ -6473,7 +6519,7 @@
       <c r="Q88" s="14">
         <v>132.6</v>
       </c>
-      <c r="R88" s="22">
+      <c r="R88" s="21">
         <v>123.93</v>
       </c>
       <c r="S88" s="14">
@@ -6538,7 +6584,7 @@
       <c r="Q89" s="14">
         <v>132.85</v>
       </c>
-      <c r="R89" s="22">
+      <c r="R89" s="21">
         <v>123.88</v>
       </c>
       <c r="S89" s="14">
@@ -6603,7 +6649,7 @@
       <c r="Q90" s="14">
         <v>134.91</v>
       </c>
-      <c r="R90" s="22">
+      <c r="R90" s="21">
         <v>124.33</v>
       </c>
       <c r="S90" s="14">
@@ -6668,7 +6714,7 @@
       <c r="Q91" s="14">
         <v>135</v>
       </c>
-      <c r="R91" s="22">
+      <c r="R91" s="21">
         <v>125.01</v>
       </c>
       <c r="S91" s="14">
@@ -6733,7 +6779,7 @@
       <c r="Q92" s="14">
         <v>135.04</v>
       </c>
-      <c r="R92" s="22">
+      <c r="R92" s="21">
         <v>125.59</v>
       </c>
       <c r="S92" s="14">
@@ -6798,7 +6844,7 @@
       <c r="Q93" s="14">
         <v>135.19999999999999</v>
       </c>
-      <c r="R93" s="22">
+      <c r="R93" s="21">
         <v>126.23</v>
       </c>
       <c r="S93" s="14">
@@ -6863,7 +6909,7 @@
       <c r="Q94" s="14">
         <v>136.04</v>
       </c>
-      <c r="R94" s="22">
+      <c r="R94" s="21">
         <v>127.28</v>
       </c>
       <c r="S94" s="14">
@@ -6928,7 +6974,7 @@
       <c r="Q95" s="14">
         <v>137.32</v>
       </c>
-      <c r="R95" s="22">
+      <c r="R95" s="21">
         <v>128.19999999999999</v>
       </c>
       <c r="S95" s="14">
@@ -6993,7 +7039,7 @@
       <c r="Q96" s="14">
         <v>137.47999999999999</v>
       </c>
-      <c r="R96" s="22">
+      <c r="R96" s="21">
         <v>129.12</v>
       </c>
       <c r="S96" s="14">
@@ -7058,7 +7104,7 @@
       <c r="Q97" s="14">
         <v>138.15</v>
       </c>
-      <c r="R97" s="22">
+      <c r="R97" s="21">
         <v>129.44999999999999</v>
       </c>
       <c r="S97" s="14">
@@ -7123,7 +7169,7 @@
       <c r="Q98" s="14">
         <v>139.11000000000001</v>
       </c>
-      <c r="R98" s="22">
+      <c r="R98" s="21">
         <v>129.63999999999999</v>
       </c>
       <c r="S98" s="14">
@@ -7188,7 +7234,7 @@
       <c r="Q99" s="14">
         <v>140.01</v>
       </c>
-      <c r="R99" s="22">
+      <c r="R99" s="21">
         <v>130.01</v>
       </c>
       <c r="S99" s="14">
@@ -7253,7 +7299,7 @@
       <c r="Q100" s="14">
         <v>141.71</v>
       </c>
-      <c r="R100" s="22">
+      <c r="R100" s="21">
         <v>130.37</v>
       </c>
       <c r="S100" s="14">
@@ -7318,7 +7364,7 @@
       <c r="Q101" s="14">
         <v>142.49</v>
       </c>
-      <c r="R101" s="22">
+      <c r="R101" s="21">
         <v>131.19999999999999</v>
       </c>
       <c r="S101" s="14">
@@ -7383,7 +7429,7 @@
       <c r="Q102" s="14">
         <v>143.15</v>
       </c>
-      <c r="R102" s="22">
+      <c r="R102" s="21">
         <v>131.11000000000001</v>
       </c>
       <c r="S102" s="14">
@@ -7448,7 +7494,7 @@
       <c r="Q103" s="14">
         <v>143.28</v>
       </c>
-      <c r="R103" s="22">
+      <c r="R103" s="21">
         <v>131.69</v>
       </c>
       <c r="S103" s="14">
@@ -7513,7 +7559,7 @@
       <c r="Q104" s="14">
         <v>144.01</v>
       </c>
-      <c r="R104" s="22">
+      <c r="R104" s="21">
         <v>132.32</v>
       </c>
       <c r="S104" s="14">
@@ -7578,7 +7624,7 @@
       <c r="Q105" s="14">
         <v>144.9</v>
       </c>
-      <c r="R105" s="22">
+      <c r="R105" s="21">
         <v>133.80000000000001</v>
       </c>
       <c r="S105" s="14">
@@ -7643,7 +7689,7 @@
       <c r="Q106" s="14">
         <v>145.47999999999999</v>
       </c>
-      <c r="R106" s="22">
+      <c r="R106" s="21">
         <v>134.58000000000001</v>
       </c>
       <c r="S106" s="14">
@@ -7708,7 +7754,7 @@
       <c r="Q107" s="14">
         <v>146.32</v>
       </c>
-      <c r="R107" s="22">
+      <c r="R107" s="21">
         <v>135.27000000000001</v>
       </c>
       <c r="S107" s="14">
@@ -7773,7 +7819,7 @@
       <c r="Q108" s="14">
         <v>146.75</v>
       </c>
-      <c r="R108" s="22">
+      <c r="R108" s="21">
         <v>136.31</v>
       </c>
       <c r="S108" s="14">
@@ -7838,7 +7884,7 @@
       <c r="Q109" s="14">
         <v>148.21</v>
       </c>
-      <c r="R109" s="22">
+      <c r="R109" s="21">
         <v>136.86000000000001</v>
       </c>
       <c r="S109" s="14">
@@ -7903,7 +7949,7 @@
       <c r="Q110" s="14">
         <v>147.88999999999999</v>
       </c>
-      <c r="R110" s="22">
+      <c r="R110" s="21">
         <v>136.52000000000001</v>
       </c>
       <c r="S110" s="14">
@@ -7968,7 +8014,7 @@
       <c r="Q111" s="14">
         <v>148.41999999999999</v>
       </c>
-      <c r="R111" s="22">
+      <c r="R111" s="21">
         <v>137.21</v>
       </c>
       <c r="S111" s="14">
@@ -8033,7 +8079,7 @@
       <c r="Q112" s="14">
         <v>149.25</v>
       </c>
-      <c r="R112" s="22">
+      <c r="R112" s="21">
         <v>137.55000000000001</v>
       </c>
       <c r="S112" s="14">
@@ -8098,7 +8144,7 @@
       <c r="Q113" s="14">
         <v>150.05000000000001</v>
       </c>
-      <c r="R113" s="22">
+      <c r="R113" s="21">
         <v>137.80000000000001</v>
       </c>
       <c r="S113" s="14">
@@ -8163,7 +8209,7 @@
       <c r="Q114" s="14">
         <v>151.13</v>
       </c>
-      <c r="R114" s="22">
+      <c r="R114" s="21">
         <v>138.61000000000001</v>
       </c>
       <c r="S114" s="14">
@@ -8228,7 +8274,7 @@
       <c r="Q115" s="14">
         <v>152.06</v>
       </c>
-      <c r="R115" s="22">
+      <c r="R115" s="21">
         <v>138.88999999999999</v>
       </c>
       <c r="S115" s="14">
@@ -8293,7 +8339,7 @@
       <c r="Q116" s="14">
         <v>152.66</v>
       </c>
-      <c r="R116" s="22">
+      <c r="R116" s="21">
         <v>140.30000000000001</v>
       </c>
       <c r="S116" s="14">
@@ -8358,7 +8404,7 @@
       <c r="Q117" s="14">
         <v>153.97999999999999</v>
       </c>
-      <c r="R117" s="22">
+      <c r="R117" s="21">
         <v>141.71</v>
       </c>
       <c r="S117" s="14">
@@ -8423,7 +8469,7 @@
       <c r="Q118" s="14">
         <v>154.32</v>
       </c>
-      <c r="R118" s="22">
+      <c r="R118" s="21">
         <v>142.36000000000001</v>
       </c>
       <c r="S118" s="14">
@@ -8488,7 +8534,7 @@
       <c r="Q119" s="14">
         <v>155.05000000000001</v>
       </c>
-      <c r="R119" s="22">
+      <c r="R119" s="21">
         <v>143.13</v>
       </c>
       <c r="S119" s="14">
@@ -8553,7 +8599,7 @@
       <c r="Q120" s="14">
         <v>155.74</v>
       </c>
-      <c r="R120" s="22">
+      <c r="R120" s="21">
         <v>143.94999999999999</v>
       </c>
       <c r="S120" s="14">
@@ -8618,7 +8664,7 @@
       <c r="Q121" s="14">
         <v>156.51</v>
       </c>
-      <c r="R121" s="22">
+      <c r="R121" s="21">
         <v>144.44</v>
       </c>
       <c r="S121" s="14">
@@ -8683,7 +8729,7 @@
       <c r="Q122" s="14">
         <v>157.27000000000001</v>
       </c>
-      <c r="R122" s="22">
+      <c r="R122" s="21">
         <v>144.54</v>
       </c>
       <c r="S122" s="14">
@@ -8748,7 +8794,7 @@
       <c r="Q123" s="14">
         <v>158.31</v>
       </c>
-      <c r="R123" s="22">
+      <c r="R123" s="21">
         <v>144.88</v>
       </c>
       <c r="S123" s="14">
@@ -8813,7 +8859,7 @@
       <c r="Q124" s="14">
         <v>158.38999999999999</v>
       </c>
-      <c r="R124" s="22">
+      <c r="R124" s="21">
         <v>145.55000000000001</v>
       </c>
       <c r="S124" s="14">
@@ -8878,7 +8924,7 @@
       <c r="Q125" s="14">
         <v>159.22</v>
       </c>
-      <c r="R125" s="22">
+      <c r="R125" s="21">
         <v>145.05000000000001</v>
       </c>
       <c r="S125" s="14">
@@ -8943,7 +8989,7 @@
       <c r="Q126" s="14">
         <v>160.55000000000001</v>
       </c>
-      <c r="R126" s="22">
+      <c r="R126" s="21">
         <v>145.16</v>
       </c>
       <c r="S126" s="14">
@@ -9008,7 +9054,7 @@
       <c r="Q127" s="14">
         <v>161.28</v>
       </c>
-      <c r="R127" s="22">
+      <c r="R127" s="21">
         <v>146.88</v>
       </c>
       <c r="S127" s="14">
@@ -9073,7 +9119,7 @@
       <c r="Q128" s="14">
         <v>161.91999999999999</v>
       </c>
-      <c r="R128" s="22">
+      <c r="R128" s="21">
         <v>147.26</v>
       </c>
       <c r="S128" s="14">
@@ -9138,7 +9184,7 @@
       <c r="Q129" s="14">
         <v>163.66999999999999</v>
       </c>
-      <c r="R129" s="22">
+      <c r="R129" s="21">
         <v>148.94</v>
       </c>
       <c r="S129" s="14">
@@ -9203,7 +9249,7 @@
       <c r="Q130" s="14">
         <v>163.99</v>
       </c>
-      <c r="R130" s="22">
+      <c r="R130" s="21">
         <v>148.97999999999999</v>
       </c>
       <c r="S130" s="14">
@@ -9268,7 +9314,7 @@
       <c r="Q131" s="14">
         <v>164.65</v>
       </c>
-      <c r="R131" s="22">
+      <c r="R131" s="21">
         <v>149.87</v>
       </c>
       <c r="S131" s="14">
@@ -9333,7 +9379,7 @@
       <c r="Q132" s="14">
         <v>165.71</v>
       </c>
-      <c r="R132" s="22">
+      <c r="R132" s="21">
         <v>150.66</v>
       </c>
       <c r="S132" s="14">
@@ -9398,7 +9444,7 @@
       <c r="Q133" s="14">
         <v>165.93</v>
       </c>
-      <c r="R133" s="22">
+      <c r="R133" s="21">
         <v>150.29</v>
       </c>
       <c r="S133" s="14">
@@ -9463,7 +9509,7 @@
       <c r="Q134" s="14">
         <v>167.03</v>
       </c>
-      <c r="R134" s="22">
+      <c r="R134" s="21">
         <v>150.96</v>
       </c>
       <c r="S134" s="14">
@@ -9528,7 +9574,7 @@
       <c r="Q135" s="14">
         <v>168.1</v>
       </c>
-      <c r="R135" s="22">
+      <c r="R135" s="21">
         <v>151.13999999999999</v>
       </c>
       <c r="S135" s="14">
@@ -9593,7 +9639,7 @@
       <c r="Q136" s="14">
         <v>167.93</v>
       </c>
-      <c r="R136" s="22">
+      <c r="R136" s="21">
         <v>150.75</v>
       </c>
       <c r="S136" s="14">
@@ -9658,7 +9704,7 @@
       <c r="Q137" s="14">
         <v>169.57</v>
       </c>
-      <c r="R137" s="22">
+      <c r="R137" s="21">
         <v>151.13999999999999</v>
       </c>
       <c r="S137" s="14">
@@ -9723,7 +9769,7 @@
       <c r="Q138" s="14">
         <v>169.94</v>
       </c>
-      <c r="R138" s="22">
+      <c r="R138" s="21">
         <v>150.24</v>
       </c>
       <c r="S138" s="14">
@@ -9788,7 +9834,7 @@
       <c r="Q139" s="14">
         <v>170.31</v>
       </c>
-      <c r="R139" s="22">
+      <c r="R139" s="21">
         <v>151.66</v>
       </c>
       <c r="S139" s="14">
@@ -9853,7 +9899,7 @@
       <c r="Q140" s="14">
         <v>171.42</v>
       </c>
-      <c r="R140" s="22">
+      <c r="R140" s="21">
         <v>153.05000000000001</v>
       </c>
       <c r="S140" s="14">
@@ -9918,7 +9964,7 @@
       <c r="Q141" s="14">
         <v>172.07</v>
       </c>
-      <c r="R141" s="22">
+      <c r="R141" s="21">
         <v>153.87</v>
       </c>
       <c r="S141" s="14">
@@ -9983,7 +10029,7 @@
       <c r="Q142" s="14">
         <v>172.8</v>
       </c>
-      <c r="R142" s="22">
+      <c r="R142" s="21">
         <v>154.62</v>
       </c>
       <c r="S142" s="14">
@@ -10048,7 +10094,7 @@
       <c r="Q143" s="14">
         <v>173.9</v>
       </c>
-      <c r="R143" s="22">
+      <c r="R143" s="21">
         <v>155.12</v>
       </c>
       <c r="S143" s="14">
@@ -10113,7 +10159,7 @@
       <c r="Q144" s="14">
         <v>174.38</v>
       </c>
-      <c r="R144" s="22">
+      <c r="R144" s="21">
         <v>155.38</v>
       </c>
       <c r="S144" s="14">
@@ -10178,7 +10224,7 @@
       <c r="Q145" s="14">
         <v>175.28</v>
       </c>
-      <c r="R145" s="22">
+      <c r="R145" s="21">
         <v>155.77000000000001</v>
       </c>
       <c r="S145" s="14">
@@ -10243,7 +10289,7 @@
       <c r="Q146" s="14">
         <v>176.09</v>
       </c>
-      <c r="R146" s="22">
+      <c r="R146" s="21">
         <v>156.04</v>
       </c>
       <c r="S146" s="14">
@@ -10308,7 +10354,7 @@
       <c r="Q147" s="14">
         <v>176.8</v>
       </c>
-      <c r="R147" s="22">
+      <c r="R147" s="21">
         <v>156.44999999999999</v>
       </c>
       <c r="S147" s="14">
@@ -10373,7 +10419,7 @@
       <c r="Q148" s="14">
         <v>177.6</v>
       </c>
-      <c r="R148" s="22">
+      <c r="R148" s="21">
         <v>156.25</v>
       </c>
       <c r="S148" s="14">
@@ -10438,7 +10484,7 @@
       <c r="Q149" s="14">
         <v>179.27</v>
       </c>
-      <c r="R149" s="22">
+      <c r="R149" s="21">
         <v>156.97999999999999</v>
       </c>
       <c r="S149" s="14">
@@ -10503,7 +10549,7 @@
       <c r="Q150" s="14">
         <v>179.99</v>
       </c>
-      <c r="R150" s="22">
+      <c r="R150" s="21">
         <v>156.62</v>
       </c>
       <c r="S150" s="14">
@@ -10568,7 +10614,7 @@
       <c r="Q151" s="14">
         <v>180.57</v>
       </c>
-      <c r="R151" s="22">
+      <c r="R151" s="21">
         <v>157.07</v>
       </c>
       <c r="S151" s="14">
@@ -10633,7 +10679,7 @@
       <c r="Q152" s="14">
         <v>181.49</v>
       </c>
-      <c r="R152" s="22">
+      <c r="R152" s="21">
         <v>157.93</v>
       </c>
       <c r="S152" s="14">
@@ -10698,7 +10744,7 @@
       <c r="Q153" s="14">
         <v>181.55</v>
       </c>
-      <c r="R153" s="22">
+      <c r="R153" s="21">
         <v>158.81</v>
       </c>
       <c r="S153" s="14">
@@ -10763,7 +10809,7 @@
       <c r="Q154" s="14">
         <v>182.21</v>
       </c>
-      <c r="R154" s="22">
+      <c r="R154" s="21">
         <v>159.62</v>
       </c>
       <c r="S154" s="14">
@@ -10828,7 +10874,7 @@
       <c r="Q155" s="14">
         <v>183.12</v>
       </c>
-      <c r="R155" s="22">
+      <c r="R155" s="21">
         <v>160.02000000000001</v>
       </c>
       <c r="S155" s="14">
@@ -10893,7 +10939,7 @@
       <c r="Q156" s="14">
         <v>184.05</v>
       </c>
-      <c r="R156" s="22">
+      <c r="R156" s="21">
         <v>160.55000000000001</v>
       </c>
       <c r="S156" s="14">
@@ -10958,7 +11004,7 @@
       <c r="Q157" s="14">
         <v>185.26</v>
       </c>
-      <c r="R157" s="22">
+      <c r="R157" s="21">
         <v>161.25</v>
       </c>
       <c r="S157" s="14">
@@ -11023,7 +11069,7 @@
       <c r="Q158" s="14">
         <v>186.19</v>
       </c>
-      <c r="R158" s="22">
+      <c r="R158" s="21">
         <v>161.6</v>
       </c>
       <c r="S158" s="14">
@@ -11088,7 +11134,7 @@
       <c r="Q159" s="14">
         <v>186.74</v>
       </c>
-      <c r="R159" s="22">
+      <c r="R159" s="21">
         <v>161.07</v>
       </c>
       <c r="S159" s="14">
@@ -11153,7 +11199,7 @@
       <c r="Q160" s="14">
         <v>188.28</v>
       </c>
-      <c r="R160" s="22">
+      <c r="R160" s="21">
         <v>161.16999999999999</v>
       </c>
       <c r="S160" s="14">
@@ -11218,7 +11264,7 @@
       <c r="Q161" s="14">
         <v>188.44</v>
       </c>
-      <c r="R161" s="22">
+      <c r="R161" s="21">
         <v>161.81</v>
       </c>
       <c r="S161" s="14">
@@ -11283,7 +11329,7 @@
       <c r="Q162" s="14">
         <v>189.91</v>
       </c>
-      <c r="R162" s="22">
+      <c r="R162" s="21">
         <v>160.94999999999999</v>
       </c>
       <c r="S162" s="14">
@@ -11348,7 +11394,7 @@
       <c r="Q163" s="14">
         <v>190.57</v>
       </c>
-      <c r="R163" s="22">
+      <c r="R163" s="21">
         <v>162.13</v>
       </c>
       <c r="S163" s="14">
@@ -11413,7 +11459,7 @@
       <c r="Q164" s="14">
         <v>191.34</v>
       </c>
-      <c r="R164" s="22">
+      <c r="R164" s="21">
         <v>164.17</v>
       </c>
       <c r="S164" s="14">
@@ -11478,7 +11524,7 @@
       <c r="Q165" s="14">
         <v>191.46</v>
       </c>
-      <c r="R165" s="22">
+      <c r="R165" s="21">
         <v>165.08</v>
       </c>
       <c r="S165" s="14">
@@ -11543,7 +11589,7 @@
       <c r="Q166" s="14">
         <v>193.12</v>
       </c>
-      <c r="R166" s="22">
+      <c r="R166" s="21">
         <v>166</v>
       </c>
       <c r="S166" s="14">
@@ -11608,7 +11654,7 @@
       <c r="Q167" s="14">
         <v>193.8</v>
       </c>
-      <c r="R167" s="22">
+      <c r="R167" s="21">
         <v>167.06</v>
       </c>
       <c r="S167" s="14">
@@ -11673,7 +11719,7 @@
       <c r="Q168" s="14">
         <v>194.42</v>
       </c>
-      <c r="R168" s="22">
+      <c r="R168" s="21">
         <v>166.78</v>
       </c>
       <c r="S168" s="14">
@@ -11738,7 +11784,7 @@
       <c r="Q169" s="14">
         <v>195.46</v>
       </c>
-      <c r="R169" s="22">
+      <c r="R169" s="21">
         <v>167.78</v>
       </c>
       <c r="S169" s="14">
@@ -11803,7 +11849,7 @@
       <c r="Q170" s="14">
         <v>196.07</v>
       </c>
-      <c r="R170" s="22">
+      <c r="R170" s="21">
         <v>168.03</v>
       </c>
       <c r="S170" s="14">
@@ -11868,7 +11914,7 @@
       <c r="Q171" s="14">
         <v>197</v>
       </c>
-      <c r="R171" s="22">
+      <c r="R171" s="21">
         <v>168</v>
       </c>
       <c r="S171" s="14">
@@ -11933,7 +11979,7 @@
       <c r="Q172" s="14">
         <v>198.64</v>
       </c>
-      <c r="R172" s="22">
+      <c r="R172" s="21">
         <v>168.72</v>
       </c>
       <c r="S172" s="14">
@@ -11998,7 +12044,7 @@
       <c r="Q173" s="14">
         <v>198.59</v>
       </c>
-      <c r="R173" s="22">
+      <c r="R173" s="21">
         <v>168.71</v>
       </c>
       <c r="S173" s="14">
@@ -12063,7 +12109,7 @@
       <c r="Q174" s="14">
         <v>199.16</v>
       </c>
-      <c r="R174" s="22">
+      <c r="R174" s="21">
         <v>168.91</v>
       </c>
       <c r="S174" s="14">
@@ -12128,7 +12174,7 @@
       <c r="Q175" s="14">
         <v>200.27</v>
       </c>
-      <c r="R175" s="22">
+      <c r="R175" s="21">
         <v>169.74</v>
       </c>
       <c r="S175" s="14">
@@ -12193,7 +12239,7 @@
       <c r="Q176" s="14">
         <v>200.95</v>
       </c>
-      <c r="R176" s="22">
+      <c r="R176" s="21">
         <v>171.37</v>
       </c>
       <c r="S176" s="14">
@@ -12258,7 +12304,7 @@
       <c r="Q177" s="14">
         <v>202.78</v>
       </c>
-      <c r="R177" s="22">
+      <c r="R177" s="21">
         <v>172.71</v>
       </c>
       <c r="S177" s="14">
@@ -12323,7 +12369,7 @@
       <c r="Q178" s="14">
         <v>203.14</v>
       </c>
-      <c r="R178" s="22">
+      <c r="R178" s="21">
         <v>174.45</v>
       </c>
       <c r="S178" s="14">
@@ -12388,7 +12434,7 @@
       <c r="Q179" s="14">
         <v>203.72</v>
       </c>
-      <c r="R179" s="22">
+      <c r="R179" s="21">
         <v>175.87</v>
       </c>
       <c r="S179" s="14">
@@ -12453,7 +12499,7 @@
       <c r="Q180" s="14">
         <v>204.39</v>
       </c>
-      <c r="R180" s="22">
+      <c r="R180" s="21">
         <v>176.84</v>
       </c>
       <c r="S180" s="14">
@@ -12518,7 +12564,7 @@
       <c r="Q181" s="14">
         <v>205.23</v>
       </c>
-      <c r="R181" s="22">
+      <c r="R181" s="21">
         <v>177.13</v>
       </c>
       <c r="S181" s="14">
@@ -12583,7 +12629,7 @@
       <c r="Q182" s="14">
         <v>205.77</v>
       </c>
-      <c r="R182" s="22">
+      <c r="R182" s="21">
         <v>177.93</v>
       </c>
       <c r="S182" s="14">
@@ -12648,7 +12694,7 @@
       <c r="Q183" s="14">
         <v>206.61</v>
       </c>
-      <c r="R183" s="22">
+      <c r="R183" s="21">
         <v>179.49</v>
       </c>
       <c r="S183" s="14">
@@ -12713,7 +12759,7 @@
       <c r="Q184" s="14">
         <v>207.49</v>
       </c>
-      <c r="R184" s="22">
+      <c r="R184" s="21">
         <v>179.6</v>
       </c>
       <c r="S184" s="14">
@@ -12778,7 +12824,7 @@
       <c r="Q185" s="14">
         <v>208.65</v>
       </c>
-      <c r="R185" s="22">
+      <c r="R185" s="21">
         <v>180.56</v>
       </c>
       <c r="S185" s="14">
@@ -12843,7 +12889,7 @@
       <c r="Q186" s="14">
         <v>209.78</v>
       </c>
-      <c r="R186" s="22">
+      <c r="R186" s="21">
         <v>181.02</v>
       </c>
       <c r="S186" s="14">
@@ -12908,7 +12954,7 @@
       <c r="Q187" s="14">
         <v>209.63</v>
       </c>
-      <c r="R187" s="22">
+      <c r="R187" s="21">
         <v>182.15</v>
       </c>
       <c r="S187" s="14">
@@ -12973,7 +13019,7 @@
       <c r="Q188" s="14">
         <v>210.12</v>
       </c>
-      <c r="R188" s="22">
+      <c r="R188" s="21">
         <v>183.93</v>
       </c>
       <c r="S188" s="14">
@@ -13038,7 +13084,7 @@
       <c r="Q189" s="14">
         <v>210.37</v>
       </c>
-      <c r="R189" s="22">
+      <c r="R189" s="21">
         <v>184.43</v>
       </c>
       <c r="S189" s="14">
@@ -13103,7 +13149,7 @@
       <c r="Q190" s="14">
         <v>210.69</v>
       </c>
-      <c r="R190" s="22">
+      <c r="R190" s="21">
         <v>187.23</v>
       </c>
       <c r="S190" s="14">
@@ -13168,7 +13214,7 @@
       <c r="Q191" s="14">
         <v>210.84</v>
       </c>
-      <c r="R191" s="22">
+      <c r="R191" s="21">
         <v>188.06</v>
       </c>
       <c r="S191" s="14">
@@ -13233,7 +13279,7 @@
       <c r="Q192" s="14">
         <v>211.53</v>
       </c>
-      <c r="R192" s="22">
+      <c r="R192" s="21">
         <v>188.43</v>
       </c>
       <c r="S192" s="14">
@@ -13298,7 +13344,7 @@
       <c r="Q193" s="14">
         <v>211.83</v>
       </c>
-      <c r="R193" s="22">
+      <c r="R193" s="21">
         <v>189.87</v>
       </c>
       <c r="S193" s="14">
@@ -13363,7 +13409,7 @@
       <c r="Q194" s="14">
         <v>211.5</v>
       </c>
-      <c r="R194" s="22">
+      <c r="R194" s="21">
         <v>189.84</v>
       </c>
       <c r="S194" s="14">
@@ -13428,7 +13474,7 @@
       <c r="Q195" s="14">
         <v>211.55</v>
       </c>
-      <c r="R195" s="22">
+      <c r="R195" s="21">
         <v>190.49</v>
       </c>
       <c r="S195" s="14">
@@ -13493,7 +13539,7 @@
       <c r="Q196" s="14">
         <v>212.64</v>
       </c>
-      <c r="R196" s="22">
+      <c r="R196" s="21">
         <v>191.11</v>
       </c>
       <c r="S196" s="14">
@@ -13558,7 +13604,7 @@
       <c r="Q197" s="14">
         <v>211.28</v>
       </c>
-      <c r="R197" s="22">
+      <c r="R197" s="21">
         <v>190.85</v>
       </c>
       <c r="S197" s="14">
@@ -13623,7 +13669,7 @@
       <c r="Q198" s="14">
         <v>213.1</v>
       </c>
-      <c r="R198" s="22">
+      <c r="R198" s="21">
         <v>191.94</v>
       </c>
       <c r="S198" s="14">
@@ -13688,7 +13734,7 @@
       <c r="Q199" s="14">
         <v>214.35</v>
       </c>
-      <c r="R199" s="22">
+      <c r="R199" s="21">
         <v>192.71</v>
       </c>
       <c r="S199" s="14">
@@ -13753,7 +13799,7 @@
       <c r="Q200" s="14">
         <v>214.56</v>
       </c>
-      <c r="R200" s="22">
+      <c r="R200" s="21">
         <v>194.19</v>
       </c>
       <c r="S200" s="14">
@@ -13818,7 +13864,7 @@
       <c r="Q201" s="14">
         <v>213.81</v>
       </c>
-      <c r="R201" s="22">
+      <c r="R201" s="21">
         <v>195.29</v>
       </c>
       <c r="S201" s="14">
@@ -13883,7 +13929,7 @@
       <c r="Q202" s="14">
         <v>213.67</v>
       </c>
-      <c r="R202" s="22">
+      <c r="R202" s="21">
         <v>196.92</v>
       </c>
       <c r="S202" s="14">
@@ -13948,7 +13994,7 @@
       <c r="Q203" s="14">
         <v>213.13</v>
       </c>
-      <c r="R203" s="22">
+      <c r="R203" s="21">
         <v>197.44</v>
       </c>
       <c r="S203" s="14">
@@ -14013,7 +14059,7 @@
       <c r="Q204" s="14">
         <v>213.33</v>
       </c>
-      <c r="R204" s="22">
+      <c r="R204" s="21">
         <v>198.05</v>
       </c>
       <c r="S204" s="14">
@@ -14078,7 +14124,7 @@
       <c r="Q205" s="14">
         <v>212.03</v>
       </c>
-      <c r="R205" s="22">
+      <c r="R205" s="21">
         <v>198.73</v>
       </c>
       <c r="S205" s="14">
@@ -14143,7 +14189,7 @@
       <c r="Q206" s="14">
         <v>213.54</v>
       </c>
-      <c r="R206" s="22">
+      <c r="R206" s="21">
         <v>197.64</v>
       </c>
       <c r="S206" s="14">
@@ -14208,7 +14254,7 @@
       <c r="Q207" s="14">
         <v>209.25</v>
       </c>
-      <c r="R207" s="22">
+      <c r="R207" s="21">
         <v>197.55</v>
       </c>
       <c r="S207" s="14">
@@ -14273,7 +14319,7 @@
       <c r="Q208" s="14">
         <v>210.58</v>
       </c>
-      <c r="R208" s="22">
+      <c r="R208" s="21">
         <v>196.23</v>
       </c>
       <c r="S208" s="14">
@@ -14338,7 +14384,7 @@
       <c r="Q209" s="14">
         <v>210.41</v>
       </c>
-      <c r="R209" s="22">
+      <c r="R209" s="21">
         <v>196.3</v>
       </c>
       <c r="S209" s="14">
@@ -14403,7 +14449,7 @@
       <c r="Q210" s="14">
         <v>209.15</v>
       </c>
-      <c r="R210" s="22">
+      <c r="R210" s="21">
         <v>194.86</v>
       </c>
       <c r="S210" s="14">
@@ -14468,7 +14514,7 @@
       <c r="Q211" s="14">
         <v>207.98</v>
       </c>
-      <c r="R211" s="22">
+      <c r="R211" s="21">
         <v>195.27</v>
       </c>
       <c r="S211" s="14">
@@ -14533,7 +14579,7 @@
       <c r="Q212" s="14">
         <v>208.35</v>
       </c>
-      <c r="R212" s="22">
+      <c r="R212" s="21">
         <v>195.43</v>
       </c>
       <c r="S212" s="14">
@@ -14598,7 +14644,7 @@
       <c r="Q213" s="14">
         <v>207.23</v>
       </c>
-      <c r="R213" s="22">
+      <c r="R213" s="21">
         <v>196.28</v>
       </c>
       <c r="S213" s="14">
@@ -14663,7 +14709,7 @@
       <c r="Q214" s="14">
         <v>205.25</v>
       </c>
-      <c r="R214" s="22">
+      <c r="R214" s="21">
         <v>197.07</v>
       </c>
       <c r="S214" s="14">
@@ -14728,7 +14774,7 @@
       <c r="Q215" s="14">
         <v>205.21</v>
       </c>
-      <c r="R215" s="22">
+      <c r="R215" s="21">
         <v>198.78</v>
       </c>
       <c r="S215" s="14">
@@ -14793,7 +14839,7 @@
       <c r="Q216" s="14">
         <v>204.16</v>
       </c>
-      <c r="R216" s="22">
+      <c r="R216" s="21">
         <v>198.16</v>
       </c>
       <c r="S216" s="14">
@@ -14858,7 +14904,7 @@
       <c r="Q217" s="14">
         <v>203.99</v>
       </c>
-      <c r="R217" s="22">
+      <c r="R217" s="21">
         <v>196.37</v>
       </c>
       <c r="S217" s="14">
@@ -14923,7 +14969,7 @@
       <c r="Q218" s="14">
         <v>202.21</v>
       </c>
-      <c r="R218" s="22">
+      <c r="R218" s="21">
         <v>197.12</v>
       </c>
       <c r="S218" s="14">
@@ -14988,7 +15034,7 @@
       <c r="Q219" s="14">
         <v>201.99</v>
       </c>
-      <c r="R219" s="22">
+      <c r="R219" s="21">
         <v>194.84</v>
       </c>
       <c r="S219" s="14">
@@ -15053,7 +15099,7 @@
       <c r="Q220" s="14">
         <v>197.63</v>
       </c>
-      <c r="R220" s="22">
+      <c r="R220" s="21">
         <v>191.53</v>
       </c>
       <c r="S220" s="14">
@@ -15118,7 +15164,7 @@
       <c r="Q221" s="14">
         <v>200.1</v>
       </c>
-      <c r="R221" s="22">
+      <c r="R221" s="21">
         <v>191.56</v>
       </c>
       <c r="S221" s="14">
@@ -15183,7 +15229,7 @@
       <c r="Q222" s="14">
         <v>202.16</v>
       </c>
-      <c r="R222" s="22">
+      <c r="R222" s="21">
         <v>191.34</v>
       </c>
       <c r="S222" s="14">
@@ -15248,7 +15294,7 @@
       <c r="Q223" s="14">
         <v>203.54</v>
       </c>
-      <c r="R223" s="22">
+      <c r="R223" s="21">
         <v>192.98</v>
       </c>
       <c r="S223" s="14">
@@ -15313,7 +15359,7 @@
       <c r="Q224" s="14">
         <v>200.09</v>
       </c>
-      <c r="R224" s="22">
+      <c r="R224" s="21">
         <v>193.76</v>
       </c>
       <c r="S224" s="14">
@@ -15378,7 +15424,7 @@
       <c r="Q225" s="14">
         <v>200.4</v>
       </c>
-      <c r="R225" s="22">
+      <c r="R225" s="21">
         <v>193.85</v>
       </c>
       <c r="S225" s="14">
@@ -15443,7 +15489,7 @@
       <c r="Q226" s="14">
         <v>200.07</v>
       </c>
-      <c r="R226" s="22">
+      <c r="R226" s="21">
         <v>195.43</v>
       </c>
       <c r="S226" s="14">
@@ -15508,7 +15554,7 @@
       <c r="Q227" s="14">
         <v>200.12</v>
       </c>
-      <c r="R227" s="22">
+      <c r="R227" s="21">
         <v>198.34</v>
       </c>
       <c r="S227" s="14">
@@ -15573,7 +15619,7 @@
       <c r="Q228" s="14">
         <v>199.42</v>
       </c>
-      <c r="R228" s="22">
+      <c r="R228" s="21">
         <v>196.04</v>
       </c>
       <c r="S228" s="14">
@@ -15638,7 +15684,7 @@
       <c r="Q229" s="14">
         <v>199.48</v>
       </c>
-      <c r="R229" s="22">
+      <c r="R229" s="21">
         <v>195.92</v>
       </c>
       <c r="S229" s="14">
@@ -15703,7 +15749,7 @@
       <c r="Q230" s="14">
         <v>199.28</v>
       </c>
-      <c r="R230" s="22">
+      <c r="R230" s="21">
         <v>194.35</v>
       </c>
       <c r="S230" s="14">
@@ -15768,7 +15814,7 @@
       <c r="Q231" s="14">
         <v>199.65</v>
       </c>
-      <c r="R231" s="22">
+      <c r="R231" s="21">
         <v>196.26</v>
       </c>
       <c r="S231" s="14">
@@ -15833,7 +15879,7 @@
       <c r="Q232" s="14">
         <v>200.2</v>
       </c>
-      <c r="R232" s="22">
+      <c r="R232" s="21">
         <v>194.22</v>
       </c>
       <c r="S232" s="14">
@@ -15898,7 +15944,7 @@
       <c r="Q233" s="14">
         <v>198.65</v>
       </c>
-      <c r="R233" s="22">
+      <c r="R233" s="21">
         <v>193.31</v>
       </c>
       <c r="S233" s="14">
@@ -15963,7 +16009,7 @@
       <c r="Q234" s="14">
         <v>197.16</v>
       </c>
-      <c r="R234" s="22">
+      <c r="R234" s="21">
         <v>192.46</v>
       </c>
       <c r="S234" s="14">
@@ -16028,7 +16074,7 @@
       <c r="Q235" s="14">
         <v>198.02</v>
       </c>
-      <c r="R235" s="22">
+      <c r="R235" s="21">
         <v>192.34</v>
       </c>
       <c r="S235" s="14">
@@ -16093,7 +16139,7 @@
       <c r="Q236" s="14">
         <v>197.72</v>
       </c>
-      <c r="R236" s="22">
+      <c r="R236" s="21">
         <v>192.94</v>
       </c>
       <c r="S236" s="14">
@@ -16158,7 +16204,7 @@
       <c r="Q237" s="14">
         <v>198.97</v>
       </c>
-      <c r="R237" s="22">
+      <c r="R237" s="21">
         <v>195.59</v>
       </c>
       <c r="S237" s="14">
@@ -16223,7 +16269,7 @@
       <c r="Q238" s="14">
         <v>199.76</v>
       </c>
-      <c r="R238" s="22">
+      <c r="R238" s="21">
         <v>198.29</v>
       </c>
       <c r="S238" s="14">
@@ -16288,7 +16334,7 @@
       <c r="Q239" s="14">
         <v>197.88</v>
       </c>
-      <c r="R239" s="22">
+      <c r="R239" s="21">
         <v>196.41</v>
       </c>
       <c r="S239" s="14">
@@ -16353,7 +16399,7 @@
       <c r="Q240" s="14">
         <v>194.38</v>
       </c>
-      <c r="R240" s="22">
+      <c r="R240" s="21">
         <v>196.18</v>
       </c>
       <c r="S240" s="14">
@@ -16418,7 +16464,7 @@
       <c r="Q241" s="14">
         <v>195.78</v>
       </c>
-      <c r="R241" s="22">
+      <c r="R241" s="21">
         <v>196.01</v>
       </c>
       <c r="S241" s="14">
@@ -16483,7 +16529,7 @@
       <c r="Q242" s="14">
         <v>194.23</v>
       </c>
-      <c r="R242" s="22">
+      <c r="R242" s="21">
         <v>192.24</v>
       </c>
       <c r="S242" s="14">
@@ -16548,7 +16594,7 @@
       <c r="Q243" s="14">
         <v>193.52</v>
       </c>
-      <c r="R243" s="22">
+      <c r="R243" s="21">
         <v>191.29</v>
       </c>
       <c r="S243" s="14">
@@ -16613,7 +16659,7 @@
       <c r="Q244" s="14">
         <v>192.71</v>
       </c>
-      <c r="R244" s="22">
+      <c r="R244" s="21">
         <v>191.03</v>
       </c>
       <c r="S244" s="14">
@@ -16678,7 +16724,7 @@
       <c r="Q245" s="14">
         <v>192.78</v>
       </c>
-      <c r="R245" s="22">
+      <c r="R245" s="21">
         <v>188.71</v>
       </c>
       <c r="S245" s="14">
@@ -16743,7 +16789,7 @@
       <c r="Q246" s="14">
         <v>190.35</v>
       </c>
-      <c r="R246" s="22">
+      <c r="R246" s="21">
         <v>188.19</v>
       </c>
       <c r="S246" s="14">
@@ -16808,7 +16854,7 @@
       <c r="Q247" s="14">
         <v>188.81</v>
       </c>
-      <c r="R247" s="22">
+      <c r="R247" s="21">
         <v>187.88</v>
       </c>
       <c r="S247" s="14">
@@ -16873,7 +16919,7 @@
       <c r="Q248" s="14">
         <v>188.24</v>
       </c>
-      <c r="R248" s="22">
+      <c r="R248" s="21">
         <v>188.21</v>
       </c>
       <c r="S248" s="14">
@@ -16938,7 +16984,7 @@
       <c r="Q249" s="14">
         <v>187.99</v>
       </c>
-      <c r="R249" s="22">
+      <c r="R249" s="21">
         <v>191.31</v>
       </c>
       <c r="S249" s="14">
@@ -17003,7 +17049,7 @@
       <c r="Q250" s="14">
         <v>188.19</v>
       </c>
-      <c r="R250" s="22">
+      <c r="R250" s="21">
         <v>191.61</v>
       </c>
       <c r="S250" s="14">
@@ -17068,7 +17114,7 @@
       <c r="Q251" s="14">
         <v>189.14</v>
       </c>
-      <c r="R251" s="22">
+      <c r="R251" s="21">
         <v>194.74</v>
       </c>
       <c r="S251" s="14">
@@ -17133,7 +17179,7 @@
       <c r="Q252" s="14">
         <v>190.39</v>
       </c>
-      <c r="R252" s="22">
+      <c r="R252" s="21">
         <v>192.73</v>
       </c>
       <c r="S252" s="14">
@@ -17198,7 +17244,7 @@
       <c r="Q253" s="14">
         <v>189.34</v>
       </c>
-      <c r="R253" s="22">
+      <c r="R253" s="21">
         <v>191.17</v>
       </c>
       <c r="S253" s="14">
@@ -17263,7 +17309,7 @@
       <c r="Q254" s="14">
         <v>190.8</v>
       </c>
-      <c r="R254" s="22">
+      <c r="R254" s="21">
         <v>191.38</v>
       </c>
       <c r="S254" s="14">
@@ -17328,7 +17374,7 @@
       <c r="Q255" s="14">
         <v>190.94</v>
       </c>
-      <c r="R255" s="22">
+      <c r="R255" s="21">
         <v>191.05</v>
       </c>
       <c r="S255" s="14">
@@ -17393,7 +17439,7 @@
       <c r="Q256" s="14">
         <v>192.18</v>
       </c>
-      <c r="R256" s="22">
+      <c r="R256" s="21">
         <v>192.54</v>
       </c>
       <c r="S256" s="14">
@@ -17458,7 +17504,7 @@
       <c r="Q257" s="14">
         <v>188.71</v>
       </c>
-      <c r="R257" s="22">
+      <c r="R257" s="21">
         <v>191.72</v>
       </c>
       <c r="S257" s="14">
@@ -17523,7 +17569,7 @@
       <c r="Q258" s="14">
         <v>193.06</v>
       </c>
-      <c r="R258" s="22">
+      <c r="R258" s="21">
         <v>188.71</v>
       </c>
       <c r="S258" s="14">
@@ -17588,7 +17634,7 @@
       <c r="Q259" s="14">
         <v>191.41</v>
       </c>
-      <c r="R259" s="22">
+      <c r="R259" s="21">
         <v>191.19</v>
       </c>
       <c r="S259" s="14">
@@ -17653,7 +17699,7 @@
       <c r="Q260" s="14">
         <v>192.44</v>
       </c>
-      <c r="R260" s="22">
+      <c r="R260" s="21">
         <v>194.78</v>
       </c>
       <c r="S260" s="14">
@@ -17718,7 +17764,7 @@
       <c r="Q261" s="14">
         <v>191.84</v>
       </c>
-      <c r="R261" s="22">
+      <c r="R261" s="21">
         <v>196.82</v>
       </c>
       <c r="S261" s="14">
@@ -17783,7 +17829,7 @@
       <c r="Q262" s="14">
         <v>194.04</v>
       </c>
-      <c r="R262" s="22">
+      <c r="R262" s="21">
         <v>197.82</v>
       </c>
       <c r="S262" s="14">
@@ -17848,7 +17894,7 @@
       <c r="Q263" s="14">
         <v>194.26</v>
       </c>
-      <c r="R263" s="22">
+      <c r="R263" s="21">
         <v>199.62</v>
       </c>
       <c r="S263" s="14">
@@ -17913,7 +17959,7 @@
       <c r="Q264" s="14">
         <v>196.05</v>
       </c>
-      <c r="R264" s="22">
+      <c r="R264" s="21">
         <v>201.06</v>
       </c>
       <c r="S264" s="14">
@@ -17978,7 +18024,7 @@
       <c r="Q265" s="14">
         <v>195.55</v>
       </c>
-      <c r="R265" s="22">
+      <c r="R265" s="21">
         <v>200.05</v>
       </c>
       <c r="S265" s="14">
@@ -18043,7 +18089,7 @@
       <c r="Q266" s="14">
         <v>195.53</v>
       </c>
-      <c r="R266" s="22">
+      <c r="R266" s="21">
         <v>200.63</v>
       </c>
       <c r="S266" s="14">
@@ -18108,7 +18154,7 @@
       <c r="Q267" s="14">
         <v>197.27</v>
       </c>
-      <c r="R267" s="22">
+      <c r="R267" s="21">
         <v>200.59</v>
       </c>
       <c r="S267" s="14">
@@ -18173,7 +18219,7 @@
       <c r="Q268" s="14">
         <v>198.29</v>
       </c>
-      <c r="R268" s="22">
+      <c r="R268" s="21">
         <v>201.24</v>
       </c>
       <c r="S268" s="14">
@@ -18238,7 +18284,7 @@
       <c r="Q269" s="14">
         <v>198.56</v>
       </c>
-      <c r="R269" s="22">
+      <c r="R269" s="21">
         <v>200.06</v>
       </c>
       <c r="S269" s="14">
@@ -18303,7 +18349,7 @@
       <c r="Q270" s="14">
         <v>199.79</v>
       </c>
-      <c r="R270" s="22">
+      <c r="R270" s="21">
         <v>200.94</v>
       </c>
       <c r="S270" s="14">
@@ -18368,7 +18414,7 @@
       <c r="Q271" s="14">
         <v>199.78</v>
       </c>
-      <c r="R271" s="22">
+      <c r="R271" s="21">
         <v>202.45</v>
       </c>
       <c r="S271" s="14">
@@ -18433,7 +18479,7 @@
       <c r="Q272" s="14">
         <v>201.56</v>
       </c>
-      <c r="R272" s="22">
+      <c r="R272" s="21">
         <v>205.64</v>
       </c>
       <c r="S272" s="14">
@@ -18498,7 +18544,7 @@
       <c r="Q273" s="14">
         <v>200.97</v>
       </c>
-      <c r="R273" s="22">
+      <c r="R273" s="21">
         <v>207.24</v>
       </c>
       <c r="S273" s="14">
@@ -18563,7 +18609,7 @@
       <c r="Q274" s="14">
         <v>202.05</v>
       </c>
-      <c r="R274" s="22">
+      <c r="R274" s="21">
         <v>210.25</v>
       </c>
       <c r="S274" s="14">
@@ -18628,7 +18674,7 @@
       <c r="Q275" s="14">
         <v>204.15</v>
       </c>
-      <c r="R275" s="22">
+      <c r="R275" s="21">
         <v>211.87</v>
       </c>
       <c r="S275" s="14">
@@ -18693,7 +18739,7 @@
       <c r="Q276" s="14">
         <v>204.36</v>
       </c>
-      <c r="R276" s="22">
+      <c r="R276" s="21">
         <v>211.11</v>
       </c>
       <c r="S276" s="14">
@@ -18758,7 +18804,7 @@
       <c r="Q277" s="14">
         <v>205.34</v>
       </c>
-      <c r="R277" s="22">
+      <c r="R277" s="21">
         <v>210.38</v>
       </c>
       <c r="S277" s="14">
@@ -18823,7 +18869,7 @@
       <c r="Q278" s="14">
         <v>206.16</v>
       </c>
-      <c r="R278" s="22">
+      <c r="R278" s="21">
         <v>211.18</v>
       </c>
       <c r="S278" s="14">
@@ -18888,7 +18934,7 @@
       <c r="Q279" s="14">
         <v>205.1</v>
       </c>
-      <c r="R279" s="22">
+      <c r="R279" s="21">
         <v>210.48</v>
       </c>
       <c r="S279" s="14">
@@ -18953,7 +18999,7 @@
       <c r="Q280" s="14">
         <v>206.16</v>
       </c>
-      <c r="R280" s="22">
+      <c r="R280" s="21">
         <v>210.68</v>
       </c>
       <c r="S280" s="14">
@@ -19018,7 +19064,7 @@
       <c r="Q281" s="14">
         <v>206.06</v>
       </c>
-      <c r="R281" s="22">
+      <c r="R281" s="21">
         <v>212.97</v>
       </c>
       <c r="S281" s="14">
@@ -19083,7 +19129,7 @@
       <c r="Q282" s="14">
         <v>207.83</v>
       </c>
-      <c r="R282" s="22">
+      <c r="R282" s="21">
         <v>212.34</v>
       </c>
       <c r="S282" s="14">
@@ -19148,7 +19194,7 @@
       <c r="Q283" s="14">
         <v>208.38</v>
       </c>
-      <c r="R283" s="22">
+      <c r="R283" s="21">
         <v>213.78</v>
       </c>
       <c r="S283" s="14">
@@ -19213,7 +19259,7 @@
       <c r="Q284" s="14">
         <v>209.48</v>
       </c>
-      <c r="R284" s="22">
+      <c r="R284" s="21">
         <v>216.74</v>
       </c>
       <c r="S284" s="14">
@@ -19278,7 +19324,7 @@
       <c r="Q285" s="14">
         <v>210.74</v>
       </c>
-      <c r="R285" s="22">
+      <c r="R285" s="21">
         <v>217.4</v>
       </c>
       <c r="S285" s="14">
@@ -19343,7 +19389,7 @@
       <c r="Q286" s="14">
         <v>210.01</v>
       </c>
-      <c r="R286" s="22">
+      <c r="R286" s="21">
         <v>219.42</v>
       </c>
       <c r="S286" s="14">
@@ -19408,7 +19454,7 @@
       <c r="Q287" s="14">
         <v>210.96</v>
       </c>
-      <c r="R287" s="22">
+      <c r="R287" s="21">
         <v>221.24</v>
       </c>
       <c r="S287" s="14">
@@ -19473,7 +19519,7 @@
       <c r="Q288" s="14">
         <v>211.21</v>
       </c>
-      <c r="R288" s="22">
+      <c r="R288" s="21">
         <v>223.48</v>
       </c>
       <c r="S288" s="14">
@@ -19538,7 +19584,7 @@
       <c r="Q289" s="14">
         <v>211.92</v>
       </c>
-      <c r="R289" s="22">
+      <c r="R289" s="21">
         <v>222.71</v>
       </c>
       <c r="S289" s="14">
@@ -19603,7 +19649,7 @@
       <c r="Q290" s="14">
         <v>212.27</v>
       </c>
-      <c r="R290" s="22">
+      <c r="R290" s="21">
         <v>223.04</v>
       </c>
       <c r="S290" s="14">
@@ -19668,7 +19714,7 @@
       <c r="Q291" s="14">
         <v>213.3</v>
       </c>
-      <c r="R291" s="22">
+      <c r="R291" s="21">
         <v>222.24</v>
       </c>
       <c r="S291" s="14">
@@ -19733,7 +19779,7 @@
       <c r="Q292" s="14">
         <v>214.52</v>
       </c>
-      <c r="R292" s="22">
+      <c r="R292" s="21">
         <v>223.43</v>
       </c>
       <c r="S292" s="14">
@@ -19798,7 +19844,7 @@
       <c r="Q293" s="14">
         <v>215.07</v>
       </c>
-      <c r="R293" s="22">
+      <c r="R293" s="21">
         <v>224.25</v>
       </c>
       <c r="S293" s="14">
@@ -19863,7 +19909,7 @@
       <c r="Q294" s="14">
         <v>214.88</v>
       </c>
-      <c r="R294" s="22">
+      <c r="R294" s="21">
         <v>224.67</v>
       </c>
       <c r="S294" s="14">
@@ -19928,7 +19974,7 @@
       <c r="Q295" s="14">
         <v>215.06</v>
       </c>
-      <c r="R295" s="22">
+      <c r="R295" s="21">
         <v>226.23</v>
       </c>
       <c r="S295" s="14">
@@ -19993,7 +20039,7 @@
       <c r="Q296" s="14">
         <v>216.09</v>
       </c>
-      <c r="R296" s="22">
+      <c r="R296" s="21">
         <v>228.55</v>
       </c>
       <c r="S296" s="14">
@@ -20058,7 +20104,7 @@
       <c r="Q297" s="14">
         <v>217.93</v>
       </c>
-      <c r="R297" s="22">
+      <c r="R297" s="21">
         <v>230.43</v>
       </c>
       <c r="S297" s="14">
@@ -20123,7 +20169,7 @@
       <c r="Q298" s="14">
         <v>218.64</v>
       </c>
-      <c r="R298" s="22">
+      <c r="R298" s="21">
         <v>234.14</v>
       </c>
       <c r="S298" s="14">
@@ -20188,7 +20234,7 @@
       <c r="Q299" s="14">
         <v>218.81</v>
       </c>
-      <c r="R299" s="22">
+      <c r="R299" s="21">
         <v>235.18</v>
       </c>
       <c r="S299" s="14">
@@ -20253,7 +20299,7 @@
       <c r="Q300" s="14">
         <v>219.58</v>
       </c>
-      <c r="R300" s="22">
+      <c r="R300" s="21">
         <v>236.26</v>
       </c>
       <c r="S300" s="14">
@@ -20318,7 +20364,7 @@
       <c r="Q301" s="14">
         <v>221.12</v>
       </c>
-      <c r="R301" s="22">
+      <c r="R301" s="21">
         <v>236.07</v>
       </c>
       <c r="S301" s="14">
@@ -20383,7 +20429,7 @@
       <c r="Q302" s="14">
         <v>221.52</v>
       </c>
-      <c r="R302" s="22">
+      <c r="R302" s="21">
         <v>236.1</v>
       </c>
       <c r="S302" s="14">
@@ -20448,7 +20494,7 @@
       <c r="Q303" s="14">
         <v>222.3</v>
       </c>
-      <c r="R303" s="22">
+      <c r="R303" s="21">
         <v>236.01</v>
       </c>
       <c r="S303" s="14">
@@ -20513,7 +20559,7 @@
       <c r="Q304" s="14">
         <v>222.87</v>
       </c>
-      <c r="R304" s="22">
+      <c r="R304" s="21">
         <v>235.32</v>
       </c>
       <c r="S304" s="14">
@@ -20578,7 +20624,7 @@
       <c r="Q305" s="14">
         <v>225.75</v>
       </c>
-      <c r="R305" s="22">
+      <c r="R305" s="21">
         <v>235.63</v>
       </c>
       <c r="S305" s="14">
@@ -20643,7 +20689,7 @@
       <c r="Q306" s="14">
         <v>226.56</v>
       </c>
-      <c r="R306" s="22">
+      <c r="R306" s="21">
         <v>235.86</v>
       </c>
       <c r="S306" s="14">
@@ -20708,7 +20754,7 @@
       <c r="Q307" s="14">
         <v>228.37</v>
       </c>
-      <c r="R307" s="22">
+      <c r="R307" s="21">
         <v>236.47</v>
       </c>
       <c r="S307" s="14">
@@ -20773,7 +20819,7 @@
       <c r="Q308" s="14">
         <v>226.67</v>
       </c>
-      <c r="R308" s="22">
+      <c r="R308" s="21">
         <v>242.25</v>
       </c>
       <c r="S308" s="14">
@@ -20838,7 +20884,7 @@
       <c r="Q309" s="14">
         <v>228.12</v>
       </c>
-      <c r="R309" s="22">
+      <c r="R309" s="21">
         <v>243.08</v>
       </c>
       <c r="S309" s="14">
@@ -20903,7 +20949,7 @@
       <c r="Q310" s="14">
         <v>228.49</v>
       </c>
-      <c r="R310" s="22">
+      <c r="R310" s="21">
         <v>246.26</v>
       </c>
       <c r="S310" s="14">
@@ -20968,7 +21014,7 @@
       <c r="Q311" s="14">
         <v>229.49</v>
       </c>
-      <c r="R311" s="22">
+      <c r="R311" s="21">
         <v>247.74</v>
       </c>
       <c r="S311" s="14">
@@ -21033,7 +21079,7 @@
       <c r="Q312" s="14">
         <v>231.48</v>
       </c>
-      <c r="R312" s="22">
+      <c r="R312" s="21">
         <v>249.29</v>
       </c>
       <c r="S312" s="14">
@@ -21098,7 +21144,7 @@
       <c r="Q313" s="14">
         <v>231.6</v>
       </c>
-      <c r="R313" s="22">
+      <c r="R313" s="21">
         <v>248.57</v>
       </c>
       <c r="S313" s="14">
@@ -21163,7 +21209,7 @@
       <c r="Q314" s="14">
         <v>233.52</v>
       </c>
-      <c r="R314" s="22">
+      <c r="R314" s="21">
         <v>248.22</v>
       </c>
       <c r="S314" s="14">
@@ -21228,7 +21274,7 @@
       <c r="Q315" s="14">
         <v>233.9</v>
       </c>
-      <c r="R315" s="22">
+      <c r="R315" s="21">
         <v>247.58</v>
       </c>
       <c r="S315" s="14">
@@ -21293,7 +21339,7 @@
       <c r="Q316" s="14">
         <v>235.84</v>
       </c>
-      <c r="R316" s="22">
+      <c r="R316" s="21">
         <v>248.48</v>
       </c>
       <c r="S316" s="14">
@@ -21358,7 +21404,7 @@
       <c r="Q317" s="14">
         <v>235.86</v>
       </c>
-      <c r="R317" s="22">
+      <c r="R317" s="21">
         <v>249.53</v>
       </c>
       <c r="S317" s="14">
@@ -21423,7 +21469,7 @@
       <c r="Q318" s="14">
         <v>236.41</v>
       </c>
-      <c r="R318" s="22">
+      <c r="R318" s="21">
         <v>249.96</v>
       </c>
       <c r="S318" s="14">
@@ -21488,7 +21534,7 @@
       <c r="Q319" s="2">
         <v>237.43</v>
       </c>
-      <c r="R319" s="18">
+      <c r="R319" s="17">
         <v>251.27</v>
       </c>
       <c r="S319" s="2">
@@ -21553,7 +21599,7 @@
       <c r="Q320" s="2">
         <v>238.91</v>
       </c>
-      <c r="R320" s="18">
+      <c r="R320" s="17">
         <v>254.14</v>
       </c>
       <c r="S320" s="2">
@@ -21618,7 +21664,7 @@
       <c r="Q321" s="2">
         <v>240.03</v>
       </c>
-      <c r="R321" s="18">
+      <c r="R321" s="17">
         <v>258.13</v>
       </c>
       <c r="S321" s="2">
@@ -21683,7 +21729,7 @@
       <c r="Q322" s="2">
         <v>242.39</v>
       </c>
-      <c r="R322" s="18">
+      <c r="R322" s="17">
         <v>261.5</v>
       </c>
       <c r="S322" s="2">
@@ -21748,7 +21794,7 @@
       <c r="Q323" s="2">
         <v>242.4</v>
       </c>
-      <c r="R323" s="18">
+      <c r="R323" s="17">
         <v>261.89</v>
       </c>
       <c r="S323" s="2">
@@ -21813,7 +21859,7 @@
       <c r="Q324" s="2">
         <v>243.2</v>
       </c>
-      <c r="R324" s="18">
+      <c r="R324" s="17">
         <v>262.54000000000002</v>
       </c>
       <c r="S324" s="2">
@@ -21878,7 +21924,7 @@
       <c r="Q325" s="2">
         <v>244.49</v>
       </c>
-      <c r="R325" s="18">
+      <c r="R325" s="17">
         <v>262.83</v>
       </c>
       <c r="S325" s="2">
@@ -21943,7 +21989,7 @@
       <c r="Q326" s="2">
         <v>244.87</v>
       </c>
-      <c r="R326" s="18">
+      <c r="R326" s="17">
         <v>263.77999999999997</v>
       </c>
       <c r="S326" s="2">
@@ -22008,7 +22054,7 @@
       <c r="Q327" s="2">
         <v>245.81</v>
       </c>
-      <c r="R327" s="18">
+      <c r="R327" s="17">
         <v>262.75</v>
       </c>
       <c r="S327" s="2">
@@ -22073,7 +22119,7 @@
       <c r="Q328" s="2">
         <v>248.34</v>
       </c>
-      <c r="R328" s="18">
+      <c r="R328" s="17">
         <v>264.70999999999998</v>
       </c>
       <c r="S328" s="2">
@@ -22138,7 +22184,7 @@
       <c r="Q329" s="2">
         <v>247.73</v>
       </c>
-      <c r="R329" s="18">
+      <c r="R329" s="17">
         <v>263.73</v>
       </c>
       <c r="S329" s="2">
@@ -22203,7 +22249,7 @@
       <c r="Q330" s="2">
         <v>251.47</v>
       </c>
-      <c r="R330" s="18">
+      <c r="R330" s="17">
         <v>262.77</v>
       </c>
       <c r="S330" s="2">
@@ -22268,7 +22314,7 @@
       <c r="Q331" s="2">
         <v>251.25</v>
       </c>
-      <c r="R331" s="18">
+      <c r="R331" s="17">
         <v>268.14</v>
       </c>
       <c r="S331" s="2">
@@ -22333,7 +22379,7 @@
       <c r="Q332" s="2">
         <v>253.17</v>
       </c>
-      <c r="R332" s="18">
+      <c r="R332" s="17">
         <v>269.74</v>
       </c>
       <c r="S332" s="2">
@@ -22398,7 +22444,7 @@
       <c r="Q333" s="2">
         <v>253.23</v>
       </c>
-      <c r="R333" s="18">
+      <c r="R333" s="17">
         <v>271.26</v>
       </c>
       <c r="S333" s="2">
@@ -22463,7 +22509,7 @@
       <c r="Q334" s="2">
         <v>254.87</v>
       </c>
-      <c r="R334" s="18">
+      <c r="R334" s="17">
         <v>273.62</v>
       </c>
       <c r="S334" s="2">
@@ -22528,7 +22574,7 @@
       <c r="Q335" s="2">
         <v>256.02</v>
       </c>
-      <c r="R335" s="18">
+      <c r="R335" s="17">
         <v>275.11</v>
       </c>
       <c r="S335" s="2">
@@ -22593,7 +22639,7 @@
       <c r="Q336" s="2">
         <v>258.19</v>
       </c>
-      <c r="R336" s="18">
+      <c r="R336" s="17">
         <v>275.11</v>
       </c>
       <c r="S336" s="2">
@@ -22658,7 +22704,7 @@
       <c r="Q337" s="2">
         <v>257.72000000000003</v>
       </c>
-      <c r="R337" s="18">
+      <c r="R337" s="17">
         <v>276.27</v>
       </c>
       <c r="S337" s="2">
@@ -22723,7 +22769,7 @@
       <c r="Q338" s="2">
         <v>258.08999999999997</v>
       </c>
-      <c r="R338" s="18">
+      <c r="R338" s="17">
         <v>274.89</v>
       </c>
       <c r="S338" s="2">
@@ -22788,7 +22834,7 @@
       <c r="Q339" s="2">
         <v>259.64999999999998</v>
       </c>
-      <c r="R339" s="18">
+      <c r="R339" s="17">
         <v>274.72000000000003</v>
       </c>
       <c r="S339" s="2">
@@ -22853,7 +22899,7 @@
       <c r="Q340" s="2">
         <v>260.93</v>
       </c>
-      <c r="R340" s="18">
+      <c r="R340" s="17">
         <v>276.82</v>
       </c>
       <c r="S340" s="2">
@@ -22918,7 +22964,7 @@
       <c r="Q341" s="2">
         <v>261.93</v>
       </c>
-      <c r="R341" s="18">
+      <c r="R341" s="17">
         <v>275.01</v>
       </c>
       <c r="S341" s="2">
@@ -22983,7 +23029,7 @@
       <c r="Q342" s="2">
         <v>263.72000000000003</v>
       </c>
-      <c r="R342" s="18">
+      <c r="R342" s="17">
         <v>276.88</v>
       </c>
       <c r="S342" s="2">
@@ -23048,7 +23094,7 @@
       <c r="Q343" s="2">
         <v>264.52999999999997</v>
       </c>
-      <c r="R343" s="18">
+      <c r="R343" s="17">
         <v>277.52</v>
       </c>
       <c r="S343" s="2">
@@ -23113,7 +23159,7 @@
       <c r="Q344" s="2">
         <v>265.83</v>
       </c>
-      <c r="R344" s="18">
+      <c r="R344" s="17">
         <v>281.56</v>
       </c>
       <c r="S344" s="2">
@@ -23178,7 +23224,7 @@
       <c r="Q345" s="2">
         <v>266</v>
       </c>
-      <c r="R345" s="18">
+      <c r="R345" s="17">
         <v>282.2</v>
       </c>
       <c r="S345" s="2">
@@ -23243,7 +23289,7 @@
       <c r="Q346" s="2">
         <v>266.38</v>
       </c>
-      <c r="R346" s="18">
+      <c r="R346" s="17">
         <v>285.52</v>
       </c>
       <c r="S346" s="2">
@@ -23308,7 +23354,7 @@
       <c r="Q347" s="2">
         <v>267.75</v>
       </c>
-      <c r="R347" s="18">
+      <c r="R347" s="17">
         <v>287.45</v>
       </c>
       <c r="S347" s="2">
@@ -23373,7 +23419,7 @@
       <c r="Q348" s="2">
         <v>268.69</v>
       </c>
-      <c r="R348" s="18">
+      <c r="R348" s="17">
         <v>286.69</v>
       </c>
       <c r="S348" s="2">
@@ -23438,7 +23484,7 @@
       <c r="Q349" s="2">
         <v>270.19</v>
       </c>
-      <c r="R349" s="18">
+      <c r="R349" s="17">
         <v>287.3</v>
       </c>
       <c r="S349" s="2">
@@ -23503,7 +23549,7 @@
       <c r="Q350" s="2">
         <v>271.75</v>
       </c>
-      <c r="R350" s="18">
+      <c r="R350" s="17">
         <v>287.06</v>
       </c>
       <c r="S350" s="2">
@@ -23568,7 +23614,7 @@
       <c r="Q351" s="2">
         <v>272.64999999999998</v>
       </c>
-      <c r="R351" s="18">
+      <c r="R351" s="17">
         <v>287.24</v>
       </c>
       <c r="S351" s="2">
@@ -23633,7 +23679,7 @@
       <c r="Q352" s="2">
         <v>274.29000000000002</v>
       </c>
-      <c r="R352" s="18">
+      <c r="R352" s="17">
         <v>287.33</v>
       </c>
       <c r="S352" s="2">
@@ -23698,7 +23744,7 @@
       <c r="Q353" s="2">
         <v>277.56</v>
       </c>
-      <c r="R353" s="18">
+      <c r="R353" s="17">
         <v>289.43</v>
       </c>
       <c r="S353" s="2">
@@ -23763,7 +23809,7 @@
       <c r="Q354" s="2">
         <v>277.18</v>
       </c>
-      <c r="R354" s="18">
+      <c r="R354" s="17">
         <v>290.11</v>
       </c>
       <c r="S354" s="2">
@@ -23828,7 +23874,7 @@
       <c r="Q355" s="2">
         <v>279.75</v>
       </c>
-      <c r="R355" s="18">
+      <c r="R355" s="17">
         <v>291.72000000000003</v>
       </c>
       <c r="S355" s="2">
@@ -23893,7 +23939,7 @@
       <c r="Q356" s="2">
         <v>279.33</v>
       </c>
-      <c r="R356" s="18">
+      <c r="R356" s="17">
         <v>294.72000000000003</v>
       </c>
       <c r="S356" s="2">
@@ -23958,7 +24004,7 @@
       <c r="Q357" s="2">
         <v>281.02</v>
       </c>
-      <c r="R357" s="18">
+      <c r="R357" s="17">
         <v>296.58999999999997</v>
       </c>
       <c r="S357" s="2">
@@ -24023,7 +24069,7 @@
       <c r="Q358" s="2">
         <v>279.89999999999998</v>
       </c>
-      <c r="R358" s="18">
+      <c r="R358" s="17">
         <v>297.81</v>
       </c>
       <c r="S358" s="2">
@@ -24088,7 +24134,7 @@
       <c r="Q359" s="2">
         <v>282.95999999999998</v>
       </c>
-      <c r="R359" s="18">
+      <c r="R359" s="17">
         <v>302.92</v>
       </c>
       <c r="S359" s="2">
@@ -24153,7 +24199,7 @@
       <c r="Q360" s="2">
         <v>286.43</v>
       </c>
-      <c r="R360" s="18">
+      <c r="R360" s="17">
         <v>303.08</v>
       </c>
       <c r="S360" s="2">
@@ -24218,7 +24264,7 @@
       <c r="Q361" s="2">
         <v>291.68</v>
       </c>
-      <c r="R361" s="18">
+      <c r="R361" s="17">
         <v>307.20999999999998</v>
       </c>
       <c r="S361" s="3">
@@ -24283,7 +24329,7 @@
       <c r="Q362" s="2">
         <v>296.33</v>
       </c>
-      <c r="R362" s="18">
+      <c r="R362" s="17">
         <v>309.95999999999998</v>
       </c>
       <c r="S362" s="3">
@@ -24348,7 +24394,7 @@
       <c r="Q363" s="2">
         <v>299.63</v>
       </c>
-      <c r="R363" s="18">
+      <c r="R363" s="17">
         <v>312.77</v>
       </c>
       <c r="S363" s="3">
@@ -24413,7 +24459,7 @@
       <c r="Q364" s="2">
         <v>302.08999999999997</v>
       </c>
-      <c r="R364" s="18">
+      <c r="R364" s="17">
         <v>313.32</v>
       </c>
       <c r="S364" s="3">
@@ -24478,7 +24524,7 @@
       <c r="Q365" s="2">
         <v>305.27999999999997</v>
       </c>
-      <c r="R365" s="18">
+      <c r="R365" s="17">
         <v>316.24</v>
       </c>
       <c r="S365" s="3">
@@ -24543,7 +24589,7 @@
       <c r="Q366" s="2">
         <v>308.73</v>
       </c>
-      <c r="R366" s="18">
+      <c r="R366" s="17">
         <v>319.38</v>
       </c>
       <c r="S366" s="3">
@@ -24608,7 +24654,7 @@
       <c r="Q367" s="2">
         <v>311.38</v>
       </c>
-      <c r="R367" s="18">
+      <c r="R367" s="17">
         <v>325</v>
       </c>
       <c r="S367" s="3">
@@ -24621,2468 +24667,2468 @@
         <v>318.41000000000003</v>
       </c>
     </row>
-    <row r="368" spans="1:21" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A368" s="25">
+    <row r="368" spans="1:21" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A368" s="24">
         <v>44256</v>
       </c>
-      <c r="B368" s="18">
+      <c r="B368" s="17">
         <v>265.85000000000002</v>
       </c>
-      <c r="C368" s="18">
+      <c r="C368" s="17">
         <v>264.94</v>
       </c>
-      <c r="D368" s="18">
+      <c r="D368" s="17">
         <v>297.67</v>
       </c>
-      <c r="E368" s="18">
+      <c r="E368" s="17">
         <v>295.97000000000003</v>
       </c>
-      <c r="F368" s="18">
+      <c r="F368" s="17">
         <v>285.85000000000002</v>
       </c>
-      <c r="G368" s="18">
+      <c r="G368" s="17">
         <v>285.32</v>
       </c>
-      <c r="H368" s="18">
+      <c r="H368" s="17">
         <v>466.47</v>
       </c>
-      <c r="I368" s="18">
+      <c r="I368" s="17">
         <v>463.4</v>
       </c>
-      <c r="J368" s="18">
+      <c r="J368" s="17">
         <v>311.72000000000003</v>
       </c>
-      <c r="K368" s="18">
+      <c r="K368" s="17">
         <v>310.04000000000002</v>
       </c>
-      <c r="L368" s="18">
+      <c r="L368" s="17">
         <v>383.89</v>
       </c>
-      <c r="M368" s="18">
+      <c r="M368" s="17">
         <v>380.54</v>
       </c>
-      <c r="N368" s="18">
+      <c r="N368" s="17">
         <v>333.55</v>
       </c>
-      <c r="O368" s="18">
+      <c r="O368" s="17">
         <v>330.32</v>
       </c>
-      <c r="P368" s="18">
+      <c r="P368" s="17">
         <v>316.07</v>
       </c>
-      <c r="Q368" s="18">
+      <c r="Q368" s="17">
         <v>314</v>
       </c>
-      <c r="R368" s="16">
+      <c r="R368" s="15">
         <v>331</v>
       </c>
-      <c r="S368" s="26">
+      <c r="S368" s="25">
         <v>329.19</v>
       </c>
-      <c r="T368" s="26">
+      <c r="T368" s="25">
         <v>325.55</v>
       </c>
-      <c r="U368" s="18">
+      <c r="U368" s="17">
         <v>323.27</v>
       </c>
     </row>
-    <row r="369" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A369" s="25">
+    <row r="369" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A369" s="24">
         <v>44287</v>
       </c>
-      <c r="B369" s="18">
+      <c r="B369" s="17">
         <v>272.07</v>
       </c>
-      <c r="C369" s="18">
+      <c r="C369" s="17">
         <v>268.54000000000002</v>
       </c>
-      <c r="D369" s="18">
+      <c r="D369" s="17">
         <v>304.22000000000003</v>
       </c>
-      <c r="E369" s="18">
+      <c r="E369" s="17">
         <v>301.5</v>
       </c>
-      <c r="F369" s="18">
+      <c r="F369" s="17">
         <v>293.79000000000002</v>
       </c>
-      <c r="G369" s="18">
+      <c r="G369" s="17">
         <v>290.66000000000003</v>
       </c>
-      <c r="H369" s="18">
+      <c r="H369" s="17">
         <v>481.45</v>
       </c>
-      <c r="I369" s="18">
+      <c r="I369" s="17">
         <v>474.07</v>
       </c>
-      <c r="J369" s="18">
+      <c r="J369" s="17">
         <v>319.52999999999997</v>
       </c>
-      <c r="K369" s="18">
+      <c r="K369" s="17">
         <v>315.33999999999997</v>
       </c>
-      <c r="L369" s="18">
+      <c r="L369" s="17">
         <v>393.5</v>
       </c>
-      <c r="M369" s="18">
+      <c r="M369" s="17">
         <v>387.7</v>
       </c>
-      <c r="N369" s="18">
+      <c r="N369" s="17">
         <v>338.88</v>
       </c>
-      <c r="O369" s="18">
+      <c r="O369" s="17">
         <v>334.29</v>
       </c>
-      <c r="P369" s="18">
+      <c r="P369" s="17">
         <v>321.89</v>
       </c>
-      <c r="Q369" s="18">
+      <c r="Q369" s="17">
         <v>317.64</v>
       </c>
-      <c r="R369" s="16">
+      <c r="R369" s="15">
         <v>338.21</v>
       </c>
-      <c r="S369" s="26">
+      <c r="S369" s="25">
         <v>334.64</v>
       </c>
-      <c r="T369" s="26">
+      <c r="T369" s="25">
         <v>332.92</v>
       </c>
-      <c r="U369" s="18">
+      <c r="U369" s="17">
         <v>328.44</v>
       </c>
     </row>
-    <row r="370" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A370" s="25">
+    <row r="370" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A370" s="24">
         <v>44317</v>
       </c>
-      <c r="B370" s="18">
+      <c r="B370" s="17">
         <v>278.02</v>
       </c>
-      <c r="C370" s="18">
+      <c r="C370" s="17">
         <v>272.67</v>
       </c>
-      <c r="D370" s="18">
+      <c r="D370" s="17">
         <v>311.13</v>
       </c>
-      <c r="E370" s="18">
+      <c r="E370" s="17">
         <v>306.64999999999998</v>
       </c>
-      <c r="F370" s="18">
+      <c r="F370" s="17">
         <v>299.57</v>
       </c>
-      <c r="G370" s="18">
+      <c r="G370" s="17">
         <v>294.07</v>
       </c>
-      <c r="H370" s="18">
+      <c r="H370" s="17">
         <v>492.94</v>
       </c>
-      <c r="I370" s="18">
+      <c r="I370" s="17">
         <v>484.65</v>
       </c>
-      <c r="J370" s="18">
+      <c r="J370" s="17">
         <v>328.05</v>
       </c>
-      <c r="K370" s="18">
+      <c r="K370" s="17">
         <v>321.87</v>
       </c>
-      <c r="L370" s="18">
+      <c r="L370" s="17">
         <v>403.63</v>
       </c>
-      <c r="M370" s="18">
+      <c r="M370" s="17">
         <v>397.11</v>
       </c>
-      <c r="N370" s="18">
+      <c r="N370" s="17">
         <v>346.73</v>
       </c>
-      <c r="O370" s="18">
+      <c r="O370" s="17">
         <v>340.15</v>
       </c>
-      <c r="P370" s="18">
+      <c r="P370" s="17">
         <v>331.12</v>
       </c>
-      <c r="Q370" s="18">
+      <c r="Q370" s="17">
         <v>324.3</v>
       </c>
-      <c r="R370" s="16">
+      <c r="R370" s="15">
         <v>343.65</v>
       </c>
-      <c r="S370" s="18">
+      <c r="S370" s="17">
         <v>338.75</v>
       </c>
-      <c r="T370" s="18">
+      <c r="T370" s="17">
         <v>340.46</v>
       </c>
-      <c r="U370" s="18">
+      <c r="U370" s="17">
         <v>334.22</v>
       </c>
     </row>
-    <row r="371" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A371" s="25">
+    <row r="371" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A371" s="24">
         <v>44348</v>
       </c>
-      <c r="B371" s="18">
+      <c r="B371" s="17">
         <v>284.10000000000002</v>
       </c>
-      <c r="C371" s="18">
+      <c r="C371" s="17">
         <v>276.89999999999998</v>
       </c>
-      <c r="D371" s="18">
+      <c r="D371" s="17">
         <v>317.37</v>
       </c>
-      <c r="E371" s="18">
+      <c r="E371" s="17">
         <v>312.41000000000003</v>
       </c>
-      <c r="F371" s="18">
+      <c r="F371" s="17">
         <v>302.2</v>
       </c>
-      <c r="G371" s="18">
+      <c r="G371" s="17">
         <v>297.25</v>
       </c>
-      <c r="H371" s="18">
+      <c r="H371" s="17">
         <v>506.14</v>
       </c>
-      <c r="I371" s="18">
+      <c r="I371" s="17">
         <v>498.37</v>
       </c>
-      <c r="J371" s="18">
+      <c r="J371" s="17">
         <v>333.15</v>
       </c>
-      <c r="K371" s="18">
+      <c r="K371" s="17">
         <v>326.37</v>
       </c>
-      <c r="L371" s="18">
+      <c r="L371" s="17">
         <v>409.21</v>
       </c>
-      <c r="M371" s="18">
+      <c r="M371" s="17">
         <v>403.72</v>
       </c>
-      <c r="N371" s="18">
+      <c r="N371" s="17">
         <v>354.18</v>
       </c>
-      <c r="O371" s="18">
+      <c r="O371" s="17">
         <v>348.39</v>
       </c>
-      <c r="P371" s="18">
+      <c r="P371" s="17">
         <v>335.93</v>
       </c>
-      <c r="Q371" s="18">
+      <c r="Q371" s="17">
         <v>328.25</v>
       </c>
-      <c r="R371" s="16">
+      <c r="R371" s="15">
         <v>352.37</v>
       </c>
-      <c r="S371" s="18">
+      <c r="S371" s="17">
         <v>345.14</v>
       </c>
-      <c r="T371" s="18">
+      <c r="T371" s="17">
         <v>347</v>
       </c>
-      <c r="U371" s="18">
+      <c r="U371" s="17">
         <v>340.33</v>
       </c>
-      <c r="V371" s="25"/>
-      <c r="W371" s="28"/>
-      <c r="X371" s="28"/>
-      <c r="Y371" s="28"/>
-      <c r="Z371" s="28"/>
-      <c r="AA371" s="25"/>
-      <c r="AB371" s="28"/>
-      <c r="AC371" s="28"/>
-      <c r="AD371" s="28"/>
-      <c r="AE371" s="28"/>
-      <c r="AF371" s="28"/>
-      <c r="AG371" s="28"/>
-      <c r="AH371" s="28"/>
-      <c r="AI371" s="28"/>
-      <c r="AJ371" s="28"/>
-      <c r="AK371" s="28"/>
-      <c r="AL371" s="28"/>
-      <c r="AM371" s="28"/>
-      <c r="AN371" s="28"/>
-      <c r="AO371" s="28"/>
-      <c r="AP371" s="28"/>
-      <c r="AQ371" s="28"/>
-      <c r="AR371" s="28"/>
-      <c r="AS371" s="28"/>
-      <c r="AT371" s="28"/>
-      <c r="AU371" s="28"/>
-      <c r="AV371" s="25"/>
-      <c r="AW371" s="28"/>
-      <c r="AX371" s="28"/>
-      <c r="AY371" s="28"/>
-      <c r="AZ371" s="28"/>
-      <c r="BA371" s="28"/>
-      <c r="BB371" s="28"/>
-      <c r="BC371" s="28"/>
-      <c r="BD371" s="28"/>
-      <c r="BE371" s="28"/>
-      <c r="BF371" s="28"/>
-      <c r="BG371" s="28"/>
-      <c r="BH371" s="28"/>
-      <c r="BI371" s="28"/>
-      <c r="BJ371" s="28"/>
-      <c r="BK371" s="28"/>
-      <c r="BL371" s="28"/>
-      <c r="BM371" s="28"/>
-      <c r="BN371" s="28"/>
-      <c r="BO371" s="28"/>
-      <c r="BP371" s="28"/>
-      <c r="BQ371" s="25"/>
-      <c r="BR371" s="28"/>
-      <c r="BS371" s="28"/>
-      <c r="BT371" s="28"/>
-      <c r="BU371" s="28"/>
-      <c r="BV371" s="28"/>
-      <c r="BW371" s="28"/>
-      <c r="BX371" s="28"/>
-      <c r="BY371" s="28"/>
-      <c r="BZ371" s="28"/>
-      <c r="CA371" s="28"/>
-      <c r="CB371" s="28"/>
-      <c r="CC371" s="28"/>
-      <c r="CD371" s="28"/>
-      <c r="CE371" s="28"/>
-      <c r="CF371" s="28"/>
-      <c r="CG371" s="28"/>
-      <c r="CH371" s="28"/>
-      <c r="CI371" s="28"/>
-      <c r="CJ371" s="28"/>
-      <c r="CK371" s="28"/>
-      <c r="CL371" s="25"/>
-      <c r="CM371" s="28"/>
-      <c r="CN371" s="28"/>
-      <c r="CO371" s="28"/>
-      <c r="CP371" s="28"/>
-      <c r="CQ371" s="28"/>
-      <c r="CR371" s="28"/>
-      <c r="CS371" s="28"/>
-      <c r="CT371" s="28"/>
-      <c r="CU371" s="28"/>
-      <c r="CV371" s="28"/>
-      <c r="CW371" s="28"/>
-      <c r="CX371" s="28"/>
-      <c r="CY371" s="28"/>
-      <c r="CZ371" s="28"/>
-      <c r="DA371" s="28"/>
-      <c r="DB371" s="28"/>
-      <c r="DC371" s="28"/>
-      <c r="DD371" s="28"/>
-      <c r="DE371" s="28"/>
-      <c r="DF371" s="28"/>
-      <c r="DG371" s="25"/>
-      <c r="DH371" s="28"/>
-      <c r="DI371" s="28"/>
-      <c r="DJ371" s="28"/>
-      <c r="DK371" s="28"/>
-      <c r="DL371" s="28"/>
-      <c r="DM371" s="28"/>
-      <c r="DN371" s="28"/>
-      <c r="DO371" s="28"/>
-      <c r="DP371" s="28"/>
-      <c r="DQ371" s="28"/>
-      <c r="DR371" s="28"/>
-      <c r="DS371" s="28"/>
-      <c r="DT371" s="28"/>
-      <c r="DU371" s="28"/>
-      <c r="DV371" s="28"/>
-      <c r="DW371" s="28"/>
-      <c r="DX371" s="28"/>
-      <c r="DY371" s="28"/>
-      <c r="DZ371" s="28"/>
-      <c r="EA371" s="28"/>
-      <c r="EB371" s="25"/>
-      <c r="EC371" s="28"/>
-      <c r="ED371" s="28"/>
-      <c r="EE371" s="28"/>
-      <c r="EF371" s="28"/>
-      <c r="EG371" s="28"/>
-      <c r="EH371" s="28"/>
-      <c r="EI371" s="28"/>
-      <c r="EJ371" s="28"/>
-      <c r="EK371" s="28"/>
-      <c r="EL371" s="28"/>
-      <c r="EM371" s="28"/>
-      <c r="EN371" s="28"/>
-      <c r="EO371" s="28"/>
-      <c r="EP371" s="28"/>
-      <c r="EQ371" s="28"/>
-      <c r="ER371" s="28"/>
-      <c r="ES371" s="28"/>
-      <c r="ET371" s="28"/>
-      <c r="EU371" s="28"/>
-      <c r="EV371" s="28"/>
-      <c r="EW371" s="25"/>
-      <c r="EX371" s="28"/>
-      <c r="EY371" s="28"/>
-      <c r="EZ371" s="28"/>
-      <c r="FA371" s="28"/>
-      <c r="FB371" s="28"/>
-      <c r="FC371" s="28"/>
-      <c r="FD371" s="28"/>
-      <c r="FE371" s="28"/>
-      <c r="FF371" s="28"/>
-      <c r="FG371" s="28"/>
-      <c r="FH371" s="28"/>
-      <c r="FI371" s="28"/>
-      <c r="FJ371" s="28"/>
-      <c r="FK371" s="28"/>
-      <c r="FL371" s="28"/>
-      <c r="FM371" s="28"/>
-      <c r="FN371" s="28"/>
-      <c r="FO371" s="28"/>
-      <c r="FP371" s="28"/>
-      <c r="FQ371" s="28"/>
-      <c r="FR371" s="25"/>
-      <c r="FS371" s="28"/>
-      <c r="FT371" s="28"/>
-      <c r="FU371" s="28"/>
-      <c r="FV371" s="28"/>
-      <c r="FW371" s="28"/>
-      <c r="FX371" s="28"/>
-      <c r="FY371" s="28"/>
-      <c r="FZ371" s="28"/>
-      <c r="GA371" s="28"/>
-      <c r="GB371" s="28"/>
-      <c r="GC371" s="28"/>
-      <c r="GD371" s="28"/>
-      <c r="GE371" s="28"/>
-      <c r="GF371" s="28"/>
-      <c r="GG371" s="28"/>
-      <c r="GH371" s="28"/>
-      <c r="GI371" s="28"/>
-      <c r="GJ371" s="28"/>
-      <c r="GK371" s="28"/>
-      <c r="GL371" s="28"/>
-      <c r="GM371" s="25"/>
-      <c r="GN371" s="28"/>
-      <c r="GO371" s="28"/>
-      <c r="GP371" s="28"/>
-      <c r="GQ371" s="28"/>
-      <c r="GR371" s="28"/>
-      <c r="GS371" s="28"/>
-      <c r="GT371" s="28"/>
-      <c r="GU371" s="28"/>
-      <c r="GV371" s="28"/>
-      <c r="GW371" s="28"/>
-      <c r="GX371" s="28"/>
-      <c r="GY371" s="28"/>
-      <c r="GZ371" s="28"/>
-      <c r="HA371" s="28"/>
-      <c r="HB371" s="28"/>
-      <c r="HC371" s="28"/>
-      <c r="HD371" s="28"/>
-      <c r="HE371" s="28"/>
-      <c r="HF371" s="28"/>
-      <c r="HG371" s="28"/>
-      <c r="HH371" s="25"/>
-      <c r="HI371" s="28"/>
-      <c r="HJ371" s="28"/>
-      <c r="HK371" s="28"/>
-      <c r="HL371" s="28"/>
-      <c r="HM371" s="28"/>
-      <c r="HN371" s="28"/>
-      <c r="HO371" s="28"/>
-      <c r="HP371" s="28"/>
-      <c r="HQ371" s="28"/>
-      <c r="HR371" s="28"/>
-      <c r="HS371" s="28"/>
-      <c r="HT371" s="28"/>
-      <c r="HU371" s="28"/>
-      <c r="HV371" s="28"/>
-      <c r="HW371" s="28"/>
-      <c r="HX371" s="28"/>
-      <c r="HY371" s="28"/>
-      <c r="HZ371" s="28"/>
-      <c r="IA371" s="28"/>
-      <c r="IB371" s="28"/>
-      <c r="IC371" s="25"/>
-      <c r="ID371" s="28"/>
-      <c r="IE371" s="28"/>
-      <c r="IF371" s="28"/>
-      <c r="IG371" s="28"/>
-      <c r="IH371" s="28"/>
-      <c r="II371" s="28"/>
-      <c r="IJ371" s="28"/>
-      <c r="IK371" s="28"/>
-      <c r="IL371" s="28"/>
-      <c r="IM371" s="28"/>
-      <c r="IN371" s="28"/>
-      <c r="IO371" s="28"/>
-      <c r="IP371" s="28"/>
-      <c r="IQ371" s="28"/>
-      <c r="IR371" s="28"/>
-      <c r="IS371" s="28"/>
-      <c r="IT371" s="28"/>
-      <c r="IU371" s="28"/>
-      <c r="IV371" s="28"/>
-    </row>
-    <row r="372" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A372" s="25">
+      <c r="V371" s="24"/>
+      <c r="W371" s="27"/>
+      <c r="X371" s="27"/>
+      <c r="Y371" s="27"/>
+      <c r="Z371" s="27"/>
+      <c r="AA371" s="24"/>
+      <c r="AB371" s="27"/>
+      <c r="AC371" s="27"/>
+      <c r="AD371" s="27"/>
+      <c r="AE371" s="27"/>
+      <c r="AF371" s="27"/>
+      <c r="AG371" s="27"/>
+      <c r="AH371" s="27"/>
+      <c r="AI371" s="27"/>
+      <c r="AJ371" s="27"/>
+      <c r="AK371" s="27"/>
+      <c r="AL371" s="27"/>
+      <c r="AM371" s="27"/>
+      <c r="AN371" s="27"/>
+      <c r="AO371" s="27"/>
+      <c r="AP371" s="27"/>
+      <c r="AQ371" s="27"/>
+      <c r="AR371" s="27"/>
+      <c r="AS371" s="27"/>
+      <c r="AT371" s="27"/>
+      <c r="AU371" s="27"/>
+      <c r="AV371" s="24"/>
+      <c r="AW371" s="27"/>
+      <c r="AX371" s="27"/>
+      <c r="AY371" s="27"/>
+      <c r="AZ371" s="27"/>
+      <c r="BA371" s="27"/>
+      <c r="BB371" s="27"/>
+      <c r="BC371" s="27"/>
+      <c r="BD371" s="27"/>
+      <c r="BE371" s="27"/>
+      <c r="BF371" s="27"/>
+      <c r="BG371" s="27"/>
+      <c r="BH371" s="27"/>
+      <c r="BI371" s="27"/>
+      <c r="BJ371" s="27"/>
+      <c r="BK371" s="27"/>
+      <c r="BL371" s="27"/>
+      <c r="BM371" s="27"/>
+      <c r="BN371" s="27"/>
+      <c r="BO371" s="27"/>
+      <c r="BP371" s="27"/>
+      <c r="BQ371" s="24"/>
+      <c r="BR371" s="27"/>
+      <c r="BS371" s="27"/>
+      <c r="BT371" s="27"/>
+      <c r="BU371" s="27"/>
+      <c r="BV371" s="27"/>
+      <c r="BW371" s="27"/>
+      <c r="BX371" s="27"/>
+      <c r="BY371" s="27"/>
+      <c r="BZ371" s="27"/>
+      <c r="CA371" s="27"/>
+      <c r="CB371" s="27"/>
+      <c r="CC371" s="27"/>
+      <c r="CD371" s="27"/>
+      <c r="CE371" s="27"/>
+      <c r="CF371" s="27"/>
+      <c r="CG371" s="27"/>
+      <c r="CH371" s="27"/>
+      <c r="CI371" s="27"/>
+      <c r="CJ371" s="27"/>
+      <c r="CK371" s="27"/>
+      <c r="CL371" s="24"/>
+      <c r="CM371" s="27"/>
+      <c r="CN371" s="27"/>
+      <c r="CO371" s="27"/>
+      <c r="CP371" s="27"/>
+      <c r="CQ371" s="27"/>
+      <c r="CR371" s="27"/>
+      <c r="CS371" s="27"/>
+      <c r="CT371" s="27"/>
+      <c r="CU371" s="27"/>
+      <c r="CV371" s="27"/>
+      <c r="CW371" s="27"/>
+      <c r="CX371" s="27"/>
+      <c r="CY371" s="27"/>
+      <c r="CZ371" s="27"/>
+      <c r="DA371" s="27"/>
+      <c r="DB371" s="27"/>
+      <c r="DC371" s="27"/>
+      <c r="DD371" s="27"/>
+      <c r="DE371" s="27"/>
+      <c r="DF371" s="27"/>
+      <c r="DG371" s="24"/>
+      <c r="DH371" s="27"/>
+      <c r="DI371" s="27"/>
+      <c r="DJ371" s="27"/>
+      <c r="DK371" s="27"/>
+      <c r="DL371" s="27"/>
+      <c r="DM371" s="27"/>
+      <c r="DN371" s="27"/>
+      <c r="DO371" s="27"/>
+      <c r="DP371" s="27"/>
+      <c r="DQ371" s="27"/>
+      <c r="DR371" s="27"/>
+      <c r="DS371" s="27"/>
+      <c r="DT371" s="27"/>
+      <c r="DU371" s="27"/>
+      <c r="DV371" s="27"/>
+      <c r="DW371" s="27"/>
+      <c r="DX371" s="27"/>
+      <c r="DY371" s="27"/>
+      <c r="DZ371" s="27"/>
+      <c r="EA371" s="27"/>
+      <c r="EB371" s="24"/>
+      <c r="EC371" s="27"/>
+      <c r="ED371" s="27"/>
+      <c r="EE371" s="27"/>
+      <c r="EF371" s="27"/>
+      <c r="EG371" s="27"/>
+      <c r="EH371" s="27"/>
+      <c r="EI371" s="27"/>
+      <c r="EJ371" s="27"/>
+      <c r="EK371" s="27"/>
+      <c r="EL371" s="27"/>
+      <c r="EM371" s="27"/>
+      <c r="EN371" s="27"/>
+      <c r="EO371" s="27"/>
+      <c r="EP371" s="27"/>
+      <c r="EQ371" s="27"/>
+      <c r="ER371" s="27"/>
+      <c r="ES371" s="27"/>
+      <c r="ET371" s="27"/>
+      <c r="EU371" s="27"/>
+      <c r="EV371" s="27"/>
+      <c r="EW371" s="24"/>
+      <c r="EX371" s="27"/>
+      <c r="EY371" s="27"/>
+      <c r="EZ371" s="27"/>
+      <c r="FA371" s="27"/>
+      <c r="FB371" s="27"/>
+      <c r="FC371" s="27"/>
+      <c r="FD371" s="27"/>
+      <c r="FE371" s="27"/>
+      <c r="FF371" s="27"/>
+      <c r="FG371" s="27"/>
+      <c r="FH371" s="27"/>
+      <c r="FI371" s="27"/>
+      <c r="FJ371" s="27"/>
+      <c r="FK371" s="27"/>
+      <c r="FL371" s="27"/>
+      <c r="FM371" s="27"/>
+      <c r="FN371" s="27"/>
+      <c r="FO371" s="27"/>
+      <c r="FP371" s="27"/>
+      <c r="FQ371" s="27"/>
+      <c r="FR371" s="24"/>
+      <c r="FS371" s="27"/>
+      <c r="FT371" s="27"/>
+      <c r="FU371" s="27"/>
+      <c r="FV371" s="27"/>
+      <c r="FW371" s="27"/>
+      <c r="FX371" s="27"/>
+      <c r="FY371" s="27"/>
+      <c r="FZ371" s="27"/>
+      <c r="GA371" s="27"/>
+      <c r="GB371" s="27"/>
+      <c r="GC371" s="27"/>
+      <c r="GD371" s="27"/>
+      <c r="GE371" s="27"/>
+      <c r="GF371" s="27"/>
+      <c r="GG371" s="27"/>
+      <c r="GH371" s="27"/>
+      <c r="GI371" s="27"/>
+      <c r="GJ371" s="27"/>
+      <c r="GK371" s="27"/>
+      <c r="GL371" s="27"/>
+      <c r="GM371" s="24"/>
+      <c r="GN371" s="27"/>
+      <c r="GO371" s="27"/>
+      <c r="GP371" s="27"/>
+      <c r="GQ371" s="27"/>
+      <c r="GR371" s="27"/>
+      <c r="GS371" s="27"/>
+      <c r="GT371" s="27"/>
+      <c r="GU371" s="27"/>
+      <c r="GV371" s="27"/>
+      <c r="GW371" s="27"/>
+      <c r="GX371" s="27"/>
+      <c r="GY371" s="27"/>
+      <c r="GZ371" s="27"/>
+      <c r="HA371" s="27"/>
+      <c r="HB371" s="27"/>
+      <c r="HC371" s="27"/>
+      <c r="HD371" s="27"/>
+      <c r="HE371" s="27"/>
+      <c r="HF371" s="27"/>
+      <c r="HG371" s="27"/>
+      <c r="HH371" s="24"/>
+      <c r="HI371" s="27"/>
+      <c r="HJ371" s="27"/>
+      <c r="HK371" s="27"/>
+      <c r="HL371" s="27"/>
+      <c r="HM371" s="27"/>
+      <c r="HN371" s="27"/>
+      <c r="HO371" s="27"/>
+      <c r="HP371" s="27"/>
+      <c r="HQ371" s="27"/>
+      <c r="HR371" s="27"/>
+      <c r="HS371" s="27"/>
+      <c r="HT371" s="27"/>
+      <c r="HU371" s="27"/>
+      <c r="HV371" s="27"/>
+      <c r="HW371" s="27"/>
+      <c r="HX371" s="27"/>
+      <c r="HY371" s="27"/>
+      <c r="HZ371" s="27"/>
+      <c r="IA371" s="27"/>
+      <c r="IB371" s="27"/>
+      <c r="IC371" s="24"/>
+      <c r="ID371" s="27"/>
+      <c r="IE371" s="27"/>
+      <c r="IF371" s="27"/>
+      <c r="IG371" s="27"/>
+      <c r="IH371" s="27"/>
+      <c r="II371" s="27"/>
+      <c r="IJ371" s="27"/>
+      <c r="IK371" s="27"/>
+      <c r="IL371" s="27"/>
+      <c r="IM371" s="27"/>
+      <c r="IN371" s="27"/>
+      <c r="IO371" s="27"/>
+      <c r="IP371" s="27"/>
+      <c r="IQ371" s="27"/>
+      <c r="IR371" s="27"/>
+      <c r="IS371" s="27"/>
+      <c r="IT371" s="27"/>
+      <c r="IU371" s="27"/>
+      <c r="IV371" s="27"/>
+    </row>
+    <row r="372" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A372" s="24">
         <v>44378</v>
       </c>
-      <c r="B372" s="18">
+      <c r="B372" s="17">
         <v>286.13</v>
       </c>
-      <c r="C372" s="18">
+      <c r="C372" s="17">
         <v>279.77</v>
       </c>
-      <c r="D372" s="18">
+      <c r="D372" s="17">
         <v>323.7</v>
       </c>
-      <c r="E372" s="18">
+      <c r="E372" s="17">
         <v>317.27</v>
       </c>
-      <c r="F372" s="18">
+      <c r="F372" s="17">
         <v>306.83</v>
       </c>
-      <c r="G372" s="18">
+      <c r="G372" s="17">
         <v>301.52999999999997</v>
       </c>
-      <c r="H372" s="18">
+      <c r="H372" s="17">
         <v>515.46</v>
       </c>
-      <c r="I372" s="18">
+      <c r="I372" s="17">
         <v>507.14</v>
       </c>
-      <c r="J372" s="18">
+      <c r="J372" s="17">
         <v>338.06</v>
       </c>
-      <c r="K372" s="18">
+      <c r="K372" s="17">
         <v>331.03</v>
       </c>
-      <c r="L372" s="18">
+      <c r="L372" s="17">
         <v>414.37</v>
       </c>
-      <c r="M372" s="18">
+      <c r="M372" s="17">
         <v>410.59</v>
       </c>
-      <c r="N372" s="18">
+      <c r="N372" s="17">
         <v>360.81</v>
       </c>
-      <c r="O372" s="18">
+      <c r="O372" s="17">
         <v>355.26</v>
       </c>
-      <c r="P372" s="18">
+      <c r="P372" s="17">
         <v>338.9</v>
       </c>
-      <c r="Q372" s="18">
+      <c r="Q372" s="17">
         <v>331.61</v>
       </c>
-      <c r="R372" s="16">
+      <c r="R372" s="15">
         <v>357.12</v>
       </c>
-      <c r="S372" s="18">
+      <c r="S372" s="17">
         <v>352.08</v>
       </c>
-      <c r="T372" s="18">
+      <c r="T372" s="17">
         <v>351.89</v>
       </c>
-      <c r="U372" s="18">
+      <c r="U372" s="17">
         <v>345.74</v>
       </c>
-      <c r="V372" s="25"/>
-      <c r="W372" s="28"/>
-      <c r="X372" s="28"/>
-      <c r="Y372" s="28"/>
-      <c r="Z372" s="28"/>
-      <c r="AA372" s="25"/>
-      <c r="AB372" s="28"/>
-      <c r="AC372" s="28"/>
-      <c r="AD372" s="28"/>
-      <c r="AE372" s="28"/>
-      <c r="AF372" s="28"/>
-      <c r="AG372" s="28"/>
-      <c r="AH372" s="28"/>
-      <c r="AI372" s="28"/>
-      <c r="AJ372" s="28"/>
-      <c r="AK372" s="28"/>
-      <c r="AL372" s="28"/>
-      <c r="AM372" s="28"/>
-      <c r="AN372" s="28"/>
-      <c r="AO372" s="28"/>
-      <c r="AP372" s="28"/>
-      <c r="AQ372" s="28"/>
-      <c r="AR372" s="28"/>
-      <c r="AS372" s="28"/>
-      <c r="AT372" s="28"/>
-      <c r="AU372" s="28"/>
-      <c r="AV372" s="25"/>
-      <c r="AW372" s="28"/>
-      <c r="AX372" s="28"/>
-      <c r="AY372" s="28"/>
-      <c r="AZ372" s="28"/>
-      <c r="BA372" s="28"/>
-      <c r="BB372" s="28"/>
-      <c r="BC372" s="28"/>
-      <c r="BD372" s="28"/>
-      <c r="BE372" s="28"/>
-      <c r="BF372" s="28"/>
-      <c r="BG372" s="28"/>
-      <c r="BH372" s="28"/>
-      <c r="BI372" s="28"/>
-      <c r="BJ372" s="28"/>
-      <c r="BK372" s="28"/>
-      <c r="BL372" s="28"/>
-      <c r="BM372" s="28"/>
-      <c r="BN372" s="28"/>
-      <c r="BO372" s="28"/>
-      <c r="BP372" s="28"/>
-      <c r="BQ372" s="25"/>
-      <c r="BR372" s="28"/>
-      <c r="BS372" s="28"/>
-      <c r="BT372" s="28"/>
-      <c r="BU372" s="28"/>
-      <c r="BV372" s="28"/>
-      <c r="BW372" s="28"/>
-      <c r="BX372" s="28"/>
-      <c r="BY372" s="28"/>
-      <c r="BZ372" s="28"/>
-      <c r="CA372" s="28"/>
-      <c r="CB372" s="28"/>
-      <c r="CC372" s="28"/>
-      <c r="CD372" s="28"/>
-      <c r="CE372" s="28"/>
-      <c r="CF372" s="28"/>
-      <c r="CG372" s="28"/>
-      <c r="CH372" s="28"/>
-      <c r="CI372" s="28"/>
-      <c r="CJ372" s="28"/>
-      <c r="CK372" s="28"/>
-      <c r="CL372" s="25"/>
-      <c r="CM372" s="28"/>
-      <c r="CN372" s="28"/>
-      <c r="CO372" s="28"/>
-      <c r="CP372" s="28"/>
-      <c r="CQ372" s="28"/>
-      <c r="CR372" s="28"/>
-      <c r="CS372" s="28"/>
-      <c r="CT372" s="28"/>
-      <c r="CU372" s="28"/>
-      <c r="CV372" s="28"/>
-      <c r="CW372" s="28"/>
-      <c r="CX372" s="28"/>
-      <c r="CY372" s="28"/>
-      <c r="CZ372" s="28"/>
-      <c r="DA372" s="28"/>
-      <c r="DB372" s="28"/>
-      <c r="DC372" s="28"/>
-      <c r="DD372" s="28"/>
-      <c r="DE372" s="28"/>
-      <c r="DF372" s="28"/>
-      <c r="DG372" s="25"/>
-      <c r="DH372" s="28"/>
-      <c r="DI372" s="28"/>
-      <c r="DJ372" s="28"/>
-      <c r="DK372" s="28"/>
-      <c r="DL372" s="28"/>
-      <c r="DM372" s="28"/>
-      <c r="DN372" s="28"/>
-      <c r="DO372" s="28"/>
-      <c r="DP372" s="28"/>
-      <c r="DQ372" s="28"/>
-      <c r="DR372" s="28"/>
-      <c r="DS372" s="28"/>
-      <c r="DT372" s="28"/>
-      <c r="DU372" s="28"/>
-      <c r="DV372" s="28"/>
-      <c r="DW372" s="28"/>
-      <c r="DX372" s="28"/>
-      <c r="DY372" s="28"/>
-      <c r="DZ372" s="28"/>
-      <c r="EA372" s="28"/>
-      <c r="EB372" s="25"/>
-      <c r="EC372" s="28"/>
-      <c r="ED372" s="28"/>
-      <c r="EE372" s="28"/>
-      <c r="EF372" s="28"/>
-      <c r="EG372" s="28"/>
-      <c r="EH372" s="28"/>
-      <c r="EI372" s="28"/>
-      <c r="EJ372" s="28"/>
-      <c r="EK372" s="28"/>
-      <c r="EL372" s="28"/>
-      <c r="EM372" s="28"/>
-      <c r="EN372" s="28"/>
-      <c r="EO372" s="28"/>
-      <c r="EP372" s="28"/>
-      <c r="EQ372" s="28"/>
-      <c r="ER372" s="28"/>
-      <c r="ES372" s="28"/>
-      <c r="ET372" s="28"/>
-      <c r="EU372" s="28"/>
-      <c r="EV372" s="28"/>
-      <c r="EW372" s="25"/>
-      <c r="EX372" s="28"/>
-      <c r="EY372" s="28"/>
-      <c r="EZ372" s="28"/>
-      <c r="FA372" s="28"/>
-      <c r="FB372" s="28"/>
-      <c r="FC372" s="28"/>
-      <c r="FD372" s="28"/>
-      <c r="FE372" s="28"/>
-      <c r="FF372" s="28"/>
-      <c r="FG372" s="28"/>
-      <c r="FH372" s="28"/>
-      <c r="FI372" s="28"/>
-      <c r="FJ372" s="28"/>
-      <c r="FK372" s="28"/>
-      <c r="FL372" s="28"/>
-      <c r="FM372" s="28"/>
-      <c r="FN372" s="28"/>
-      <c r="FO372" s="28"/>
-      <c r="FP372" s="28"/>
-      <c r="FQ372" s="28"/>
-      <c r="FR372" s="25"/>
-      <c r="FS372" s="28"/>
-      <c r="FT372" s="28"/>
-      <c r="FU372" s="28"/>
-      <c r="FV372" s="28"/>
-      <c r="FW372" s="28"/>
-      <c r="FX372" s="28"/>
-      <c r="FY372" s="28"/>
-      <c r="FZ372" s="28"/>
-      <c r="GA372" s="28"/>
-      <c r="GB372" s="28"/>
-      <c r="GC372" s="28"/>
-      <c r="GD372" s="28"/>
-      <c r="GE372" s="28"/>
-      <c r="GF372" s="28"/>
-      <c r="GG372" s="28"/>
-      <c r="GH372" s="28"/>
-      <c r="GI372" s="28"/>
-      <c r="GJ372" s="28"/>
-      <c r="GK372" s="28"/>
-      <c r="GL372" s="28"/>
-      <c r="GM372" s="25"/>
-      <c r="GN372" s="28"/>
-      <c r="GO372" s="28"/>
-      <c r="GP372" s="28"/>
-      <c r="GQ372" s="28"/>
-      <c r="GR372" s="28"/>
-      <c r="GS372" s="28"/>
-      <c r="GT372" s="28"/>
-      <c r="GU372" s="28"/>
-      <c r="GV372" s="28"/>
-      <c r="GW372" s="28"/>
-      <c r="GX372" s="28"/>
-      <c r="GY372" s="28"/>
-      <c r="GZ372" s="28"/>
-      <c r="HA372" s="28"/>
-      <c r="HB372" s="28"/>
-      <c r="HC372" s="28"/>
-      <c r="HD372" s="28"/>
-      <c r="HE372" s="28"/>
-      <c r="HF372" s="28"/>
-      <c r="HG372" s="28"/>
-      <c r="HH372" s="25"/>
-      <c r="HI372" s="28"/>
-      <c r="HJ372" s="28"/>
-      <c r="HK372" s="28"/>
-      <c r="HL372" s="28"/>
-      <c r="HM372" s="28"/>
-      <c r="HN372" s="28"/>
-      <c r="HO372" s="28"/>
-      <c r="HP372" s="28"/>
-      <c r="HQ372" s="28"/>
-      <c r="HR372" s="28"/>
-      <c r="HS372" s="28"/>
-      <c r="HT372" s="28"/>
-      <c r="HU372" s="28"/>
-      <c r="HV372" s="28"/>
-      <c r="HW372" s="28"/>
-      <c r="HX372" s="28"/>
-      <c r="HY372" s="28"/>
-      <c r="HZ372" s="28"/>
-      <c r="IA372" s="28"/>
-      <c r="IB372" s="28"/>
-      <c r="IC372" s="25"/>
-      <c r="ID372" s="28"/>
-      <c r="IE372" s="28"/>
-      <c r="IF372" s="28"/>
-      <c r="IG372" s="28"/>
-      <c r="IH372" s="28"/>
-      <c r="II372" s="28"/>
-      <c r="IJ372" s="28"/>
-      <c r="IK372" s="28"/>
-      <c r="IL372" s="28"/>
-      <c r="IM372" s="28"/>
-      <c r="IN372" s="28"/>
-      <c r="IO372" s="28"/>
-      <c r="IP372" s="28"/>
-      <c r="IQ372" s="28"/>
-      <c r="IR372" s="28"/>
-      <c r="IS372" s="28"/>
-      <c r="IT372" s="28"/>
-      <c r="IU372" s="28"/>
-      <c r="IV372" s="28"/>
-    </row>
-    <row r="373" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A373" s="25">
+      <c r="V372" s="24"/>
+      <c r="W372" s="27"/>
+      <c r="X372" s="27"/>
+      <c r="Y372" s="27"/>
+      <c r="Z372" s="27"/>
+      <c r="AA372" s="24"/>
+      <c r="AB372" s="27"/>
+      <c r="AC372" s="27"/>
+      <c r="AD372" s="27"/>
+      <c r="AE372" s="27"/>
+      <c r="AF372" s="27"/>
+      <c r="AG372" s="27"/>
+      <c r="AH372" s="27"/>
+      <c r="AI372" s="27"/>
+      <c r="AJ372" s="27"/>
+      <c r="AK372" s="27"/>
+      <c r="AL372" s="27"/>
+      <c r="AM372" s="27"/>
+      <c r="AN372" s="27"/>
+      <c r="AO372" s="27"/>
+      <c r="AP372" s="27"/>
+      <c r="AQ372" s="27"/>
+      <c r="AR372" s="27"/>
+      <c r="AS372" s="27"/>
+      <c r="AT372" s="27"/>
+      <c r="AU372" s="27"/>
+      <c r="AV372" s="24"/>
+      <c r="AW372" s="27"/>
+      <c r="AX372" s="27"/>
+      <c r="AY372" s="27"/>
+      <c r="AZ372" s="27"/>
+      <c r="BA372" s="27"/>
+      <c r="BB372" s="27"/>
+      <c r="BC372" s="27"/>
+      <c r="BD372" s="27"/>
+      <c r="BE372" s="27"/>
+      <c r="BF372" s="27"/>
+      <c r="BG372" s="27"/>
+      <c r="BH372" s="27"/>
+      <c r="BI372" s="27"/>
+      <c r="BJ372" s="27"/>
+      <c r="BK372" s="27"/>
+      <c r="BL372" s="27"/>
+      <c r="BM372" s="27"/>
+      <c r="BN372" s="27"/>
+      <c r="BO372" s="27"/>
+      <c r="BP372" s="27"/>
+      <c r="BQ372" s="24"/>
+      <c r="BR372" s="27"/>
+      <c r="BS372" s="27"/>
+      <c r="BT372" s="27"/>
+      <c r="BU372" s="27"/>
+      <c r="BV372" s="27"/>
+      <c r="BW372" s="27"/>
+      <c r="BX372" s="27"/>
+      <c r="BY372" s="27"/>
+      <c r="BZ372" s="27"/>
+      <c r="CA372" s="27"/>
+      <c r="CB372" s="27"/>
+      <c r="CC372" s="27"/>
+      <c r="CD372" s="27"/>
+      <c r="CE372" s="27"/>
+      <c r="CF372" s="27"/>
+      <c r="CG372" s="27"/>
+      <c r="CH372" s="27"/>
+      <c r="CI372" s="27"/>
+      <c r="CJ372" s="27"/>
+      <c r="CK372" s="27"/>
+      <c r="CL372" s="24"/>
+      <c r="CM372" s="27"/>
+      <c r="CN372" s="27"/>
+      <c r="CO372" s="27"/>
+      <c r="CP372" s="27"/>
+      <c r="CQ372" s="27"/>
+      <c r="CR372" s="27"/>
+      <c r="CS372" s="27"/>
+      <c r="CT372" s="27"/>
+      <c r="CU372" s="27"/>
+      <c r="CV372" s="27"/>
+      <c r="CW372" s="27"/>
+      <c r="CX372" s="27"/>
+      <c r="CY372" s="27"/>
+      <c r="CZ372" s="27"/>
+      <c r="DA372" s="27"/>
+      <c r="DB372" s="27"/>
+      <c r="DC372" s="27"/>
+      <c r="DD372" s="27"/>
+      <c r="DE372" s="27"/>
+      <c r="DF372" s="27"/>
+      <c r="DG372" s="24"/>
+      <c r="DH372" s="27"/>
+      <c r="DI372" s="27"/>
+      <c r="DJ372" s="27"/>
+      <c r="DK372" s="27"/>
+      <c r="DL372" s="27"/>
+      <c r="DM372" s="27"/>
+      <c r="DN372" s="27"/>
+      <c r="DO372" s="27"/>
+      <c r="DP372" s="27"/>
+      <c r="DQ372" s="27"/>
+      <c r="DR372" s="27"/>
+      <c r="DS372" s="27"/>
+      <c r="DT372" s="27"/>
+      <c r="DU372" s="27"/>
+      <c r="DV372" s="27"/>
+      <c r="DW372" s="27"/>
+      <c r="DX372" s="27"/>
+      <c r="DY372" s="27"/>
+      <c r="DZ372" s="27"/>
+      <c r="EA372" s="27"/>
+      <c r="EB372" s="24"/>
+      <c r="EC372" s="27"/>
+      <c r="ED372" s="27"/>
+      <c r="EE372" s="27"/>
+      <c r="EF372" s="27"/>
+      <c r="EG372" s="27"/>
+      <c r="EH372" s="27"/>
+      <c r="EI372" s="27"/>
+      <c r="EJ372" s="27"/>
+      <c r="EK372" s="27"/>
+      <c r="EL372" s="27"/>
+      <c r="EM372" s="27"/>
+      <c r="EN372" s="27"/>
+      <c r="EO372" s="27"/>
+      <c r="EP372" s="27"/>
+      <c r="EQ372" s="27"/>
+      <c r="ER372" s="27"/>
+      <c r="ES372" s="27"/>
+      <c r="ET372" s="27"/>
+      <c r="EU372" s="27"/>
+      <c r="EV372" s="27"/>
+      <c r="EW372" s="24"/>
+      <c r="EX372" s="27"/>
+      <c r="EY372" s="27"/>
+      <c r="EZ372" s="27"/>
+      <c r="FA372" s="27"/>
+      <c r="FB372" s="27"/>
+      <c r="FC372" s="27"/>
+      <c r="FD372" s="27"/>
+      <c r="FE372" s="27"/>
+      <c r="FF372" s="27"/>
+      <c r="FG372" s="27"/>
+      <c r="FH372" s="27"/>
+      <c r="FI372" s="27"/>
+      <c r="FJ372" s="27"/>
+      <c r="FK372" s="27"/>
+      <c r="FL372" s="27"/>
+      <c r="FM372" s="27"/>
+      <c r="FN372" s="27"/>
+      <c r="FO372" s="27"/>
+      <c r="FP372" s="27"/>
+      <c r="FQ372" s="27"/>
+      <c r="FR372" s="24"/>
+      <c r="FS372" s="27"/>
+      <c r="FT372" s="27"/>
+      <c r="FU372" s="27"/>
+      <c r="FV372" s="27"/>
+      <c r="FW372" s="27"/>
+      <c r="FX372" s="27"/>
+      <c r="FY372" s="27"/>
+      <c r="FZ372" s="27"/>
+      <c r="GA372" s="27"/>
+      <c r="GB372" s="27"/>
+      <c r="GC372" s="27"/>
+      <c r="GD372" s="27"/>
+      <c r="GE372" s="27"/>
+      <c r="GF372" s="27"/>
+      <c r="GG372" s="27"/>
+      <c r="GH372" s="27"/>
+      <c r="GI372" s="27"/>
+      <c r="GJ372" s="27"/>
+      <c r="GK372" s="27"/>
+      <c r="GL372" s="27"/>
+      <c r="GM372" s="24"/>
+      <c r="GN372" s="27"/>
+      <c r="GO372" s="27"/>
+      <c r="GP372" s="27"/>
+      <c r="GQ372" s="27"/>
+      <c r="GR372" s="27"/>
+      <c r="GS372" s="27"/>
+      <c r="GT372" s="27"/>
+      <c r="GU372" s="27"/>
+      <c r="GV372" s="27"/>
+      <c r="GW372" s="27"/>
+      <c r="GX372" s="27"/>
+      <c r="GY372" s="27"/>
+      <c r="GZ372" s="27"/>
+      <c r="HA372" s="27"/>
+      <c r="HB372" s="27"/>
+      <c r="HC372" s="27"/>
+      <c r="HD372" s="27"/>
+      <c r="HE372" s="27"/>
+      <c r="HF372" s="27"/>
+      <c r="HG372" s="27"/>
+      <c r="HH372" s="24"/>
+      <c r="HI372" s="27"/>
+      <c r="HJ372" s="27"/>
+      <c r="HK372" s="27"/>
+      <c r="HL372" s="27"/>
+      <c r="HM372" s="27"/>
+      <c r="HN372" s="27"/>
+      <c r="HO372" s="27"/>
+      <c r="HP372" s="27"/>
+      <c r="HQ372" s="27"/>
+      <c r="HR372" s="27"/>
+      <c r="HS372" s="27"/>
+      <c r="HT372" s="27"/>
+      <c r="HU372" s="27"/>
+      <c r="HV372" s="27"/>
+      <c r="HW372" s="27"/>
+      <c r="HX372" s="27"/>
+      <c r="HY372" s="27"/>
+      <c r="HZ372" s="27"/>
+      <c r="IA372" s="27"/>
+      <c r="IB372" s="27"/>
+      <c r="IC372" s="24"/>
+      <c r="ID372" s="27"/>
+      <c r="IE372" s="27"/>
+      <c r="IF372" s="27"/>
+      <c r="IG372" s="27"/>
+      <c r="IH372" s="27"/>
+      <c r="II372" s="27"/>
+      <c r="IJ372" s="27"/>
+      <c r="IK372" s="27"/>
+      <c r="IL372" s="27"/>
+      <c r="IM372" s="27"/>
+      <c r="IN372" s="27"/>
+      <c r="IO372" s="27"/>
+      <c r="IP372" s="27"/>
+      <c r="IQ372" s="27"/>
+      <c r="IR372" s="27"/>
+      <c r="IS372" s="27"/>
+      <c r="IT372" s="27"/>
+      <c r="IU372" s="27"/>
+      <c r="IV372" s="27"/>
+    </row>
+    <row r="373" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A373" s="24">
         <v>44409</v>
       </c>
-      <c r="B373" s="18">
+      <c r="B373" s="17">
         <v>286.26</v>
       </c>
-      <c r="C373" s="18">
+      <c r="C373" s="17">
         <v>281.74</v>
       </c>
-      <c r="D373" s="18">
+      <c r="D373" s="17">
         <v>326.83999999999997</v>
       </c>
-      <c r="E373" s="18">
+      <c r="E373" s="17">
         <v>322.60000000000002</v>
       </c>
-      <c r="F373" s="18">
+      <c r="F373" s="17">
         <v>305.8</v>
       </c>
-      <c r="G373" s="18">
+      <c r="G373" s="17">
         <v>302.29000000000002</v>
       </c>
-      <c r="H373" s="18">
+      <c r="H373" s="17">
         <v>521.66</v>
       </c>
-      <c r="I373" s="18">
+      <c r="I373" s="17">
         <v>517.75</v>
       </c>
-      <c r="J373" s="18">
+      <c r="J373" s="17">
         <v>336.59</v>
       </c>
-      <c r="K373" s="18">
+      <c r="K373" s="17">
         <v>330.9</v>
       </c>
-      <c r="L373" s="18">
+      <c r="L373" s="17">
         <v>418.45</v>
       </c>
-      <c r="M373" s="18">
+      <c r="M373" s="17">
         <v>415.69</v>
       </c>
-      <c r="N373" s="18">
+      <c r="N373" s="17">
         <v>367.33</v>
       </c>
-      <c r="O373" s="18">
+      <c r="O373" s="17">
         <v>361.89</v>
       </c>
-      <c r="P373" s="18">
+      <c r="P373" s="17">
         <v>339.32</v>
       </c>
-      <c r="Q373" s="18">
+      <c r="Q373" s="17">
         <v>334.04</v>
       </c>
-      <c r="R373" s="16">
+      <c r="R373" s="15">
         <v>359.34</v>
       </c>
-      <c r="S373" s="18">
+      <c r="S373" s="17">
         <v>355.56</v>
       </c>
-      <c r="T373" s="18">
+      <c r="T373" s="17">
         <v>354.36</v>
       </c>
-      <c r="U373" s="18">
+      <c r="U373" s="17">
         <v>349.7</v>
       </c>
-      <c r="V373" s="25"/>
-      <c r="W373" s="28"/>
-      <c r="X373" s="28"/>
-      <c r="Y373" s="28"/>
-      <c r="Z373" s="28"/>
-      <c r="AA373" s="25"/>
-      <c r="AB373" s="28"/>
-      <c r="AC373" s="28"/>
-      <c r="AD373" s="28"/>
-      <c r="AE373" s="28"/>
-      <c r="AF373" s="28"/>
-      <c r="AG373" s="28"/>
-      <c r="AH373" s="28"/>
-      <c r="AI373" s="28"/>
-      <c r="AJ373" s="28"/>
-      <c r="AK373" s="28"/>
-      <c r="AL373" s="28"/>
-      <c r="AM373" s="28"/>
-      <c r="AN373" s="28"/>
-      <c r="AO373" s="28"/>
-      <c r="AP373" s="28"/>
-      <c r="AQ373" s="28"/>
-      <c r="AR373" s="28"/>
-      <c r="AS373" s="28"/>
-      <c r="AT373" s="28"/>
-      <c r="AU373" s="28"/>
-      <c r="AV373" s="25"/>
-      <c r="AW373" s="28"/>
-      <c r="AX373" s="28"/>
-      <c r="AY373" s="28"/>
-      <c r="AZ373" s="28"/>
-      <c r="BA373" s="28"/>
-      <c r="BB373" s="28"/>
-      <c r="BC373" s="28"/>
-      <c r="BD373" s="28"/>
-      <c r="BE373" s="28"/>
-      <c r="BF373" s="28"/>
-      <c r="BG373" s="28"/>
-      <c r="BH373" s="28"/>
-      <c r="BI373" s="28"/>
-      <c r="BJ373" s="28"/>
-      <c r="BK373" s="28"/>
-      <c r="BL373" s="28"/>
-      <c r="BM373" s="28"/>
-      <c r="BN373" s="28"/>
-      <c r="BO373" s="28"/>
-      <c r="BP373" s="28"/>
-      <c r="BQ373" s="25"/>
-      <c r="BR373" s="28"/>
-      <c r="BS373" s="28"/>
-      <c r="BT373" s="28"/>
-      <c r="BU373" s="28"/>
-      <c r="BV373" s="28"/>
-      <c r="BW373" s="28"/>
-      <c r="BX373" s="28"/>
-      <c r="BY373" s="28"/>
-      <c r="BZ373" s="28"/>
-      <c r="CA373" s="28"/>
-      <c r="CB373" s="28"/>
-      <c r="CC373" s="28"/>
-      <c r="CD373" s="28"/>
-      <c r="CE373" s="28"/>
-      <c r="CF373" s="28"/>
-      <c r="CG373" s="28"/>
-      <c r="CH373" s="28"/>
-      <c r="CI373" s="28"/>
-      <c r="CJ373" s="28"/>
-      <c r="CK373" s="28"/>
-      <c r="CL373" s="25"/>
-      <c r="CM373" s="28"/>
-      <c r="CN373" s="28"/>
-      <c r="CO373" s="28"/>
-      <c r="CP373" s="28"/>
-      <c r="CQ373" s="28"/>
-      <c r="CR373" s="28"/>
-      <c r="CS373" s="28"/>
-      <c r="CT373" s="28"/>
-      <c r="CU373" s="28"/>
-      <c r="CV373" s="28"/>
-      <c r="CW373" s="28"/>
-      <c r="CX373" s="28"/>
-      <c r="CY373" s="28"/>
-      <c r="CZ373" s="28"/>
-      <c r="DA373" s="28"/>
-      <c r="DB373" s="28"/>
-      <c r="DC373" s="28"/>
-      <c r="DD373" s="28"/>
-      <c r="DE373" s="28"/>
-      <c r="DF373" s="28"/>
-      <c r="DG373" s="25"/>
-      <c r="DH373" s="28"/>
-      <c r="DI373" s="28"/>
-      <c r="DJ373" s="28"/>
-      <c r="DK373" s="28"/>
-      <c r="DL373" s="28"/>
-      <c r="DM373" s="28"/>
-      <c r="DN373" s="28"/>
-      <c r="DO373" s="28"/>
-      <c r="DP373" s="28"/>
-      <c r="DQ373" s="28"/>
-      <c r="DR373" s="28"/>
-      <c r="DS373" s="28"/>
-      <c r="DT373" s="28"/>
-      <c r="DU373" s="28"/>
-      <c r="DV373" s="28"/>
-      <c r="DW373" s="28"/>
-      <c r="DX373" s="28"/>
-      <c r="DY373" s="28"/>
-      <c r="DZ373" s="28"/>
-      <c r="EA373" s="28"/>
-      <c r="EB373" s="25"/>
-      <c r="EC373" s="28"/>
-      <c r="ED373" s="28"/>
-      <c r="EE373" s="28"/>
-      <c r="EF373" s="28"/>
-      <c r="EG373" s="28"/>
-      <c r="EH373" s="28"/>
-      <c r="EI373" s="28"/>
-      <c r="EJ373" s="28"/>
-      <c r="EK373" s="28"/>
-      <c r="EL373" s="28"/>
-      <c r="EM373" s="28"/>
-      <c r="EN373" s="28"/>
-      <c r="EO373" s="28"/>
-      <c r="EP373" s="28"/>
-      <c r="EQ373" s="28"/>
-      <c r="ER373" s="28"/>
-      <c r="ES373" s="28"/>
-      <c r="ET373" s="28"/>
-      <c r="EU373" s="28"/>
-      <c r="EV373" s="28"/>
-      <c r="EW373" s="25"/>
-      <c r="EX373" s="28"/>
-      <c r="EY373" s="28"/>
-      <c r="EZ373" s="28"/>
-      <c r="FA373" s="28"/>
-      <c r="FB373" s="28"/>
-      <c r="FC373" s="28"/>
-      <c r="FD373" s="28"/>
-      <c r="FE373" s="28"/>
-      <c r="FF373" s="28"/>
-      <c r="FG373" s="28"/>
-      <c r="FH373" s="28"/>
-      <c r="FI373" s="28"/>
-      <c r="FJ373" s="28"/>
-      <c r="FK373" s="28"/>
-      <c r="FL373" s="28"/>
-      <c r="FM373" s="28"/>
-      <c r="FN373" s="28"/>
-      <c r="FO373" s="28"/>
-      <c r="FP373" s="28"/>
-      <c r="FQ373" s="28"/>
-      <c r="FR373" s="25"/>
-      <c r="FS373" s="28"/>
-      <c r="FT373" s="28"/>
-      <c r="FU373" s="28"/>
-      <c r="FV373" s="28"/>
-      <c r="FW373" s="28"/>
-      <c r="FX373" s="28"/>
-      <c r="FY373" s="28"/>
-      <c r="FZ373" s="28"/>
-      <c r="GA373" s="28"/>
-      <c r="GB373" s="28"/>
-      <c r="GC373" s="28"/>
-      <c r="GD373" s="28"/>
-      <c r="GE373" s="28"/>
-      <c r="GF373" s="28"/>
-      <c r="GG373" s="28"/>
-      <c r="GH373" s="28"/>
-      <c r="GI373" s="28"/>
-      <c r="GJ373" s="28"/>
-      <c r="GK373" s="28"/>
-      <c r="GL373" s="28"/>
-      <c r="GM373" s="25"/>
-      <c r="GN373" s="28"/>
-      <c r="GO373" s="28"/>
-      <c r="GP373" s="28"/>
-      <c r="GQ373" s="28"/>
-      <c r="GR373" s="28"/>
-      <c r="GS373" s="28"/>
-      <c r="GT373" s="28"/>
-      <c r="GU373" s="28"/>
-      <c r="GV373" s="28"/>
-      <c r="GW373" s="28"/>
-      <c r="GX373" s="28"/>
-      <c r="GY373" s="28"/>
-      <c r="GZ373" s="28"/>
-      <c r="HA373" s="28"/>
-      <c r="HB373" s="28"/>
-      <c r="HC373" s="28"/>
-      <c r="HD373" s="28"/>
-      <c r="HE373" s="28"/>
-      <c r="HF373" s="28"/>
-      <c r="HG373" s="28"/>
-      <c r="HH373" s="25"/>
-      <c r="HI373" s="28"/>
-      <c r="HJ373" s="28"/>
-      <c r="HK373" s="28"/>
-      <c r="HL373" s="28"/>
-      <c r="HM373" s="28"/>
-      <c r="HN373" s="28"/>
-      <c r="HO373" s="28"/>
-      <c r="HP373" s="28"/>
-      <c r="HQ373" s="28"/>
-      <c r="HR373" s="28"/>
-      <c r="HS373" s="28"/>
-      <c r="HT373" s="28"/>
-      <c r="HU373" s="28"/>
-      <c r="HV373" s="28"/>
-      <c r="HW373" s="28"/>
-      <c r="HX373" s="28"/>
-      <c r="HY373" s="28"/>
-      <c r="HZ373" s="28"/>
-      <c r="IA373" s="28"/>
-      <c r="IB373" s="28"/>
-      <c r="IC373" s="25"/>
-      <c r="ID373" s="28"/>
-      <c r="IE373" s="28"/>
-      <c r="IF373" s="28"/>
-      <c r="IG373" s="28"/>
-      <c r="IH373" s="28"/>
-      <c r="II373" s="28"/>
-      <c r="IJ373" s="28"/>
-      <c r="IK373" s="28"/>
-      <c r="IL373" s="28"/>
-      <c r="IM373" s="28"/>
-      <c r="IN373" s="28"/>
-      <c r="IO373" s="28"/>
-      <c r="IP373" s="28"/>
-      <c r="IQ373" s="28"/>
-      <c r="IR373" s="28"/>
-      <c r="IS373" s="28"/>
-      <c r="IT373" s="28"/>
-      <c r="IU373" s="28"/>
-      <c r="IV373" s="28"/>
-    </row>
-    <row r="374" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A374" s="25">
+      <c r="V373" s="24"/>
+      <c r="W373" s="27"/>
+      <c r="X373" s="27"/>
+      <c r="Y373" s="27"/>
+      <c r="Z373" s="27"/>
+      <c r="AA373" s="24"/>
+      <c r="AB373" s="27"/>
+      <c r="AC373" s="27"/>
+      <c r="AD373" s="27"/>
+      <c r="AE373" s="27"/>
+      <c r="AF373" s="27"/>
+      <c r="AG373" s="27"/>
+      <c r="AH373" s="27"/>
+      <c r="AI373" s="27"/>
+      <c r="AJ373" s="27"/>
+      <c r="AK373" s="27"/>
+      <c r="AL373" s="27"/>
+      <c r="AM373" s="27"/>
+      <c r="AN373" s="27"/>
+      <c r="AO373" s="27"/>
+      <c r="AP373" s="27"/>
+      <c r="AQ373" s="27"/>
+      <c r="AR373" s="27"/>
+      <c r="AS373" s="27"/>
+      <c r="AT373" s="27"/>
+      <c r="AU373" s="27"/>
+      <c r="AV373" s="24"/>
+      <c r="AW373" s="27"/>
+      <c r="AX373" s="27"/>
+      <c r="AY373" s="27"/>
+      <c r="AZ373" s="27"/>
+      <c r="BA373" s="27"/>
+      <c r="BB373" s="27"/>
+      <c r="BC373" s="27"/>
+      <c r="BD373" s="27"/>
+      <c r="BE373" s="27"/>
+      <c r="BF373" s="27"/>
+      <c r="BG373" s="27"/>
+      <c r="BH373" s="27"/>
+      <c r="BI373" s="27"/>
+      <c r="BJ373" s="27"/>
+      <c r="BK373" s="27"/>
+      <c r="BL373" s="27"/>
+      <c r="BM373" s="27"/>
+      <c r="BN373" s="27"/>
+      <c r="BO373" s="27"/>
+      <c r="BP373" s="27"/>
+      <c r="BQ373" s="24"/>
+      <c r="BR373" s="27"/>
+      <c r="BS373" s="27"/>
+      <c r="BT373" s="27"/>
+      <c r="BU373" s="27"/>
+      <c r="BV373" s="27"/>
+      <c r="BW373" s="27"/>
+      <c r="BX373" s="27"/>
+      <c r="BY373" s="27"/>
+      <c r="BZ373" s="27"/>
+      <c r="CA373" s="27"/>
+      <c r="CB373" s="27"/>
+      <c r="CC373" s="27"/>
+      <c r="CD373" s="27"/>
+      <c r="CE373" s="27"/>
+      <c r="CF373" s="27"/>
+      <c r="CG373" s="27"/>
+      <c r="CH373" s="27"/>
+      <c r="CI373" s="27"/>
+      <c r="CJ373" s="27"/>
+      <c r="CK373" s="27"/>
+      <c r="CL373" s="24"/>
+      <c r="CM373" s="27"/>
+      <c r="CN373" s="27"/>
+      <c r="CO373" s="27"/>
+      <c r="CP373" s="27"/>
+      <c r="CQ373" s="27"/>
+      <c r="CR373" s="27"/>
+      <c r="CS373" s="27"/>
+      <c r="CT373" s="27"/>
+      <c r="CU373" s="27"/>
+      <c r="CV373" s="27"/>
+      <c r="CW373" s="27"/>
+      <c r="CX373" s="27"/>
+      <c r="CY373" s="27"/>
+      <c r="CZ373" s="27"/>
+      <c r="DA373" s="27"/>
+      <c r="DB373" s="27"/>
+      <c r="DC373" s="27"/>
+      <c r="DD373" s="27"/>
+      <c r="DE373" s="27"/>
+      <c r="DF373" s="27"/>
+      <c r="DG373" s="24"/>
+      <c r="DH373" s="27"/>
+      <c r="DI373" s="27"/>
+      <c r="DJ373" s="27"/>
+      <c r="DK373" s="27"/>
+      <c r="DL373" s="27"/>
+      <c r="DM373" s="27"/>
+      <c r="DN373" s="27"/>
+      <c r="DO373" s="27"/>
+      <c r="DP373" s="27"/>
+      <c r="DQ373" s="27"/>
+      <c r="DR373" s="27"/>
+      <c r="DS373" s="27"/>
+      <c r="DT373" s="27"/>
+      <c r="DU373" s="27"/>
+      <c r="DV373" s="27"/>
+      <c r="DW373" s="27"/>
+      <c r="DX373" s="27"/>
+      <c r="DY373" s="27"/>
+      <c r="DZ373" s="27"/>
+      <c r="EA373" s="27"/>
+      <c r="EB373" s="24"/>
+      <c r="EC373" s="27"/>
+      <c r="ED373" s="27"/>
+      <c r="EE373" s="27"/>
+      <c r="EF373" s="27"/>
+      <c r="EG373" s="27"/>
+      <c r="EH373" s="27"/>
+      <c r="EI373" s="27"/>
+      <c r="EJ373" s="27"/>
+      <c r="EK373" s="27"/>
+      <c r="EL373" s="27"/>
+      <c r="EM373" s="27"/>
+      <c r="EN373" s="27"/>
+      <c r="EO373" s="27"/>
+      <c r="EP373" s="27"/>
+      <c r="EQ373" s="27"/>
+      <c r="ER373" s="27"/>
+      <c r="ES373" s="27"/>
+      <c r="ET373" s="27"/>
+      <c r="EU373" s="27"/>
+      <c r="EV373" s="27"/>
+      <c r="EW373" s="24"/>
+      <c r="EX373" s="27"/>
+      <c r="EY373" s="27"/>
+      <c r="EZ373" s="27"/>
+      <c r="FA373" s="27"/>
+      <c r="FB373" s="27"/>
+      <c r="FC373" s="27"/>
+      <c r="FD373" s="27"/>
+      <c r="FE373" s="27"/>
+      <c r="FF373" s="27"/>
+      <c r="FG373" s="27"/>
+      <c r="FH373" s="27"/>
+      <c r="FI373" s="27"/>
+      <c r="FJ373" s="27"/>
+      <c r="FK373" s="27"/>
+      <c r="FL373" s="27"/>
+      <c r="FM373" s="27"/>
+      <c r="FN373" s="27"/>
+      <c r="FO373" s="27"/>
+      <c r="FP373" s="27"/>
+      <c r="FQ373" s="27"/>
+      <c r="FR373" s="24"/>
+      <c r="FS373" s="27"/>
+      <c r="FT373" s="27"/>
+      <c r="FU373" s="27"/>
+      <c r="FV373" s="27"/>
+      <c r="FW373" s="27"/>
+      <c r="FX373" s="27"/>
+      <c r="FY373" s="27"/>
+      <c r="FZ373" s="27"/>
+      <c r="GA373" s="27"/>
+      <c r="GB373" s="27"/>
+      <c r="GC373" s="27"/>
+      <c r="GD373" s="27"/>
+      <c r="GE373" s="27"/>
+      <c r="GF373" s="27"/>
+      <c r="GG373" s="27"/>
+      <c r="GH373" s="27"/>
+      <c r="GI373" s="27"/>
+      <c r="GJ373" s="27"/>
+      <c r="GK373" s="27"/>
+      <c r="GL373" s="27"/>
+      <c r="GM373" s="24"/>
+      <c r="GN373" s="27"/>
+      <c r="GO373" s="27"/>
+      <c r="GP373" s="27"/>
+      <c r="GQ373" s="27"/>
+      <c r="GR373" s="27"/>
+      <c r="GS373" s="27"/>
+      <c r="GT373" s="27"/>
+      <c r="GU373" s="27"/>
+      <c r="GV373" s="27"/>
+      <c r="GW373" s="27"/>
+      <c r="GX373" s="27"/>
+      <c r="GY373" s="27"/>
+      <c r="GZ373" s="27"/>
+      <c r="HA373" s="27"/>
+      <c r="HB373" s="27"/>
+      <c r="HC373" s="27"/>
+      <c r="HD373" s="27"/>
+      <c r="HE373" s="27"/>
+      <c r="HF373" s="27"/>
+      <c r="HG373" s="27"/>
+      <c r="HH373" s="24"/>
+      <c r="HI373" s="27"/>
+      <c r="HJ373" s="27"/>
+      <c r="HK373" s="27"/>
+      <c r="HL373" s="27"/>
+      <c r="HM373" s="27"/>
+      <c r="HN373" s="27"/>
+      <c r="HO373" s="27"/>
+      <c r="HP373" s="27"/>
+      <c r="HQ373" s="27"/>
+      <c r="HR373" s="27"/>
+      <c r="HS373" s="27"/>
+      <c r="HT373" s="27"/>
+      <c r="HU373" s="27"/>
+      <c r="HV373" s="27"/>
+      <c r="HW373" s="27"/>
+      <c r="HX373" s="27"/>
+      <c r="HY373" s="27"/>
+      <c r="HZ373" s="27"/>
+      <c r="IA373" s="27"/>
+      <c r="IB373" s="27"/>
+      <c r="IC373" s="24"/>
+      <c r="ID373" s="27"/>
+      <c r="IE373" s="27"/>
+      <c r="IF373" s="27"/>
+      <c r="IG373" s="27"/>
+      <c r="IH373" s="27"/>
+      <c r="II373" s="27"/>
+      <c r="IJ373" s="27"/>
+      <c r="IK373" s="27"/>
+      <c r="IL373" s="27"/>
+      <c r="IM373" s="27"/>
+      <c r="IN373" s="27"/>
+      <c r="IO373" s="27"/>
+      <c r="IP373" s="27"/>
+      <c r="IQ373" s="27"/>
+      <c r="IR373" s="27"/>
+      <c r="IS373" s="27"/>
+      <c r="IT373" s="27"/>
+      <c r="IU373" s="27"/>
+      <c r="IV373" s="27"/>
+    </row>
+    <row r="374" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A374" s="24">
         <v>44440</v>
       </c>
-      <c r="B374" s="18">
+      <c r="B374" s="17">
         <v>288.23</v>
       </c>
-      <c r="C374" s="18">
+      <c r="C374" s="17">
         <v>283.89</v>
       </c>
-      <c r="D374" s="18">
+      <c r="D374" s="17">
         <v>329.2</v>
       </c>
-      <c r="E374" s="18">
+      <c r="E374" s="17">
         <v>326.45</v>
       </c>
-      <c r="F374" s="18">
+      <c r="F374" s="17">
         <v>308.05</v>
       </c>
-      <c r="G374" s="18">
+      <c r="G374" s="17">
         <v>305.02</v>
       </c>
-      <c r="H374" s="18">
+      <c r="H374" s="17">
         <v>525.11</v>
       </c>
-      <c r="I374" s="18">
+      <c r="I374" s="17">
         <v>521.88</v>
       </c>
-      <c r="J374" s="18">
+      <c r="J374" s="17">
         <v>340.9</v>
       </c>
-      <c r="K374" s="18">
+      <c r="K374" s="17">
         <v>336.85</v>
       </c>
-      <c r="L374" s="18">
+      <c r="L374" s="17">
         <v>419.87</v>
       </c>
-      <c r="M374" s="18">
+      <c r="M374" s="17">
         <v>418.44</v>
       </c>
-      <c r="N374" s="18">
+      <c r="N374" s="17">
         <v>369</v>
       </c>
-      <c r="O374" s="18">
+      <c r="O374" s="17">
         <v>365.47</v>
       </c>
-      <c r="P374" s="18">
+      <c r="P374" s="17">
         <v>341.18</v>
       </c>
-      <c r="Q374" s="18">
+      <c r="Q374" s="17">
         <v>337.2</v>
       </c>
-      <c r="R374" s="16">
+      <c r="R374" s="15">
         <v>365.93</v>
       </c>
-      <c r="S374" s="18">
+      <c r="S374" s="17">
         <v>362.38</v>
       </c>
-      <c r="T374" s="18">
+      <c r="T374" s="17">
         <v>357.05</v>
       </c>
-      <c r="U374" s="18">
+      <c r="U374" s="17">
         <v>353.37</v>
       </c>
-      <c r="V374" s="25"/>
-      <c r="W374" s="28"/>
-      <c r="X374" s="28"/>
-      <c r="Y374" s="28"/>
-      <c r="Z374" s="28"/>
-      <c r="AA374" s="25"/>
-      <c r="AB374" s="28"/>
-      <c r="AC374" s="28"/>
-      <c r="AD374" s="28"/>
-      <c r="AE374" s="28"/>
-      <c r="AF374" s="28"/>
-      <c r="AG374" s="28"/>
-      <c r="AH374" s="28"/>
-      <c r="AI374" s="28"/>
-      <c r="AJ374" s="28"/>
-      <c r="AK374" s="28"/>
-      <c r="AL374" s="28"/>
-      <c r="AM374" s="28"/>
-      <c r="AN374" s="28"/>
-      <c r="AO374" s="28"/>
-      <c r="AP374" s="28"/>
-      <c r="AQ374" s="28"/>
-      <c r="AR374" s="28"/>
-      <c r="AS374" s="28"/>
-      <c r="AT374" s="28"/>
-      <c r="AU374" s="28"/>
-      <c r="AV374" s="25"/>
-      <c r="AW374" s="28"/>
-      <c r="AX374" s="28"/>
-      <c r="AY374" s="28"/>
-      <c r="AZ374" s="28"/>
-      <c r="BA374" s="28"/>
-      <c r="BB374" s="28"/>
-      <c r="BC374" s="28"/>
-      <c r="BD374" s="28"/>
-      <c r="BE374" s="28"/>
-      <c r="BF374" s="28"/>
-      <c r="BG374" s="28"/>
-      <c r="BH374" s="28"/>
-      <c r="BI374" s="28"/>
-      <c r="BJ374" s="28"/>
-      <c r="BK374" s="28"/>
-      <c r="BL374" s="28"/>
-      <c r="BM374" s="28"/>
-      <c r="BN374" s="28"/>
-      <c r="BO374" s="28"/>
-      <c r="BP374" s="28"/>
-      <c r="BQ374" s="25"/>
-      <c r="BR374" s="28"/>
-      <c r="BS374" s="28"/>
-      <c r="BT374" s="28"/>
-      <c r="BU374" s="28"/>
-      <c r="BV374" s="28"/>
-      <c r="BW374" s="28"/>
-      <c r="BX374" s="28"/>
-      <c r="BY374" s="28"/>
-      <c r="BZ374" s="28"/>
-      <c r="CA374" s="28"/>
-      <c r="CB374" s="28"/>
-      <c r="CC374" s="28"/>
-      <c r="CD374" s="28"/>
-      <c r="CE374" s="28"/>
-      <c r="CF374" s="28"/>
-      <c r="CG374" s="28"/>
-      <c r="CH374" s="28"/>
-      <c r="CI374" s="28"/>
-      <c r="CJ374" s="28"/>
-      <c r="CK374" s="28"/>
-      <c r="CL374" s="25"/>
-      <c r="CM374" s="28"/>
-      <c r="CN374" s="28"/>
-      <c r="CO374" s="28"/>
-      <c r="CP374" s="28"/>
-      <c r="CQ374" s="28"/>
-      <c r="CR374" s="28"/>
-      <c r="CS374" s="28"/>
-      <c r="CT374" s="28"/>
-      <c r="CU374" s="28"/>
-      <c r="CV374" s="28"/>
-      <c r="CW374" s="28"/>
-      <c r="CX374" s="28"/>
-      <c r="CY374" s="28"/>
-      <c r="CZ374" s="28"/>
-      <c r="DA374" s="28"/>
-      <c r="DB374" s="28"/>
-      <c r="DC374" s="28"/>
-      <c r="DD374" s="28"/>
-      <c r="DE374" s="28"/>
-      <c r="DF374" s="28"/>
-      <c r="DG374" s="25"/>
-      <c r="DH374" s="28"/>
-      <c r="DI374" s="28"/>
-      <c r="DJ374" s="28"/>
-      <c r="DK374" s="28"/>
-      <c r="DL374" s="28"/>
-      <c r="DM374" s="28"/>
-      <c r="DN374" s="28"/>
-      <c r="DO374" s="28"/>
-      <c r="DP374" s="28"/>
-      <c r="DQ374" s="28"/>
-      <c r="DR374" s="28"/>
-      <c r="DS374" s="28"/>
-      <c r="DT374" s="28"/>
-      <c r="DU374" s="28"/>
-      <c r="DV374" s="28"/>
-      <c r="DW374" s="28"/>
-      <c r="DX374" s="28"/>
-      <c r="DY374" s="28"/>
-      <c r="DZ374" s="28"/>
-      <c r="EA374" s="28"/>
-      <c r="EB374" s="25"/>
-      <c r="EC374" s="28"/>
-      <c r="ED374" s="28"/>
-      <c r="EE374" s="28"/>
-      <c r="EF374" s="28"/>
-      <c r="EG374" s="28"/>
-      <c r="EH374" s="28"/>
-      <c r="EI374" s="28"/>
-      <c r="EJ374" s="28"/>
-      <c r="EK374" s="28"/>
-      <c r="EL374" s="28"/>
-      <c r="EM374" s="28"/>
-      <c r="EN374" s="28"/>
-      <c r="EO374" s="28"/>
-      <c r="EP374" s="28"/>
-      <c r="EQ374" s="28"/>
-      <c r="ER374" s="28"/>
-      <c r="ES374" s="28"/>
-      <c r="ET374" s="28"/>
-      <c r="EU374" s="28"/>
-      <c r="EV374" s="28"/>
-      <c r="EW374" s="25"/>
-      <c r="EX374" s="28"/>
-      <c r="EY374" s="28"/>
-      <c r="EZ374" s="28"/>
-      <c r="FA374" s="28"/>
-      <c r="FB374" s="28"/>
-      <c r="FC374" s="28"/>
-      <c r="FD374" s="28"/>
-      <c r="FE374" s="28"/>
-      <c r="FF374" s="28"/>
-      <c r="FG374" s="28"/>
-      <c r="FH374" s="28"/>
-      <c r="FI374" s="28"/>
-      <c r="FJ374" s="28"/>
-      <c r="FK374" s="28"/>
-      <c r="FL374" s="28"/>
-      <c r="FM374" s="28"/>
-      <c r="FN374" s="28"/>
-      <c r="FO374" s="28"/>
-      <c r="FP374" s="28"/>
-      <c r="FQ374" s="28"/>
-      <c r="FR374" s="25"/>
-      <c r="FS374" s="28"/>
-      <c r="FT374" s="28"/>
-      <c r="FU374" s="28"/>
-      <c r="FV374" s="28"/>
-      <c r="FW374" s="28"/>
-      <c r="FX374" s="28"/>
-      <c r="FY374" s="28"/>
-      <c r="FZ374" s="28"/>
-      <c r="GA374" s="28"/>
-      <c r="GB374" s="28"/>
-      <c r="GC374" s="28"/>
-      <c r="GD374" s="28"/>
-      <c r="GE374" s="28"/>
-      <c r="GF374" s="28"/>
-      <c r="GG374" s="28"/>
-      <c r="GH374" s="28"/>
-      <c r="GI374" s="28"/>
-      <c r="GJ374" s="28"/>
-      <c r="GK374" s="28"/>
-      <c r="GL374" s="28"/>
-      <c r="GM374" s="25"/>
-      <c r="GN374" s="28"/>
-      <c r="GO374" s="28"/>
-      <c r="GP374" s="28"/>
-      <c r="GQ374" s="28"/>
-      <c r="GR374" s="28"/>
-      <c r="GS374" s="28"/>
-      <c r="GT374" s="28"/>
-      <c r="GU374" s="28"/>
-      <c r="GV374" s="28"/>
-      <c r="GW374" s="28"/>
-      <c r="GX374" s="28"/>
-      <c r="GY374" s="28"/>
-      <c r="GZ374" s="28"/>
-      <c r="HA374" s="28"/>
-      <c r="HB374" s="28"/>
-      <c r="HC374" s="28"/>
-      <c r="HD374" s="28"/>
-      <c r="HE374" s="28"/>
-      <c r="HF374" s="28"/>
-      <c r="HG374" s="28"/>
-      <c r="HH374" s="25"/>
-      <c r="HI374" s="28"/>
-      <c r="HJ374" s="28"/>
-      <c r="HK374" s="28"/>
-      <c r="HL374" s="28"/>
-      <c r="HM374" s="28"/>
-      <c r="HN374" s="28"/>
-      <c r="HO374" s="28"/>
-      <c r="HP374" s="28"/>
-      <c r="HQ374" s="28"/>
-      <c r="HR374" s="28"/>
-      <c r="HS374" s="28"/>
-      <c r="HT374" s="28"/>
-      <c r="HU374" s="28"/>
-      <c r="HV374" s="28"/>
-      <c r="HW374" s="28"/>
-      <c r="HX374" s="28"/>
-      <c r="HY374" s="28"/>
-      <c r="HZ374" s="28"/>
-      <c r="IA374" s="28"/>
-      <c r="IB374" s="28"/>
-      <c r="IC374" s="25"/>
-      <c r="ID374" s="28"/>
-      <c r="IE374" s="28"/>
-      <c r="IF374" s="28"/>
-      <c r="IG374" s="28"/>
-      <c r="IH374" s="28"/>
-      <c r="II374" s="28"/>
-      <c r="IJ374" s="28"/>
-      <c r="IK374" s="28"/>
-      <c r="IL374" s="28"/>
-      <c r="IM374" s="28"/>
-      <c r="IN374" s="28"/>
-      <c r="IO374" s="28"/>
-      <c r="IP374" s="28"/>
-      <c r="IQ374" s="28"/>
-      <c r="IR374" s="28"/>
-      <c r="IS374" s="28"/>
-      <c r="IT374" s="28"/>
-      <c r="IU374" s="28"/>
-      <c r="IV374" s="28"/>
-    </row>
-    <row r="375" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A375" s="25">
+      <c r="V374" s="24"/>
+      <c r="W374" s="27"/>
+      <c r="X374" s="27"/>
+      <c r="Y374" s="27"/>
+      <c r="Z374" s="27"/>
+      <c r="AA374" s="24"/>
+      <c r="AB374" s="27"/>
+      <c r="AC374" s="27"/>
+      <c r="AD374" s="27"/>
+      <c r="AE374" s="27"/>
+      <c r="AF374" s="27"/>
+      <c r="AG374" s="27"/>
+      <c r="AH374" s="27"/>
+      <c r="AI374" s="27"/>
+      <c r="AJ374" s="27"/>
+      <c r="AK374" s="27"/>
+      <c r="AL374" s="27"/>
+      <c r="AM374" s="27"/>
+      <c r="AN374" s="27"/>
+      <c r="AO374" s="27"/>
+      <c r="AP374" s="27"/>
+      <c r="AQ374" s="27"/>
+      <c r="AR374" s="27"/>
+      <c r="AS374" s="27"/>
+      <c r="AT374" s="27"/>
+      <c r="AU374" s="27"/>
+      <c r="AV374" s="24"/>
+      <c r="AW374" s="27"/>
+      <c r="AX374" s="27"/>
+      <c r="AY374" s="27"/>
+      <c r="AZ374" s="27"/>
+      <c r="BA374" s="27"/>
+      <c r="BB374" s="27"/>
+      <c r="BC374" s="27"/>
+      <c r="BD374" s="27"/>
+      <c r="BE374" s="27"/>
+      <c r="BF374" s="27"/>
+      <c r="BG374" s="27"/>
+      <c r="BH374" s="27"/>
+      <c r="BI374" s="27"/>
+      <c r="BJ374" s="27"/>
+      <c r="BK374" s="27"/>
+      <c r="BL374" s="27"/>
+      <c r="BM374" s="27"/>
+      <c r="BN374" s="27"/>
+      <c r="BO374" s="27"/>
+      <c r="BP374" s="27"/>
+      <c r="BQ374" s="24"/>
+      <c r="BR374" s="27"/>
+      <c r="BS374" s="27"/>
+      <c r="BT374" s="27"/>
+      <c r="BU374" s="27"/>
+      <c r="BV374" s="27"/>
+      <c r="BW374" s="27"/>
+      <c r="BX374" s="27"/>
+      <c r="BY374" s="27"/>
+      <c r="BZ374" s="27"/>
+      <c r="CA374" s="27"/>
+      <c r="CB374" s="27"/>
+      <c r="CC374" s="27"/>
+      <c r="CD374" s="27"/>
+      <c r="CE374" s="27"/>
+      <c r="CF374" s="27"/>
+      <c r="CG374" s="27"/>
+      <c r="CH374" s="27"/>
+      <c r="CI374" s="27"/>
+      <c r="CJ374" s="27"/>
+      <c r="CK374" s="27"/>
+      <c r="CL374" s="24"/>
+      <c r="CM374" s="27"/>
+      <c r="CN374" s="27"/>
+      <c r="CO374" s="27"/>
+      <c r="CP374" s="27"/>
+      <c r="CQ374" s="27"/>
+      <c r="CR374" s="27"/>
+      <c r="CS374" s="27"/>
+      <c r="CT374" s="27"/>
+      <c r="CU374" s="27"/>
+      <c r="CV374" s="27"/>
+      <c r="CW374" s="27"/>
+      <c r="CX374" s="27"/>
+      <c r="CY374" s="27"/>
+      <c r="CZ374" s="27"/>
+      <c r="DA374" s="27"/>
+      <c r="DB374" s="27"/>
+      <c r="DC374" s="27"/>
+      <c r="DD374" s="27"/>
+      <c r="DE374" s="27"/>
+      <c r="DF374" s="27"/>
+      <c r="DG374" s="24"/>
+      <c r="DH374" s="27"/>
+      <c r="DI374" s="27"/>
+      <c r="DJ374" s="27"/>
+      <c r="DK374" s="27"/>
+      <c r="DL374" s="27"/>
+      <c r="DM374" s="27"/>
+      <c r="DN374" s="27"/>
+      <c r="DO374" s="27"/>
+      <c r="DP374" s="27"/>
+      <c r="DQ374" s="27"/>
+      <c r="DR374" s="27"/>
+      <c r="DS374" s="27"/>
+      <c r="DT374" s="27"/>
+      <c r="DU374" s="27"/>
+      <c r="DV374" s="27"/>
+      <c r="DW374" s="27"/>
+      <c r="DX374" s="27"/>
+      <c r="DY374" s="27"/>
+      <c r="DZ374" s="27"/>
+      <c r="EA374" s="27"/>
+      <c r="EB374" s="24"/>
+      <c r="EC374" s="27"/>
+      <c r="ED374" s="27"/>
+      <c r="EE374" s="27"/>
+      <c r="EF374" s="27"/>
+      <c r="EG374" s="27"/>
+      <c r="EH374" s="27"/>
+      <c r="EI374" s="27"/>
+      <c r="EJ374" s="27"/>
+      <c r="EK374" s="27"/>
+      <c r="EL374" s="27"/>
+      <c r="EM374" s="27"/>
+      <c r="EN374" s="27"/>
+      <c r="EO374" s="27"/>
+      <c r="EP374" s="27"/>
+      <c r="EQ374" s="27"/>
+      <c r="ER374" s="27"/>
+      <c r="ES374" s="27"/>
+      <c r="ET374" s="27"/>
+      <c r="EU374" s="27"/>
+      <c r="EV374" s="27"/>
+      <c r="EW374" s="24"/>
+      <c r="EX374" s="27"/>
+      <c r="EY374" s="27"/>
+      <c r="EZ374" s="27"/>
+      <c r="FA374" s="27"/>
+      <c r="FB374" s="27"/>
+      <c r="FC374" s="27"/>
+      <c r="FD374" s="27"/>
+      <c r="FE374" s="27"/>
+      <c r="FF374" s="27"/>
+      <c r="FG374" s="27"/>
+      <c r="FH374" s="27"/>
+      <c r="FI374" s="27"/>
+      <c r="FJ374" s="27"/>
+      <c r="FK374" s="27"/>
+      <c r="FL374" s="27"/>
+      <c r="FM374" s="27"/>
+      <c r="FN374" s="27"/>
+      <c r="FO374" s="27"/>
+      <c r="FP374" s="27"/>
+      <c r="FQ374" s="27"/>
+      <c r="FR374" s="24"/>
+      <c r="FS374" s="27"/>
+      <c r="FT374" s="27"/>
+      <c r="FU374" s="27"/>
+      <c r="FV374" s="27"/>
+      <c r="FW374" s="27"/>
+      <c r="FX374" s="27"/>
+      <c r="FY374" s="27"/>
+      <c r="FZ374" s="27"/>
+      <c r="GA374" s="27"/>
+      <c r="GB374" s="27"/>
+      <c r="GC374" s="27"/>
+      <c r="GD374" s="27"/>
+      <c r="GE374" s="27"/>
+      <c r="GF374" s="27"/>
+      <c r="GG374" s="27"/>
+      <c r="GH374" s="27"/>
+      <c r="GI374" s="27"/>
+      <c r="GJ374" s="27"/>
+      <c r="GK374" s="27"/>
+      <c r="GL374" s="27"/>
+      <c r="GM374" s="24"/>
+      <c r="GN374" s="27"/>
+      <c r="GO374" s="27"/>
+      <c r="GP374" s="27"/>
+      <c r="GQ374" s="27"/>
+      <c r="GR374" s="27"/>
+      <c r="GS374" s="27"/>
+      <c r="GT374" s="27"/>
+      <c r="GU374" s="27"/>
+      <c r="GV374" s="27"/>
+      <c r="GW374" s="27"/>
+      <c r="GX374" s="27"/>
+      <c r="GY374" s="27"/>
+      <c r="GZ374" s="27"/>
+      <c r="HA374" s="27"/>
+      <c r="HB374" s="27"/>
+      <c r="HC374" s="27"/>
+      <c r="HD374" s="27"/>
+      <c r="HE374" s="27"/>
+      <c r="HF374" s="27"/>
+      <c r="HG374" s="27"/>
+      <c r="HH374" s="24"/>
+      <c r="HI374" s="27"/>
+      <c r="HJ374" s="27"/>
+      <c r="HK374" s="27"/>
+      <c r="HL374" s="27"/>
+      <c r="HM374" s="27"/>
+      <c r="HN374" s="27"/>
+      <c r="HO374" s="27"/>
+      <c r="HP374" s="27"/>
+      <c r="HQ374" s="27"/>
+      <c r="HR374" s="27"/>
+      <c r="HS374" s="27"/>
+      <c r="HT374" s="27"/>
+      <c r="HU374" s="27"/>
+      <c r="HV374" s="27"/>
+      <c r="HW374" s="27"/>
+      <c r="HX374" s="27"/>
+      <c r="HY374" s="27"/>
+      <c r="HZ374" s="27"/>
+      <c r="IA374" s="27"/>
+      <c r="IB374" s="27"/>
+      <c r="IC374" s="24"/>
+      <c r="ID374" s="27"/>
+      <c r="IE374" s="27"/>
+      <c r="IF374" s="27"/>
+      <c r="IG374" s="27"/>
+      <c r="IH374" s="27"/>
+      <c r="II374" s="27"/>
+      <c r="IJ374" s="27"/>
+      <c r="IK374" s="27"/>
+      <c r="IL374" s="27"/>
+      <c r="IM374" s="27"/>
+      <c r="IN374" s="27"/>
+      <c r="IO374" s="27"/>
+      <c r="IP374" s="27"/>
+      <c r="IQ374" s="27"/>
+      <c r="IR374" s="27"/>
+      <c r="IS374" s="27"/>
+      <c r="IT374" s="27"/>
+      <c r="IU374" s="27"/>
+      <c r="IV374" s="27"/>
+    </row>
+    <row r="375" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A375" s="24">
         <v>44470</v>
       </c>
-      <c r="B375" s="18">
+      <c r="B375" s="17">
         <v>289.39</v>
       </c>
-      <c r="C375" s="18">
+      <c r="C375" s="17">
         <v>287.33</v>
       </c>
-      <c r="D375" s="18">
+      <c r="D375" s="17">
         <v>334.12</v>
       </c>
-      <c r="E375" s="18">
+      <c r="E375" s="17">
         <v>331.51</v>
       </c>
-      <c r="F375" s="18">
+      <c r="F375" s="17">
         <v>311.36</v>
       </c>
-      <c r="G375" s="18">
+      <c r="G375" s="17">
         <v>309.23</v>
       </c>
-      <c r="H375" s="18">
+      <c r="H375" s="17">
         <v>530.01</v>
       </c>
-      <c r="I375" s="18">
+      <c r="I375" s="17">
         <v>528.95000000000005</v>
       </c>
-      <c r="J375" s="18">
+      <c r="J375" s="17">
         <v>339.81</v>
       </c>
-      <c r="K375" s="18">
+      <c r="K375" s="17">
         <v>337.82</v>
       </c>
-      <c r="L375" s="18">
+      <c r="L375" s="17">
         <v>425.29</v>
       </c>
-      <c r="M375" s="18">
+      <c r="M375" s="17">
         <v>425.03</v>
       </c>
-      <c r="N375" s="18">
+      <c r="N375" s="17">
         <v>373.46</v>
       </c>
-      <c r="O375" s="18">
+      <c r="O375" s="17">
         <v>370.91</v>
       </c>
-      <c r="P375" s="18">
+      <c r="P375" s="17">
         <v>342.92</v>
       </c>
-      <c r="Q375" s="18">
+      <c r="Q375" s="17">
         <v>340.2</v>
       </c>
-      <c r="R375" s="16">
+      <c r="R375" s="15">
         <v>366.93</v>
       </c>
-      <c r="S375" s="18">
+      <c r="S375" s="17">
         <v>365.34</v>
       </c>
-      <c r="T375" s="18">
+      <c r="T375" s="17">
         <v>360.02</v>
       </c>
-      <c r="U375" s="18">
+      <c r="U375" s="17">
         <v>357.79</v>
       </c>
     </row>
-    <row r="376" spans="1:256" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="25">
+    <row r="376" spans="1:256" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="24">
         <v>44501</v>
       </c>
-      <c r="B376" s="18">
+      <c r="B376" s="17">
         <v>290.41000000000003</v>
       </c>
-      <c r="C376" s="18">
+      <c r="C376" s="17">
         <v>290.41000000000003</v>
       </c>
-      <c r="D376" s="18">
+      <c r="D376" s="17">
         <v>339.24</v>
       </c>
-      <c r="E376" s="18">
+      <c r="E376" s="17">
         <v>338.05</v>
       </c>
-      <c r="F376" s="18">
+      <c r="F376" s="17">
         <v>312.72000000000003</v>
       </c>
-      <c r="G376" s="18">
+      <c r="G376" s="17">
         <v>310.73</v>
       </c>
-      <c r="H376" s="18">
+      <c r="H376" s="17">
         <v>534.66999999999996</v>
       </c>
-      <c r="I376" s="18">
+      <c r="I376" s="17">
         <v>536.03</v>
       </c>
-      <c r="J376" s="18">
+      <c r="J376" s="17">
         <v>342.04</v>
       </c>
-      <c r="K376" s="18">
+      <c r="K376" s="17">
         <v>341.61</v>
       </c>
-      <c r="L376" s="18">
+      <c r="L376" s="17">
         <v>427.8</v>
       </c>
-      <c r="M376" s="18">
+      <c r="M376" s="17">
         <v>429.56</v>
       </c>
-      <c r="N376" s="18">
+      <c r="N376" s="17">
         <v>379.48</v>
       </c>
-      <c r="O376" s="18">
+      <c r="O376" s="17">
         <v>377.97</v>
       </c>
-      <c r="P376" s="18">
+      <c r="P376" s="17">
         <v>342.12</v>
       </c>
-      <c r="Q376" s="18">
+      <c r="Q376" s="17">
         <v>342.77</v>
       </c>
-      <c r="R376" s="16">
+      <c r="R376" s="15">
         <v>371.08</v>
       </c>
-      <c r="S376" s="18">
+      <c r="S376" s="17">
         <v>371.51</v>
       </c>
-      <c r="T376" s="18">
+      <c r="T376" s="17">
         <v>363.03</v>
       </c>
-      <c r="U376" s="18">
+      <c r="U376" s="17">
         <v>362.5</v>
       </c>
-      <c r="V376" s="25"/>
-      <c r="W376" s="24"/>
-      <c r="AQ376" s="25"/>
-      <c r="AR376" s="24"/>
-      <c r="BL376" s="25"/>
-      <c r="BM376" s="24"/>
-      <c r="CG376" s="25"/>
-      <c r="CH376" s="24"/>
-      <c r="DB376" s="25"/>
-      <c r="DC376" s="24"/>
-      <c r="DW376" s="25"/>
-      <c r="DX376" s="24"/>
-      <c r="ER376" s="25"/>
-      <c r="ES376" s="24"/>
-      <c r="FM376" s="25"/>
-      <c r="FN376" s="24"/>
-      <c r="GH376" s="25"/>
-      <c r="GI376" s="24"/>
-      <c r="HC376" s="25"/>
-      <c r="HD376" s="24"/>
-      <c r="HX376" s="25"/>
-      <c r="HY376" s="24"/>
-      <c r="IS376" s="25"/>
-      <c r="IT376" s="24"/>
-    </row>
-    <row r="377" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A377" s="25">
+      <c r="V376" s="24"/>
+      <c r="W376" s="23"/>
+      <c r="AQ376" s="24"/>
+      <c r="AR376" s="23"/>
+      <c r="BL376" s="24"/>
+      <c r="BM376" s="23"/>
+      <c r="CG376" s="24"/>
+      <c r="CH376" s="23"/>
+      <c r="DB376" s="24"/>
+      <c r="DC376" s="23"/>
+      <c r="DW376" s="24"/>
+      <c r="DX376" s="23"/>
+      <c r="ER376" s="24"/>
+      <c r="ES376" s="23"/>
+      <c r="FM376" s="24"/>
+      <c r="FN376" s="23"/>
+      <c r="GH376" s="24"/>
+      <c r="GI376" s="23"/>
+      <c r="HC376" s="24"/>
+      <c r="HD376" s="23"/>
+      <c r="HX376" s="24"/>
+      <c r="HY376" s="23"/>
+      <c r="IS376" s="24"/>
+      <c r="IT376" s="23"/>
+    </row>
+    <row r="377" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A377" s="24">
         <v>44531</v>
       </c>
-      <c r="B377" s="18">
+      <c r="B377" s="17">
         <v>292.05</v>
       </c>
-      <c r="C377" s="18">
+      <c r="C377" s="17">
         <v>294.66000000000003</v>
       </c>
-      <c r="D377" s="18">
+      <c r="D377" s="17">
         <v>340.75</v>
       </c>
-      <c r="E377" s="18">
+      <c r="E377" s="17">
         <v>340.56</v>
       </c>
-      <c r="F377" s="18">
+      <c r="F377" s="17">
         <v>314.20999999999998</v>
       </c>
-      <c r="G377" s="18">
+      <c r="G377" s="17">
         <v>314.61</v>
       </c>
-      <c r="H377" s="18">
+      <c r="H377" s="17">
         <v>541.54</v>
       </c>
-      <c r="I377" s="18">
+      <c r="I377" s="17">
         <v>546.04999999999995</v>
       </c>
-      <c r="J377" s="18">
+      <c r="J377" s="17">
         <v>347.43</v>
       </c>
-      <c r="K377" s="18">
+      <c r="K377" s="17">
         <v>348.81</v>
       </c>
-      <c r="L377" s="18">
+      <c r="L377" s="17">
         <v>432.34</v>
       </c>
-      <c r="M377" s="18">
+      <c r="M377" s="17">
         <v>436.85</v>
       </c>
-      <c r="N377" s="18">
+      <c r="N377" s="17">
         <v>383.18</v>
       </c>
-      <c r="O377" s="18">
+      <c r="O377" s="17">
         <v>383.84</v>
       </c>
-      <c r="P377" s="18">
+      <c r="P377" s="17">
         <v>345.94</v>
       </c>
-      <c r="Q377" s="18">
+      <c r="Q377" s="17">
         <v>348.71</v>
       </c>
-      <c r="R377" s="16">
+      <c r="R377" s="15">
         <v>374.55</v>
       </c>
-      <c r="S377" s="18">
+      <c r="S377" s="17">
         <v>375.9</v>
       </c>
-      <c r="T377" s="18">
+      <c r="T377" s="17">
         <v>366.26</v>
       </c>
-      <c r="U377" s="18">
+      <c r="U377" s="17">
         <v>367.89</v>
       </c>
     </row>
-    <row r="378" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A378" s="25">
+    <row r="378" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A378" s="24">
         <v>44562</v>
       </c>
-      <c r="B378" s="18">
+      <c r="B378" s="17">
         <v>294.66000000000003</v>
       </c>
-      <c r="C378" s="18">
+      <c r="C378" s="17">
         <v>298.36</v>
       </c>
-      <c r="D378" s="18">
+      <c r="D378" s="17">
         <v>346.15</v>
       </c>
-      <c r="E378" s="18">
+      <c r="E378" s="17">
         <v>346.46</v>
       </c>
-      <c r="F378" s="18">
+      <c r="F378" s="17">
         <v>318.33999999999997</v>
       </c>
-      <c r="G378" s="18">
+      <c r="G378" s="17">
         <v>319.20999999999998</v>
       </c>
-      <c r="H378" s="18">
+      <c r="H378" s="17">
         <v>548.35</v>
       </c>
-      <c r="I378" s="18">
+      <c r="I378" s="17">
         <v>554.42999999999995</v>
       </c>
-      <c r="J378" s="18">
+      <c r="J378" s="17">
         <v>348.34</v>
       </c>
-      <c r="K378" s="18">
+      <c r="K378" s="17">
         <v>349.7</v>
       </c>
-      <c r="L378" s="18">
+      <c r="L378" s="17">
         <v>440.11</v>
       </c>
-      <c r="M378" s="18">
+      <c r="M378" s="17">
         <v>443.44</v>
       </c>
-      <c r="N378" s="18">
+      <c r="N378" s="17">
         <v>389.57</v>
       </c>
-      <c r="O378" s="18">
+      <c r="O378" s="17">
         <v>390.47</v>
       </c>
-      <c r="P378" s="18">
+      <c r="P378" s="17">
         <v>347.79</v>
       </c>
-      <c r="Q378" s="18">
+      <c r="Q378" s="17">
         <v>352.05</v>
       </c>
-      <c r="R378" s="16">
+      <c r="R378" s="15">
         <v>379.35</v>
       </c>
-      <c r="S378" s="18">
+      <c r="S378" s="17">
         <v>381.33</v>
       </c>
-      <c r="T378" s="18">
+      <c r="T378" s="17">
         <v>370.96</v>
       </c>
-      <c r="U378" s="18">
+      <c r="U378" s="17">
         <v>373.11</v>
       </c>
     </row>
-    <row r="379" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A379" s="25">
+    <row r="379" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A379" s="24">
         <v>44593</v>
       </c>
-      <c r="B379" s="18">
+      <c r="B379" s="17">
         <v>300.39999999999998</v>
       </c>
-      <c r="C379" s="18">
+      <c r="C379" s="17">
         <v>301.86</v>
       </c>
-      <c r="D379" s="18">
+      <c r="D379" s="17">
         <v>352.22</v>
       </c>
-      <c r="E379" s="18">
+      <c r="E379" s="17">
         <v>351.9</v>
       </c>
-      <c r="F379" s="18">
+      <c r="F379" s="17">
         <v>323.76</v>
       </c>
-      <c r="G379" s="18">
+      <c r="G379" s="17">
         <v>325.02</v>
       </c>
-      <c r="H379" s="18">
+      <c r="H379" s="17">
         <v>565.05999999999995</v>
       </c>
-      <c r="I379" s="18">
+      <c r="I379" s="17">
         <v>566.12</v>
       </c>
-      <c r="J379" s="18">
+      <c r="J379" s="17">
         <v>354.64</v>
       </c>
-      <c r="K379" s="18">
+      <c r="K379" s="17">
         <v>357.76</v>
       </c>
-      <c r="L379" s="18">
+      <c r="L379" s="17">
         <v>449.93</v>
       </c>
-      <c r="M379" s="18">
+      <c r="M379" s="17">
         <v>449.54</v>
       </c>
-      <c r="N379" s="18">
+      <c r="N379" s="17">
         <v>401.51</v>
       </c>
-      <c r="O379" s="18">
+      <c r="O379" s="17">
         <v>400.48</v>
       </c>
-      <c r="P379" s="18">
+      <c r="P379" s="17">
         <v>356.67</v>
       </c>
-      <c r="Q379" s="18">
+      <c r="Q379" s="17">
         <v>358.27</v>
       </c>
-      <c r="R379" s="16">
+      <c r="R379" s="15">
         <v>385.97</v>
       </c>
-      <c r="S379" s="18">
+      <c r="S379" s="17">
         <v>386.19</v>
       </c>
-      <c r="T379" s="18">
+      <c r="T379" s="17">
         <v>379.4</v>
       </c>
-      <c r="U379" s="18">
+      <c r="U379" s="17">
         <v>379.66</v>
       </c>
     </row>
-    <row r="380" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A380" s="25">
+    <row r="380" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A380" s="24">
         <v>44621</v>
       </c>
-      <c r="B380" s="18">
+      <c r="B380" s="17">
         <v>307.11</v>
       </c>
-      <c r="C380" s="18">
+      <c r="C380" s="17">
         <v>305.99</v>
       </c>
-      <c r="D380" s="18">
+      <c r="D380" s="17">
         <v>359.95</v>
       </c>
-      <c r="E380" s="18">
+      <c r="E380" s="17">
         <v>357.95</v>
       </c>
-      <c r="F380" s="18">
+      <c r="F380" s="17">
         <v>329.34</v>
       </c>
-      <c r="G380" s="18">
+      <c r="G380" s="17">
         <v>328.71</v>
       </c>
-      <c r="H380" s="18">
+      <c r="H380" s="17">
         <v>582.38</v>
       </c>
-      <c r="I380" s="18">
+      <c r="I380" s="17">
         <v>578.30999999999995</v>
       </c>
-      <c r="J380" s="18">
+      <c r="J380" s="17">
         <v>365.68</v>
       </c>
-      <c r="K380" s="18">
+      <c r="K380" s="17">
         <v>363.31</v>
       </c>
-      <c r="L380" s="18">
+      <c r="L380" s="17">
         <v>459.29</v>
       </c>
-      <c r="M380" s="18">
+      <c r="M380" s="17">
         <v>455.03</v>
       </c>
-      <c r="N380" s="18">
+      <c r="N380" s="17">
         <v>410.32</v>
       </c>
-      <c r="O380" s="18">
+      <c r="O380" s="17">
         <v>406.26</v>
       </c>
-      <c r="P380" s="18">
+      <c r="P380" s="17">
         <v>362.45</v>
       </c>
-      <c r="Q380" s="18">
+      <c r="Q380" s="17">
         <v>360.18</v>
       </c>
-      <c r="R380" s="16">
+      <c r="R380" s="15">
         <v>391.86</v>
       </c>
-      <c r="S380" s="18">
+      <c r="S380" s="17">
         <v>389.82</v>
       </c>
-      <c r="T380" s="18">
+      <c r="T380" s="17">
         <v>387.43</v>
       </c>
-      <c r="U380" s="18">
+      <c r="U380" s="17">
         <v>384.64</v>
       </c>
     </row>
-    <row r="381" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A381" s="25">
+    <row r="381" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A381" s="24">
         <v>44652</v>
       </c>
-      <c r="B381" s="18">
+      <c r="B381" s="17">
         <v>313.58</v>
       </c>
-      <c r="C381" s="18">
+      <c r="C381" s="17">
         <v>309.43</v>
       </c>
-      <c r="D381" s="18">
+      <c r="D381" s="17">
         <v>363.74</v>
       </c>
-      <c r="E381" s="18">
+      <c r="E381" s="17">
         <v>360.35</v>
       </c>
-      <c r="F381" s="18">
+      <c r="F381" s="17">
         <v>335.87</v>
       </c>
-      <c r="G381" s="18">
+      <c r="G381" s="17">
         <v>332.01</v>
       </c>
-      <c r="H381" s="18">
+      <c r="H381" s="17">
         <v>595.23</v>
       </c>
-      <c r="I381" s="18">
+      <c r="I381" s="17">
         <v>585.53</v>
       </c>
-      <c r="J381" s="18">
+      <c r="J381" s="17">
         <v>376.02</v>
       </c>
-      <c r="K381" s="18">
+      <c r="K381" s="17">
         <v>370.77</v>
       </c>
-      <c r="L381" s="18">
+      <c r="L381" s="17">
         <v>466.61</v>
       </c>
-      <c r="M381" s="18">
+      <c r="M381" s="17">
         <v>459.41</v>
       </c>
-      <c r="N381" s="18">
+      <c r="N381" s="17">
         <v>419.76</v>
       </c>
-      <c r="O381" s="18">
+      <c r="O381" s="17">
         <v>414.09</v>
       </c>
-      <c r="P381" s="18">
+      <c r="P381" s="17">
         <v>372.56</v>
       </c>
-      <c r="Q381" s="18">
+      <c r="Q381" s="17">
         <v>367.37</v>
       </c>
-      <c r="R381" s="16">
+      <c r="R381" s="15">
         <v>403.52</v>
       </c>
-      <c r="S381" s="18">
+      <c r="S381" s="17">
         <v>399.06</v>
       </c>
-      <c r="T381" s="18">
+      <c r="T381" s="17">
         <v>395.93</v>
       </c>
-      <c r="U381" s="18">
+      <c r="U381" s="17">
         <v>390.4</v>
       </c>
     </row>
-    <row r="382" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A382" s="25">
+    <row r="382" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A382" s="24">
         <v>44682</v>
       </c>
-      <c r="B382" s="18">
+      <c r="B382" s="17">
         <v>320.02</v>
       </c>
-      <c r="C382" s="18">
+      <c r="C382" s="17">
         <v>313.81</v>
       </c>
-      <c r="D382" s="18">
+      <c r="D382" s="17">
         <v>370.96</v>
       </c>
-      <c r="E382" s="18">
+      <c r="E382" s="17">
         <v>365.57</v>
       </c>
-      <c r="F382" s="18">
+      <c r="F382" s="17">
         <v>341.78</v>
       </c>
-      <c r="G382" s="18">
+      <c r="G382" s="17">
         <v>335.25</v>
       </c>
-      <c r="H382" s="18">
+      <c r="H382" s="17">
         <v>602.37</v>
       </c>
-      <c r="I382" s="18">
+      <c r="I382" s="17">
         <v>591.88</v>
       </c>
-      <c r="J382" s="18">
+      <c r="J382" s="17">
         <v>382.13</v>
       </c>
-      <c r="K382" s="18">
+      <c r="K382" s="17">
         <v>374.83</v>
       </c>
-      <c r="L382" s="18">
+      <c r="L382" s="17">
         <v>467.89</v>
       </c>
-      <c r="M382" s="18">
+      <c r="M382" s="17">
         <v>460.17</v>
       </c>
-      <c r="N382" s="18">
+      <c r="N382" s="17">
         <v>428.62</v>
       </c>
-      <c r="O382" s="18">
+      <c r="O382" s="17">
         <v>420.56</v>
       </c>
-      <c r="P382" s="18">
+      <c r="P382" s="17">
         <v>378.62</v>
       </c>
-      <c r="Q382" s="18">
+      <c r="Q382" s="17">
         <v>370.51</v>
       </c>
-      <c r="R382" s="16">
+      <c r="R382" s="15">
         <v>411.68</v>
       </c>
-      <c r="S382" s="18">
+      <c r="S382" s="17">
         <v>405.77</v>
       </c>
-      <c r="T382" s="18">
+      <c r="T382" s="17">
         <v>402.5</v>
       </c>
-      <c r="U382" s="18">
+      <c r="U382" s="17">
         <v>395.01</v>
       </c>
     </row>
-    <row r="383" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A383" s="25">
+    <row r="383" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A383" s="24">
         <v>44713</v>
       </c>
-      <c r="B383" s="18">
+      <c r="B383" s="17">
         <v>320.91000000000003</v>
       </c>
-      <c r="C383" s="18">
+      <c r="C383" s="17">
         <v>312.76</v>
       </c>
-      <c r="D383" s="18">
+      <c r="D383" s="17">
         <v>375.61</v>
       </c>
-      <c r="E383" s="18">
+      <c r="E383" s="17">
         <v>369.79</v>
       </c>
-      <c r="F383" s="18">
+      <c r="F383" s="17">
         <v>345.15</v>
       </c>
-      <c r="G383" s="18">
+      <c r="G383" s="17">
         <v>339.51</v>
       </c>
-      <c r="H383" s="18">
+      <c r="H383" s="17">
         <v>597.58000000000004</v>
       </c>
-      <c r="I383" s="18">
+      <c r="I383" s="17">
         <v>588.33000000000004</v>
       </c>
-      <c r="J383" s="18">
+      <c r="J383" s="17">
         <v>380.51</v>
       </c>
-      <c r="K383" s="18">
+      <c r="K383" s="17">
         <v>372.73</v>
       </c>
-      <c r="L383" s="18">
+      <c r="L383" s="17">
         <v>464.4</v>
       </c>
-      <c r="M383" s="18">
+      <c r="M383" s="17">
         <v>457.98</v>
       </c>
-      <c r="N383" s="18">
+      <c r="N383" s="17">
         <v>431.92</v>
       </c>
-      <c r="O383" s="18">
+      <c r="O383" s="17">
         <v>424.84</v>
       </c>
-      <c r="P383" s="18">
+      <c r="P383" s="17">
         <v>377.78</v>
       </c>
-      <c r="Q383" s="18">
+      <c r="Q383" s="17">
         <v>369.03</v>
       </c>
-      <c r="R383" s="16">
+      <c r="R383" s="15">
         <v>414.48</v>
       </c>
-      <c r="S383" s="18">
+      <c r="S383" s="17">
         <v>405.74</v>
       </c>
-      <c r="T383" s="18">
+      <c r="T383" s="17">
         <v>403.6</v>
       </c>
-      <c r="U383" s="18">
+      <c r="U383" s="17">
         <v>395.75</v>
       </c>
     </row>
-    <row r="384" spans="1:256" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A384" s="25">
+    <row r="384" spans="1:256" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A384" s="24">
         <v>44743</v>
       </c>
-      <c r="B384" s="18">
+      <c r="B384" s="17">
         <v>319.83999999999997</v>
       </c>
-      <c r="C384" s="18">
+      <c r="C384" s="17">
         <v>312.76</v>
       </c>
-      <c r="D384" s="18">
+      <c r="D384" s="17">
         <v>376.98</v>
       </c>
-      <c r="E384" s="18">
+      <c r="E384" s="17">
         <v>369.34</v>
       </c>
-      <c r="F384" s="18">
+      <c r="F384" s="17">
         <v>343.34</v>
       </c>
-      <c r="G384" s="18">
+      <c r="G384" s="17">
         <v>337.43</v>
       </c>
-      <c r="H384" s="18">
+      <c r="H384" s="17">
         <v>592.66999999999996</v>
       </c>
-      <c r="I384" s="18">
+      <c r="I384" s="17">
         <v>582.97</v>
       </c>
-      <c r="J384" s="18">
+      <c r="J384" s="17">
         <v>377.66</v>
       </c>
-      <c r="K384" s="18">
+      <c r="K384" s="17">
         <v>369.71</v>
       </c>
-      <c r="L384" s="18">
+      <c r="L384" s="17">
         <v>456.02</v>
       </c>
-      <c r="M384" s="18">
+      <c r="M384" s="17">
         <v>451.93</v>
       </c>
-      <c r="N384" s="18">
+      <c r="N384" s="17">
         <v>429.56</v>
       </c>
-      <c r="O384" s="18">
+      <c r="O384" s="17">
         <v>423.04</v>
       </c>
-      <c r="P384" s="18">
+      <c r="P384" s="17">
         <v>377.47</v>
       </c>
-      <c r="Q384" s="18">
+      <c r="Q384" s="17">
         <v>369.35</v>
       </c>
-      <c r="R384" s="16">
+      <c r="R384" s="15">
         <v>410.45</v>
       </c>
-      <c r="S384" s="18">
+      <c r="S384" s="17">
         <v>404.52</v>
       </c>
-      <c r="T384" s="18">
+      <c r="T384" s="17">
         <v>400.9</v>
       </c>
-      <c r="U384" s="18">
+      <c r="U384" s="17">
         <v>393.86</v>
       </c>
     </row>
-    <row r="385" spans="1:21" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A385" s="25">
+    <row r="385" spans="1:21" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A385" s="24">
         <v>44774</v>
       </c>
-      <c r="B385" s="18">
+      <c r="B385" s="17">
         <v>316.92</v>
       </c>
-      <c r="C385" s="18">
+      <c r="C385" s="17">
         <v>312.01</v>
       </c>
-      <c r="D385" s="18">
+      <c r="D385" s="17">
         <v>373.14</v>
       </c>
-      <c r="E385" s="18">
+      <c r="E385" s="17">
         <v>368.25</v>
       </c>
-      <c r="F385" s="18">
+      <c r="F385" s="17">
         <v>338.83</v>
       </c>
-      <c r="G385" s="18">
+      <c r="G385" s="17">
         <v>335.12</v>
       </c>
-      <c r="H385" s="18">
+      <c r="H385" s="17">
         <v>578.12</v>
       </c>
-      <c r="I385" s="18">
+      <c r="I385" s="17">
         <v>573.80999999999995</v>
       </c>
-      <c r="J385" s="18">
+      <c r="J385" s="17">
         <v>376.74</v>
       </c>
-      <c r="K385" s="18">
+      <c r="K385" s="17">
         <v>370.51</v>
       </c>
-      <c r="L385" s="18">
+      <c r="L385" s="17">
         <v>450.72</v>
       </c>
-      <c r="M385" s="18">
+      <c r="M385" s="17">
         <v>447.83</v>
       </c>
-      <c r="N385" s="18">
+      <c r="N385" s="17">
         <v>426.56</v>
       </c>
-      <c r="O385" s="18">
+      <c r="O385" s="17">
         <v>420.27</v>
       </c>
-      <c r="P385" s="18">
+      <c r="P385" s="17">
         <v>375.05</v>
       </c>
-      <c r="Q385" s="18">
+      <c r="Q385" s="17">
         <v>369.29</v>
       </c>
-      <c r="R385" s="16">
+      <c r="R385" s="15">
         <v>408.04</v>
       </c>
-      <c r="S385" s="18">
+      <c r="S385" s="17">
         <v>403.84</v>
       </c>
-      <c r="T385" s="18">
+      <c r="T385" s="17">
         <v>396.96</v>
       </c>
-      <c r="U385" s="18">
+      <c r="U385" s="17">
         <v>391.81</v>
       </c>
     </row>
-    <row r="386" spans="1:21" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A386" s="25">
+    <row r="386" spans="1:21" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A386" s="24">
         <v>44805</v>
       </c>
-      <c r="B386" s="18">
+      <c r="B386" s="17">
         <v>318.02999999999997</v>
       </c>
-      <c r="C386" s="18">
+      <c r="C386" s="17">
         <v>313.2</v>
       </c>
-      <c r="D386" s="18">
+      <c r="D386" s="17">
         <v>376.92</v>
       </c>
-      <c r="E386" s="18">
+      <c r="E386" s="17">
         <v>373.76</v>
       </c>
-      <c r="F386" s="18">
+      <c r="F386" s="17">
         <v>339.58</v>
       </c>
-      <c r="G386" s="18">
+      <c r="G386" s="17">
         <v>336.34</v>
       </c>
-      <c r="H386" s="18">
+      <c r="H386" s="17">
         <v>574.47</v>
       </c>
-      <c r="I386" s="18">
+      <c r="I386" s="17">
         <v>570.97</v>
       </c>
-      <c r="J386" s="18">
+      <c r="J386" s="17">
         <v>372.17</v>
       </c>
-      <c r="K386" s="18">
+      <c r="K386" s="17">
         <v>367.64</v>
       </c>
-      <c r="L386" s="18">
+      <c r="L386" s="17">
         <v>449.75</v>
       </c>
-      <c r="M386" s="18">
+      <c r="M386" s="17">
         <v>448.27</v>
       </c>
-      <c r="N386" s="18">
+      <c r="N386" s="17">
         <v>426.34</v>
       </c>
-      <c r="O386" s="18">
+      <c r="O386" s="17">
         <v>422.36</v>
       </c>
-      <c r="P386" s="18">
+      <c r="P386" s="17">
         <v>374.66</v>
       </c>
-      <c r="Q386" s="18">
+      <c r="Q386" s="17">
         <v>370.23</v>
       </c>
-      <c r="R386" s="16">
+      <c r="R386" s="15">
         <v>407.04</v>
       </c>
-      <c r="S386" s="18">
+      <c r="S386" s="17">
         <v>402.96</v>
       </c>
-      <c r="T386" s="18">
+      <c r="T386" s="17">
         <v>396.83</v>
       </c>
-      <c r="U386" s="18">
+      <c r="U386" s="17">
         <v>392.72</v>
       </c>
     </row>
-    <row r="387" spans="1:21" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A387" s="25">
+    <row r="387" spans="1:21" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A387" s="24">
         <v>44835</v>
       </c>
-      <c r="B387" s="23">
+      <c r="B387" s="22">
         <v>315</v>
       </c>
-      <c r="C387" s="23">
+      <c r="C387" s="22">
         <v>312.81</v>
       </c>
-      <c r="D387" s="23">
+      <c r="D387" s="22">
         <v>374.28</v>
       </c>
-      <c r="E387" s="23">
+      <c r="E387" s="22">
         <v>371.33</v>
       </c>
-      <c r="F387" s="23">
+      <c r="F387" s="22">
         <v>338.94</v>
       </c>
-      <c r="G387" s="23">
+      <c r="G387" s="22">
         <v>336.61</v>
       </c>
-      <c r="H387" s="23">
+      <c r="H387" s="22">
         <v>573.5</v>
       </c>
-      <c r="I387" s="23">
+      <c r="I387" s="22">
         <v>572.34</v>
       </c>
-      <c r="J387" s="23">
+      <c r="J387" s="22">
         <v>374.71</v>
       </c>
-      <c r="K387" s="23">
+      <c r="K387" s="22">
         <v>372.35</v>
       </c>
-      <c r="L387" s="23">
+      <c r="L387" s="22">
         <v>445.94</v>
       </c>
-      <c r="M387" s="23">
+      <c r="M387" s="22">
         <v>445.67</v>
       </c>
-      <c r="N387" s="23">
+      <c r="N387" s="22">
         <v>426.41</v>
       </c>
-      <c r="O387" s="23">
+      <c r="O387" s="22">
         <v>423.42</v>
       </c>
-      <c r="P387" s="23">
+      <c r="P387" s="22">
         <v>372.51</v>
       </c>
-      <c r="Q387" s="23">
+      <c r="Q387" s="22">
         <v>369.67</v>
       </c>
-      <c r="R387" s="17">
+      <c r="R387" s="16">
         <v>406.98</v>
       </c>
-      <c r="S387" s="23">
+      <c r="S387" s="22">
         <v>405.11</v>
       </c>
-      <c r="T387" s="23">
+      <c r="T387" s="22">
         <v>395.38</v>
       </c>
-      <c r="U387" s="23">
+      <c r="U387" s="22">
         <v>392.9</v>
       </c>
     </row>
-    <row r="388" spans="1:21" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A388" s="25">
+    <row r="388" spans="1:21" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A388" s="24">
         <v>44866</v>
       </c>
-      <c r="B388" s="18">
+      <c r="B388" s="17">
         <v>313.75</v>
       </c>
-      <c r="C388" s="18">
+      <c r="C388" s="17">
         <v>313.76</v>
       </c>
-      <c r="D388" s="18">
+      <c r="D388" s="17">
         <v>370.6</v>
       </c>
-      <c r="E388" s="18">
+      <c r="E388" s="17">
         <v>369.46</v>
       </c>
-      <c r="F388" s="18">
+      <c r="F388" s="17">
         <v>340.58</v>
       </c>
-      <c r="G388" s="18">
+      <c r="G388" s="17">
         <v>338.49</v>
       </c>
-      <c r="H388" s="18">
+      <c r="H388" s="17">
         <v>565.19000000000005</v>
       </c>
-      <c r="I388" s="18">
+      <c r="I388" s="17">
         <v>566.72</v>
       </c>
-      <c r="J388" s="18">
+      <c r="J388" s="17">
         <v>369.18</v>
       </c>
-      <c r="K388" s="18">
+      <c r="K388" s="17">
         <v>368.75</v>
       </c>
-      <c r="L388" s="18">
+      <c r="L388" s="17">
         <v>437.89</v>
       </c>
-      <c r="M388" s="18">
+      <c r="M388" s="17">
         <v>439.7</v>
       </c>
-      <c r="N388" s="18">
+      <c r="N388" s="17">
         <v>425.87</v>
       </c>
-      <c r="O388" s="18">
+      <c r="O388" s="17">
         <v>424.15</v>
       </c>
-      <c r="P388" s="18">
+      <c r="P388" s="17">
         <v>370.41</v>
       </c>
-      <c r="Q388" s="18">
+      <c r="Q388" s="17">
         <v>371.43</v>
       </c>
-      <c r="R388" s="16">
+      <c r="R388" s="15">
         <v>405.83</v>
       </c>
-      <c r="S388" s="18">
+      <c r="S388" s="17">
         <v>406.4</v>
       </c>
-      <c r="T388" s="18">
+      <c r="T388" s="17">
         <v>392.93</v>
       </c>
-      <c r="U388" s="18">
+      <c r="U388" s="17">
         <v>392.43</v>
       </c>
     </row>
-    <row r="389" spans="1:21" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A389" s="25">
+    <row r="389" spans="1:21" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A389" s="24">
         <v>44896</v>
       </c>
-      <c r="B389" s="18">
+      <c r="B389" s="17">
         <v>311.74</v>
       </c>
-      <c r="C389" s="18">
+      <c r="C389" s="17">
         <v>314.49</v>
       </c>
-      <c r="D389" s="18">
+      <c r="D389" s="17">
         <v>372.98</v>
       </c>
-      <c r="E389" s="18">
+      <c r="E389" s="17">
         <v>372.81</v>
       </c>
-      <c r="F389" s="18">
+      <c r="F389" s="17">
         <v>335.37</v>
       </c>
-      <c r="G389" s="18">
+      <c r="G389" s="17">
         <v>335.9</v>
       </c>
-      <c r="H389" s="18">
+      <c r="H389" s="17">
         <v>559.95000000000005</v>
       </c>
-      <c r="I389" s="18">
+      <c r="I389" s="17">
         <v>564.78</v>
       </c>
-      <c r="J389" s="18">
+      <c r="J389" s="17">
         <v>366.26</v>
       </c>
-      <c r="K389" s="18">
+      <c r="K389" s="17">
         <v>367.74</v>
       </c>
-      <c r="L389" s="18">
+      <c r="L389" s="17">
         <v>434.97</v>
       </c>
-      <c r="M389" s="18">
+      <c r="M389" s="17">
         <v>439.54</v>
       </c>
-      <c r="N389" s="18">
+      <c r="N389" s="17">
         <v>423.99</v>
       </c>
-      <c r="O389" s="18">
+      <c r="O389" s="17">
         <v>424.71</v>
       </c>
-      <c r="P389" s="18">
+      <c r="P389" s="17">
         <v>367.73</v>
       </c>
-      <c r="Q389" s="18">
+      <c r="Q389" s="17">
         <v>370.8</v>
       </c>
-      <c r="R389" s="16">
+      <c r="R389" s="15">
         <v>402.08</v>
       </c>
-      <c r="S389" s="18">
+      <c r="S389" s="17">
         <v>403.62</v>
       </c>
-      <c r="T389" s="18">
+      <c r="T389" s="17">
         <v>390.27</v>
       </c>
-      <c r="U389" s="18">
+      <c r="U389" s="17">
         <v>392.05</v>
       </c>
     </row>
-    <row r="390" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A390" s="13"/>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-      <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
-      <c r="H390" s="2"/>
-      <c r="I390" s="2"/>
-      <c r="J390" s="2"/>
-      <c r="K390" s="2"/>
-      <c r="L390" s="2"/>
-      <c r="M390" s="2"/>
-      <c r="N390" s="2"/>
-      <c r="O390" s="2"/>
-      <c r="P390" s="2"/>
-      <c r="Q390" s="2"/>
-      <c r="R390" s="18"/>
-      <c r="S390" s="2"/>
-      <c r="T390" s="2"/>
-      <c r="U390" s="2"/>
-    </row>
-    <row r="391" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A391" s="13"/>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2"/>
-      <c r="F391" s="2"/>
-      <c r="G391" s="2"/>
-      <c r="H391" s="2"/>
-      <c r="I391" s="2"/>
-      <c r="J391" s="2"/>
-      <c r="K391" s="2"/>
-      <c r="L391" s="2"/>
-      <c r="M391" s="2"/>
-      <c r="N391" s="2"/>
-      <c r="O391" s="2"/>
-      <c r="P391" s="2"/>
-      <c r="Q391" s="2"/>
-      <c r="R391" s="18"/>
-      <c r="S391" s="2"/>
-      <c r="T391" s="2"/>
-      <c r="U391" s="2"/>
-    </row>
-    <row r="392" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A392" s="13"/>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-      <c r="E392" s="2"/>
-      <c r="F392" s="2"/>
-      <c r="G392" s="2"/>
-      <c r="H392" s="2"/>
-      <c r="I392" s="2"/>
-      <c r="J392" s="2"/>
-      <c r="K392" s="2"/>
-      <c r="L392" s="2"/>
-      <c r="M392" s="2"/>
-      <c r="N392" s="2"/>
-      <c r="O392" s="2"/>
-      <c r="P392" s="2"/>
-      <c r="Q392" s="2"/>
-      <c r="R392" s="18"/>
-      <c r="S392" s="2"/>
-      <c r="T392" s="2"/>
-      <c r="U392" s="2"/>
+    <row r="390" spans="1:21" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A390" s="24"/>
+      <c r="B390" s="17"/>
+      <c r="C390" s="17"/>
+      <c r="D390" s="17"/>
+      <c r="E390" s="17"/>
+      <c r="F390" s="17"/>
+      <c r="G390" s="17"/>
+      <c r="H390" s="17"/>
+      <c r="I390" s="17"/>
+      <c r="J390" s="17"/>
+      <c r="K390" s="17"/>
+      <c r="L390" s="17"/>
+      <c r="M390" s="17"/>
+      <c r="N390" s="17"/>
+      <c r="O390" s="17"/>
+      <c r="P390" s="17"/>
+      <c r="Q390" s="17"/>
+      <c r="R390" s="29"/>
+      <c r="S390" s="17"/>
+      <c r="T390" s="17"/>
+      <c r="U390" s="17"/>
+    </row>
+    <row r="391" spans="1:21" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A391" s="24"/>
+      <c r="B391" s="17"/>
+      <c r="C391" s="17"/>
+      <c r="D391" s="17"/>
+      <c r="E391" s="17"/>
+      <c r="F391" s="17"/>
+      <c r="G391" s="17"/>
+      <c r="H391" s="17"/>
+      <c r="I391" s="17"/>
+      <c r="J391" s="17"/>
+      <c r="K391" s="17"/>
+      <c r="L391" s="17"/>
+      <c r="M391" s="17"/>
+      <c r="N391" s="17"/>
+      <c r="O391" s="17"/>
+      <c r="P391" s="17"/>
+      <c r="Q391" s="17"/>
+      <c r="R391" s="30"/>
+      <c r="S391" s="17"/>
+      <c r="T391" s="17"/>
+      <c r="U391" s="17"/>
+    </row>
+    <row r="392" spans="1:21" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A392" s="24"/>
+      <c r="B392" s="17"/>
+      <c r="C392" s="17"/>
+      <c r="D392" s="17"/>
+      <c r="E392" s="17"/>
+      <c r="F392" s="17"/>
+      <c r="G392" s="17"/>
+      <c r="H392" s="17"/>
+      <c r="I392" s="17"/>
+      <c r="J392" s="17"/>
+      <c r="K392" s="17"/>
+      <c r="L392" s="17"/>
+      <c r="M392" s="17"/>
+      <c r="N392" s="17"/>
+      <c r="O392" s="17"/>
+      <c r="P392" s="17"/>
+      <c r="Q392" s="17"/>
+      <c r="R392" s="31"/>
+      <c r="S392" s="17"/>
+      <c r="T392" s="17"/>
+      <c r="U392" s="17"/>
     </row>
     <row r="393" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
@@ -27102,7 +27148,7 @@
       <c r="O393" s="2"/>
       <c r="P393" s="2"/>
       <c r="Q393" s="2"/>
-      <c r="R393" s="18"/>
+      <c r="R393" s="17"/>
       <c r="S393" s="2"/>
       <c r="T393" s="2"/>
       <c r="U393" s="2"/>
@@ -27125,7 +27171,7 @@
       <c r="O394" s="2"/>
       <c r="P394" s="2"/>
       <c r="Q394" s="2"/>
-      <c r="R394" s="18"/>
+      <c r="R394" s="17"/>
       <c r="S394" s="2"/>
       <c r="T394" s="2"/>
       <c r="U394" s="2"/>
@@ -27148,7 +27194,7 @@
       <c r="O395" s="2"/>
       <c r="P395" s="2"/>
       <c r="Q395" s="2"/>
-      <c r="R395" s="18"/>
+      <c r="R395" s="17"/>
       <c r="S395" s="2"/>
       <c r="T395" s="2"/>
       <c r="U395" s="2"/>
@@ -27171,7 +27217,7 @@
       <c r="O396" s="2"/>
       <c r="P396" s="2"/>
       <c r="Q396" s="2"/>
-      <c r="R396" s="18"/>
+      <c r="R396" s="17"/>
       <c r="S396" s="2"/>
       <c r="T396" s="2"/>
       <c r="U396" s="2"/>
@@ -27194,7 +27240,7 @@
       <c r="O397" s="2"/>
       <c r="P397" s="2"/>
       <c r="Q397" s="2"/>
-      <c r="R397" s="18"/>
+      <c r="R397" s="17"/>
       <c r="S397" s="2"/>
       <c r="T397" s="2"/>
       <c r="U397" s="2"/>
@@ -27217,7 +27263,7 @@
       <c r="O398" s="2"/>
       <c r="P398" s="2"/>
       <c r="Q398" s="2"/>
-      <c r="R398" s="18"/>
+      <c r="R398" s="17"/>
       <c r="S398" s="2"/>
       <c r="T398" s="2"/>
       <c r="U398" s="2"/>
@@ -27240,7 +27286,7 @@
       <c r="O399" s="2"/>
       <c r="P399" s="2"/>
       <c r="Q399" s="2"/>
-      <c r="R399" s="18"/>
+      <c r="R399" s="17"/>
       <c r="S399" s="2"/>
       <c r="T399" s="2"/>
       <c r="U399" s="2"/>
@@ -27263,7 +27309,7 @@
       <c r="O400" s="2"/>
       <c r="P400" s="2"/>
       <c r="Q400" s="2"/>
-      <c r="R400" s="18"/>
+      <c r="R400" s="17"/>
       <c r="S400" s="2"/>
       <c r="T400" s="2"/>
       <c r="U400" s="2"/>
@@ -27286,7 +27332,7 @@
       <c r="O401" s="2"/>
       <c r="P401" s="2"/>
       <c r="Q401" s="2"/>
-      <c r="R401" s="18"/>
+      <c r="R401" s="17"/>
       <c r="S401" s="2"/>
       <c r="T401" s="2"/>
       <c r="U401" s="2"/>
@@ -27309,7 +27355,7 @@
       <c r="O402" s="2"/>
       <c r="P402" s="2"/>
       <c r="Q402" s="2"/>
-      <c r="R402" s="18"/>
+      <c r="R402" s="17"/>
       <c r="S402" s="2"/>
       <c r="T402" s="2"/>
       <c r="U402" s="2"/>
@@ -27332,7 +27378,7 @@
       <c r="O403" s="2"/>
       <c r="P403" s="2"/>
       <c r="Q403" s="2"/>
-      <c r="R403" s="18"/>
+      <c r="R403" s="17"/>
       <c r="S403" s="2"/>
       <c r="T403" s="2"/>
       <c r="U403" s="2"/>
@@ -27355,7 +27401,7 @@
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
       <c r="Q404" s="2"/>
-      <c r="R404" s="18"/>
+      <c r="R404" s="17"/>
       <c r="S404" s="2"/>
       <c r="T404" s="2"/>
       <c r="U404" s="2"/>
@@ -27378,7 +27424,7 @@
       <c r="O405" s="2"/>
       <c r="P405" s="2"/>
       <c r="Q405" s="2"/>
-      <c r="R405" s="18"/>
+      <c r="R405" s="17"/>
       <c r="S405" s="2"/>
       <c r="T405" s="2"/>
       <c r="U405" s="2"/>
@@ -27401,7 +27447,7 @@
       <c r="O406" s="2"/>
       <c r="P406" s="2"/>
       <c r="Q406" s="2"/>
-      <c r="R406" s="18"/>
+      <c r="R406" s="17"/>
       <c r="S406" s="2"/>
       <c r="T406" s="2"/>
       <c r="U406" s="2"/>
@@ -27424,7 +27470,7 @@
       <c r="O407" s="2"/>
       <c r="P407" s="2"/>
       <c r="Q407" s="2"/>
-      <c r="R407" s="18"/>
+      <c r="R407" s="17"/>
       <c r="S407" s="2"/>
       <c r="T407" s="2"/>
       <c r="U407" s="2"/>
@@ -27447,7 +27493,7 @@
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
       <c r="Q408" s="2"/>
-      <c r="R408" s="18"/>
+      <c r="R408" s="17"/>
       <c r="S408" s="2"/>
       <c r="T408" s="2"/>
       <c r="U408" s="2"/>
@@ -27470,7 +27516,7 @@
       <c r="O409" s="2"/>
       <c r="P409" s="2"/>
       <c r="Q409" s="2"/>
-      <c r="R409" s="18"/>
+      <c r="R409" s="17"/>
       <c r="S409" s="2"/>
       <c r="T409" s="2"/>
       <c r="U409" s="2"/>
@@ -27493,7 +27539,7 @@
       <c r="O410" s="2"/>
       <c r="P410" s="2"/>
       <c r="Q410" s="2"/>
-      <c r="R410" s="18"/>
+      <c r="R410" s="17"/>
       <c r="S410" s="2"/>
       <c r="T410" s="2"/>
       <c r="U410" s="2"/>
@@ -27516,7 +27562,7 @@
       <c r="O411" s="2"/>
       <c r="P411" s="2"/>
       <c r="Q411" s="2"/>
-      <c r="R411" s="18"/>
+      <c r="R411" s="17"/>
       <c r="S411" s="2"/>
       <c r="T411" s="2"/>
       <c r="U411" s="2"/>
@@ -27539,7 +27585,7 @@
       <c r="O412" s="2"/>
       <c r="P412" s="2"/>
       <c r="Q412" s="2"/>
-      <c r="R412" s="18"/>
+      <c r="R412" s="17"/>
       <c r="S412" s="2"/>
       <c r="T412" s="2"/>
       <c r="U412" s="2"/>
@@ -27562,7 +27608,7 @@
       <c r="O413" s="2"/>
       <c r="P413" s="2"/>
       <c r="Q413" s="2"/>
-      <c r="R413" s="18"/>
+      <c r="R413" s="17"/>
       <c r="S413" s="2"/>
       <c r="T413" s="2"/>
       <c r="U413" s="2"/>
@@ -27585,7 +27631,7 @@
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
       <c r="Q414" s="2"/>
-      <c r="R414" s="18"/>
+      <c r="R414" s="17"/>
       <c r="S414" s="2"/>
       <c r="T414" s="2"/>
       <c r="U414" s="2"/>
@@ -27608,7 +27654,7 @@
       <c r="O415" s="2"/>
       <c r="P415" s="2"/>
       <c r="Q415" s="2"/>
-      <c r="R415" s="18"/>
+      <c r="R415" s="17"/>
       <c r="S415" s="2"/>
       <c r="T415" s="2"/>
       <c r="U415" s="2"/>
@@ -27631,7 +27677,7 @@
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
       <c r="Q416" s="2"/>
-      <c r="R416" s="18"/>
+      <c r="R416" s="17"/>
       <c r="S416" s="2"/>
       <c r="T416" s="2"/>
       <c r="U416" s="2"/>
@@ -27654,7 +27700,7 @@
       <c r="O417" s="2"/>
       <c r="P417" s="2"/>
       <c r="Q417" s="2"/>
-      <c r="R417" s="18"/>
+      <c r="R417" s="17"/>
       <c r="S417" s="2"/>
       <c r="T417" s="2"/>
       <c r="U417" s="2"/>
@@ -27677,7 +27723,7 @@
       <c r="O418" s="2"/>
       <c r="P418" s="2"/>
       <c r="Q418" s="2"/>
-      <c r="R418" s="18"/>
+      <c r="R418" s="17"/>
       <c r="S418" s="2"/>
       <c r="T418" s="2"/>
       <c r="U418" s="2"/>
@@ -27700,7 +27746,7 @@
       <c r="O419" s="2"/>
       <c r="P419" s="2"/>
       <c r="Q419" s="2"/>
-      <c r="R419" s="18"/>
+      <c r="R419" s="17"/>
       <c r="S419" s="2"/>
       <c r="T419" s="2"/>
       <c r="U419" s="2"/>
@@ -27723,7 +27769,7 @@
       <c r="O420" s="2"/>
       <c r="P420" s="2"/>
       <c r="Q420" s="2"/>
-      <c r="R420" s="18"/>
+      <c r="R420" s="17"/>
       <c r="S420" s="2"/>
       <c r="T420" s="2"/>
       <c r="U420" s="2"/>
@@ -27746,7 +27792,7 @@
       <c r="O421" s="2"/>
       <c r="P421" s="2"/>
       <c r="Q421" s="2"/>
-      <c r="R421" s="18"/>
+      <c r="R421" s="17"/>
       <c r="S421" s="2"/>
       <c r="T421" s="2"/>
       <c r="U421" s="2"/>
@@ -27769,7 +27815,7 @@
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
       <c r="Q422" s="2"/>
-      <c r="R422" s="18"/>
+      <c r="R422" s="17"/>
       <c r="S422" s="2"/>
       <c r="T422" s="2"/>
       <c r="U422" s="2"/>
@@ -27792,7 +27838,7 @@
       <c r="O423" s="2"/>
       <c r="P423" s="2"/>
       <c r="Q423" s="2"/>
-      <c r="R423" s="18"/>
+      <c r="R423" s="17"/>
       <c r="S423" s="2"/>
       <c r="T423" s="2"/>
       <c r="U423" s="2"/>
@@ -27815,7 +27861,7 @@
       <c r="O424" s="2"/>
       <c r="P424" s="2"/>
       <c r="Q424" s="2"/>
-      <c r="R424" s="18"/>
+      <c r="R424" s="17"/>
       <c r="S424" s="2"/>
       <c r="T424" s="2"/>
       <c r="U424" s="2"/>
@@ -27838,7 +27884,7 @@
       <c r="O425" s="2"/>
       <c r="P425" s="2"/>
       <c r="Q425" s="2"/>
-      <c r="R425" s="18"/>
+      <c r="R425" s="17"/>
       <c r="S425" s="2"/>
       <c r="T425" s="2"/>
       <c r="U425" s="2"/>
@@ -27861,7 +27907,7 @@
       <c r="O426" s="2"/>
       <c r="P426" s="2"/>
       <c r="Q426" s="2"/>
-      <c r="R426" s="18"/>
+      <c r="R426" s="17"/>
       <c r="S426" s="2"/>
       <c r="T426" s="2"/>
       <c r="U426" s="2"/>
@@ -27884,7 +27930,7 @@
       <c r="O427" s="2"/>
       <c r="P427" s="2"/>
       <c r="Q427" s="2"/>
-      <c r="R427" s="18"/>
+      <c r="R427" s="17"/>
       <c r="S427" s="2"/>
       <c r="T427" s="2"/>
       <c r="U427" s="2"/>
@@ -27907,7 +27953,7 @@
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
       <c r="Q428" s="2"/>
-      <c r="R428" s="18"/>
+      <c r="R428" s="17"/>
       <c r="S428" s="2"/>
       <c r="T428" s="2"/>
       <c r="U428" s="2"/>
@@ -27930,7 +27976,7 @@
       <c r="O429" s="2"/>
       <c r="P429" s="2"/>
       <c r="Q429" s="2"/>
-      <c r="R429" s="18"/>
+      <c r="R429" s="17"/>
       <c r="S429" s="2"/>
       <c r="T429" s="2"/>
       <c r="U429" s="2"/>
@@ -27953,7 +27999,7 @@
       <c r="O430" s="2"/>
       <c r="P430" s="2"/>
       <c r="Q430" s="2"/>
-      <c r="R430" s="18"/>
+      <c r="R430" s="17"/>
       <c r="S430" s="2"/>
       <c r="T430" s="2"/>
       <c r="U430" s="2"/>
@@ -27976,7 +28022,7 @@
       <c r="O431" s="2"/>
       <c r="P431" s="2"/>
       <c r="Q431" s="2"/>
-      <c r="R431" s="18"/>
+      <c r="R431" s="17"/>
       <c r="S431" s="2"/>
       <c r="T431" s="2"/>
       <c r="U431" s="2"/>
@@ -27999,7 +28045,7 @@
       <c r="O432" s="2"/>
       <c r="P432" s="2"/>
       <c r="Q432" s="2"/>
-      <c r="R432" s="18"/>
+      <c r="R432" s="17"/>
       <c r="S432" s="2"/>
       <c r="T432" s="2"/>
       <c r="U432" s="2"/>
@@ -28022,7 +28068,7 @@
       <c r="O433" s="2"/>
       <c r="P433" s="2"/>
       <c r="Q433" s="2"/>
-      <c r="R433" s="18"/>
+      <c r="R433" s="17"/>
       <c r="S433" s="2"/>
       <c r="T433" s="2"/>
       <c r="U433" s="2"/>
@@ -28045,7 +28091,7 @@
       <c r="O434" s="2"/>
       <c r="P434" s="2"/>
       <c r="Q434" s="2"/>
-      <c r="R434" s="18"/>
+      <c r="R434" s="17"/>
       <c r="S434" s="2"/>
       <c r="T434" s="2"/>
       <c r="U434" s="2"/>
@@ -28068,7 +28114,7 @@
       <c r="O435" s="2"/>
       <c r="P435" s="2"/>
       <c r="Q435" s="2"/>
-      <c r="R435" s="18"/>
+      <c r="R435" s="17"/>
       <c r="S435" s="2"/>
       <c r="T435" s="2"/>
       <c r="U435" s="2"/>
@@ -28091,7 +28137,7 @@
       <c r="O436" s="2"/>
       <c r="P436" s="2"/>
       <c r="Q436" s="2"/>
-      <c r="R436" s="18"/>
+      <c r="R436" s="17"/>
       <c r="S436" s="2"/>
       <c r="T436" s="2"/>
       <c r="U436" s="2"/>
@@ -28114,7 +28160,7 @@
       <c r="O437" s="2"/>
       <c r="P437" s="2"/>
       <c r="Q437" s="2"/>
-      <c r="R437" s="18"/>
+      <c r="R437" s="17"/>
       <c r="S437" s="2"/>
       <c r="T437" s="2"/>
       <c r="U437" s="2"/>
@@ -28137,7 +28183,7 @@
       <c r="O438" s="2"/>
       <c r="P438" s="2"/>
       <c r="Q438" s="2"/>
-      <c r="R438" s="18"/>
+      <c r="R438" s="17"/>
       <c r="S438" s="2"/>
       <c r="T438" s="2"/>
       <c r="U438" s="2"/>
@@ -28160,7 +28206,7 @@
       <c r="O439" s="2"/>
       <c r="P439" s="2"/>
       <c r="Q439" s="2"/>
-      <c r="R439" s="18"/>
+      <c r="R439" s="17"/>
       <c r="S439" s="2"/>
       <c r="T439" s="2"/>
       <c r="U439" s="2"/>
@@ -28183,7 +28229,7 @@
       <c r="O440" s="2"/>
       <c r="P440" s="2"/>
       <c r="Q440" s="2"/>
-      <c r="R440" s="18"/>
+      <c r="R440" s="17"/>
       <c r="S440" s="2"/>
       <c r="T440" s="2"/>
       <c r="U440" s="2"/>
@@ -28206,7 +28252,7 @@
       <c r="O441" s="2"/>
       <c r="P441" s="2"/>
       <c r="Q441" s="2"/>
-      <c r="R441" s="18"/>
+      <c r="R441" s="17"/>
       <c r="S441" s="2"/>
       <c r="T441" s="2"/>
       <c r="U441" s="2"/>
@@ -28229,7 +28275,7 @@
       <c r="O442" s="2"/>
       <c r="P442" s="2"/>
       <c r="Q442" s="2"/>
-      <c r="R442" s="18"/>
+      <c r="R442" s="17"/>
       <c r="S442" s="2"/>
       <c r="T442" s="2"/>
       <c r="U442" s="2"/>
@@ -28252,7 +28298,7 @@
       <c r="O443" s="2"/>
       <c r="P443" s="2"/>
       <c r="Q443" s="2"/>
-      <c r="R443" s="18"/>
+      <c r="R443" s="17"/>
       <c r="S443" s="2"/>
       <c r="T443" s="2"/>
       <c r="U443" s="2"/>
@@ -28275,7 +28321,7 @@
       <c r="O444" s="2"/>
       <c r="P444" s="2"/>
       <c r="Q444" s="2"/>
-      <c r="R444" s="18"/>
+      <c r="R444" s="17"/>
       <c r="S444" s="2"/>
       <c r="T444" s="2"/>
       <c r="U444" s="2"/>
@@ -28298,7 +28344,7 @@
       <c r="O445" s="2"/>
       <c r="P445" s="2"/>
       <c r="Q445" s="2"/>
-      <c r="R445" s="18"/>
+      <c r="R445" s="17"/>
       <c r="S445" s="2"/>
       <c r="T445" s="2"/>
       <c r="U445" s="2"/>
@@ -28321,7 +28367,7 @@
       <c r="O446" s="2"/>
       <c r="P446" s="2"/>
       <c r="Q446" s="2"/>
-      <c r="R446" s="18"/>
+      <c r="R446" s="17"/>
       <c r="S446" s="2"/>
       <c r="T446" s="2"/>
       <c r="U446" s="2"/>
@@ -28344,7 +28390,7 @@
       <c r="O447" s="2"/>
       <c r="P447" s="2"/>
       <c r="Q447" s="2"/>
-      <c r="R447" s="18"/>
+      <c r="R447" s="17"/>
       <c r="S447" s="2"/>
       <c r="T447" s="2"/>
       <c r="U447" s="2"/>
@@ -28367,7 +28413,7 @@
       <c r="O448" s="2"/>
       <c r="P448" s="2"/>
       <c r="Q448" s="2"/>
-      <c r="R448" s="18"/>
+      <c r="R448" s="17"/>
       <c r="S448" s="2"/>
       <c r="T448" s="2"/>
       <c r="U448" s="2"/>
@@ -28390,7 +28436,7 @@
       <c r="O449" s="2"/>
       <c r="P449" s="2"/>
       <c r="Q449" s="2"/>
-      <c r="R449" s="18"/>
+      <c r="R449" s="17"/>
       <c r="S449" s="2"/>
       <c r="T449" s="2"/>
       <c r="U449" s="2"/>
@@ -28413,7 +28459,7 @@
       <c r="O450" s="2"/>
       <c r="P450" s="2"/>
       <c r="Q450" s="2"/>
-      <c r="R450" s="18"/>
+      <c r="R450" s="17"/>
       <c r="S450" s="2"/>
       <c r="T450" s="2"/>
       <c r="U450" s="2"/>
@@ -28436,7 +28482,7 @@
       <c r="O451" s="2"/>
       <c r="P451" s="2"/>
       <c r="Q451" s="2"/>
-      <c r="R451" s="18"/>
+      <c r="R451" s="17"/>
       <c r="S451" s="2"/>
       <c r="T451" s="2"/>
       <c r="U451" s="2"/>
@@ -28459,7 +28505,7 @@
       <c r="O452" s="2"/>
       <c r="P452" s="2"/>
       <c r="Q452" s="2"/>
-      <c r="R452" s="18"/>
+      <c r="R452" s="17"/>
       <c r="S452" s="2"/>
       <c r="T452" s="2"/>
       <c r="U452" s="2"/>
@@ -28482,7 +28528,7 @@
       <c r="O453" s="2"/>
       <c r="P453" s="2"/>
       <c r="Q453" s="2"/>
-      <c r="R453" s="18"/>
+      <c r="R453" s="17"/>
       <c r="S453" s="2"/>
       <c r="T453" s="2"/>
       <c r="U453" s="2"/>
@@ -28505,7 +28551,7 @@
       <c r="O454" s="2"/>
       <c r="P454" s="2"/>
       <c r="Q454" s="2"/>
-      <c r="R454" s="18"/>
+      <c r="R454" s="17"/>
       <c r="S454" s="2"/>
       <c r="T454" s="2"/>
       <c r="U454" s="2"/>
@@ -28528,7 +28574,7 @@
       <c r="O455" s="2"/>
       <c r="P455" s="2"/>
       <c r="Q455" s="2"/>
-      <c r="R455" s="18"/>
+      <c r="R455" s="17"/>
       <c r="S455" s="2"/>
       <c r="T455" s="2"/>
       <c r="U455" s="2"/>
@@ -28551,7 +28597,7 @@
       <c r="O456" s="2"/>
       <c r="P456" s="2"/>
       <c r="Q456" s="2"/>
-      <c r="R456" s="18"/>
+      <c r="R456" s="17"/>
       <c r="S456" s="2"/>
       <c r="T456" s="2"/>
       <c r="U456" s="2"/>
@@ -28574,7 +28620,7 @@
       <c r="O457" s="2"/>
       <c r="P457" s="2"/>
       <c r="Q457" s="2"/>
-      <c r="R457" s="18"/>
+      <c r="R457" s="17"/>
       <c r="S457" s="2"/>
       <c r="T457" s="2"/>
       <c r="U457" s="2"/>
@@ -28597,7 +28643,7 @@
       <c r="O458" s="2"/>
       <c r="P458" s="2"/>
       <c r="Q458" s="2"/>
-      <c r="R458" s="18"/>
+      <c r="R458" s="17"/>
       <c r="S458" s="2"/>
       <c r="T458" s="2"/>
       <c r="U458" s="2"/>
@@ -28620,7 +28666,7 @@
       <c r="O459" s="2"/>
       <c r="P459" s="2"/>
       <c r="Q459" s="2"/>
-      <c r="R459" s="18"/>
+      <c r="R459" s="17"/>
       <c r="S459" s="2"/>
       <c r="T459" s="2"/>
       <c r="U459" s="2"/>
@@ -28643,7 +28689,7 @@
       <c r="O460" s="2"/>
       <c r="P460" s="2"/>
       <c r="Q460" s="2"/>
-      <c r="R460" s="18"/>
+      <c r="R460" s="17"/>
       <c r="S460" s="2"/>
       <c r="T460" s="2"/>
       <c r="U460" s="2"/>
@@ -28666,7 +28712,7 @@
       <c r="O461" s="2"/>
       <c r="P461" s="2"/>
       <c r="Q461" s="2"/>
-      <c r="R461" s="18"/>
+      <c r="R461" s="17"/>
       <c r="S461" s="2"/>
       <c r="T461" s="2"/>
       <c r="U461" s="2"/>
@@ -28689,7 +28735,7 @@
       <c r="O462" s="2"/>
       <c r="P462" s="2"/>
       <c r="Q462" s="2"/>
-      <c r="R462" s="18"/>
+      <c r="R462" s="17"/>
       <c r="S462" s="2"/>
       <c r="T462" s="2"/>
       <c r="U462" s="2"/>
@@ -28712,7 +28758,7 @@
       <c r="O463" s="2"/>
       <c r="P463" s="2"/>
       <c r="Q463" s="2"/>
-      <c r="R463" s="18"/>
+      <c r="R463" s="17"/>
       <c r="S463" s="2"/>
       <c r="T463" s="2"/>
       <c r="U463" s="2"/>
@@ -28735,7 +28781,7 @@
       <c r="O464" s="2"/>
       <c r="P464" s="2"/>
       <c r="Q464" s="2"/>
-      <c r="R464" s="18"/>
+      <c r="R464" s="17"/>
       <c r="S464" s="2"/>
       <c r="T464" s="2"/>
       <c r="U464" s="2"/>
@@ -28758,7 +28804,7 @@
       <c r="O465" s="2"/>
       <c r="P465" s="2"/>
       <c r="Q465" s="2"/>
-      <c r="R465" s="18"/>
+      <c r="R465" s="17"/>
       <c r="S465" s="2"/>
       <c r="T465" s="2"/>
       <c r="U465" s="2"/>
@@ -28781,7 +28827,7 @@
       <c r="O466" s="2"/>
       <c r="P466" s="2"/>
       <c r="Q466" s="2"/>
-      <c r="R466" s="18"/>
+      <c r="R466" s="17"/>
       <c r="S466" s="2"/>
       <c r="T466" s="2"/>
       <c r="U466" s="2"/>
@@ -28804,7 +28850,7 @@
       <c r="O467" s="2"/>
       <c r="P467" s="2"/>
       <c r="Q467" s="2"/>
-      <c r="R467" s="18"/>
+      <c r="R467" s="17"/>
       <c r="S467" s="2"/>
       <c r="T467" s="2"/>
       <c r="U467" s="2"/>
@@ -28827,7 +28873,7 @@
       <c r="O468" s="2"/>
       <c r="P468" s="2"/>
       <c r="Q468" s="2"/>
-      <c r="R468" s="18"/>
+      <c r="R468" s="17"/>
       <c r="S468" s="2"/>
       <c r="T468" s="2"/>
       <c r="U468" s="2"/>
@@ -28850,7 +28896,7 @@
       <c r="O469" s="2"/>
       <c r="P469" s="2"/>
       <c r="Q469" s="2"/>
-      <c r="R469" s="18"/>
+      <c r="R469" s="17"/>
       <c r="S469" s="2"/>
       <c r="T469" s="2"/>
       <c r="U469" s="2"/>
@@ -28873,7 +28919,7 @@
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
       <c r="Q470" s="2"/>
-      <c r="R470" s="18"/>
+      <c r="R470" s="17"/>
       <c r="S470" s="2"/>
       <c r="T470" s="2"/>
       <c r="U470" s="2"/>
@@ -28896,7 +28942,7 @@
       <c r="O471" s="2"/>
       <c r="P471" s="2"/>
       <c r="Q471" s="2"/>
-      <c r="R471" s="18"/>
+      <c r="R471" s="17"/>
       <c r="S471" s="2"/>
       <c r="T471" s="2"/>
       <c r="U471" s="2"/>
@@ -28919,7 +28965,7 @@
       <c r="O472" s="2"/>
       <c r="P472" s="2"/>
       <c r="Q472" s="2"/>
-      <c r="R472" s="18"/>
+      <c r="R472" s="17"/>
       <c r="S472" s="2"/>
       <c r="T472" s="2"/>
       <c r="U472" s="2"/>
@@ -28942,7 +28988,7 @@
       <c r="O473" s="2"/>
       <c r="P473" s="2"/>
       <c r="Q473" s="2"/>
-      <c r="R473" s="18"/>
+      <c r="R473" s="17"/>
       <c r="S473" s="2"/>
       <c r="T473" s="2"/>
       <c r="U473" s="2"/>
@@ -28965,7 +29011,7 @@
       <c r="O474" s="2"/>
       <c r="P474" s="2"/>
       <c r="Q474" s="2"/>
-      <c r="R474" s="18"/>
+      <c r="R474" s="17"/>
       <c r="S474" s="2"/>
       <c r="T474" s="2"/>
       <c r="U474" s="2"/>
@@ -28988,7 +29034,7 @@
       <c r="O475" s="2"/>
       <c r="P475" s="2"/>
       <c r="Q475" s="2"/>
-      <c r="R475" s="18"/>
+      <c r="R475" s="17"/>
       <c r="S475" s="2"/>
       <c r="T475" s="2"/>
       <c r="U475" s="2"/>
@@ -29011,7 +29057,7 @@
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
       <c r="Q476" s="2"/>
-      <c r="R476" s="18"/>
+      <c r="R476" s="17"/>
       <c r="S476" s="2"/>
       <c r="T476" s="2"/>
       <c r="U476" s="2"/>
@@ -29034,7 +29080,7 @@
       <c r="O477" s="2"/>
       <c r="P477" s="2"/>
       <c r="Q477" s="2"/>
-      <c r="R477" s="18"/>
+      <c r="R477" s="17"/>
       <c r="S477" s="2"/>
       <c r="T477" s="2"/>
       <c r="U477" s="2"/>
@@ -29057,7 +29103,7 @@
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
       <c r="Q478" s="2"/>
-      <c r="R478" s="18"/>
+      <c r="R478" s="17"/>
       <c r="S478" s="2"/>
       <c r="T478" s="2"/>
       <c r="U478" s="2"/>
@@ -29080,7 +29126,7 @@
       <c r="O479" s="2"/>
       <c r="P479" s="2"/>
       <c r="Q479" s="2"/>
-      <c r="R479" s="18"/>
+      <c r="R479" s="17"/>
       <c r="S479" s="2"/>
       <c r="T479" s="2"/>
       <c r="U479" s="2"/>
@@ -29103,7 +29149,7 @@
       <c r="O480" s="2"/>
       <c r="P480" s="2"/>
       <c r="Q480" s="2"/>
-      <c r="R480" s="18"/>
+      <c r="R480" s="17"/>
       <c r="S480" s="2"/>
       <c r="T480" s="2"/>
       <c r="U480" s="2"/>
@@ -29126,7 +29172,7 @@
       <c r="O481" s="2"/>
       <c r="P481" s="2"/>
       <c r="Q481" s="2"/>
-      <c r="R481" s="18"/>
+      <c r="R481" s="17"/>
       <c r="S481" s="2"/>
       <c r="T481" s="2"/>
       <c r="U481" s="2"/>
@@ -29149,7 +29195,7 @@
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
       <c r="Q482" s="2"/>
-      <c r="R482" s="18"/>
+      <c r="R482" s="17"/>
       <c r="S482" s="2"/>
       <c r="T482" s="2"/>
       <c r="U482" s="2"/>
@@ -29172,7 +29218,7 @@
       <c r="O483" s="2"/>
       <c r="P483" s="2"/>
       <c r="Q483" s="2"/>
-      <c r="R483" s="18"/>
+      <c r="R483" s="17"/>
       <c r="S483" s="2"/>
       <c r="T483" s="2"/>
       <c r="U483" s="2"/>
@@ -29195,7 +29241,7 @@
       <c r="O484" s="2"/>
       <c r="P484" s="2"/>
       <c r="Q484" s="2"/>
-      <c r="R484" s="18"/>
+      <c r="R484" s="17"/>
       <c r="S484" s="2"/>
       <c r="T484" s="2"/>
       <c r="U484" s="2"/>
@@ -29218,7 +29264,7 @@
       <c r="O485" s="2"/>
       <c r="P485" s="2"/>
       <c r="Q485" s="2"/>
-      <c r="R485" s="18"/>
+      <c r="R485" s="17"/>
       <c r="S485" s="2"/>
       <c r="T485" s="2"/>
       <c r="U485" s="2"/>
@@ -29241,7 +29287,7 @@
       <c r="O486" s="2"/>
       <c r="P486" s="2"/>
       <c r="Q486" s="2"/>
-      <c r="R486" s="18"/>
+      <c r="R486" s="17"/>
       <c r="S486" s="2"/>
       <c r="T486" s="2"/>
       <c r="U486" s="2"/>
@@ -29264,7 +29310,7 @@
       <c r="O487" s="2"/>
       <c r="P487" s="2"/>
       <c r="Q487" s="2"/>
-      <c r="R487" s="18"/>
+      <c r="R487" s="17"/>
       <c r="S487" s="2"/>
       <c r="T487" s="2"/>
       <c r="U487" s="2"/>
@@ -29287,7 +29333,7 @@
       <c r="O488" s="2"/>
       <c r="P488" s="2"/>
       <c r="Q488" s="2"/>
-      <c r="R488" s="18"/>
+      <c r="R488" s="17"/>
       <c r="S488" s="2"/>
       <c r="T488" s="2"/>
       <c r="U488" s="2"/>
@@ -29310,7 +29356,7 @@
       <c r="O489" s="2"/>
       <c r="P489" s="2"/>
       <c r="Q489" s="2"/>
-      <c r="R489" s="18"/>
+      <c r="R489" s="17"/>
       <c r="S489" s="2"/>
       <c r="T489" s="2"/>
       <c r="U489" s="2"/>
@@ -29333,7 +29379,7 @@
       <c r="O490" s="2"/>
       <c r="P490" s="2"/>
       <c r="Q490" s="2"/>
-      <c r="R490" s="18"/>
+      <c r="R490" s="17"/>
       <c r="S490" s="2"/>
       <c r="T490" s="2"/>
       <c r="U490" s="2"/>
@@ -29356,7 +29402,7 @@
       <c r="O491" s="2"/>
       <c r="P491" s="2"/>
       <c r="Q491" s="2"/>
-      <c r="R491" s="18"/>
+      <c r="R491" s="17"/>
       <c r="S491" s="2"/>
       <c r="T491" s="2"/>
       <c r="U491" s="2"/>
@@ -29379,7 +29425,7 @@
       <c r="O492" s="2"/>
       <c r="P492" s="2"/>
       <c r="Q492" s="2"/>
-      <c r="R492" s="18"/>
+      <c r="R492" s="17"/>
       <c r="S492" s="2"/>
       <c r="T492" s="2"/>
       <c r="U492" s="2"/>
@@ -29402,7 +29448,7 @@
       <c r="O493" s="2"/>
       <c r="P493" s="2"/>
       <c r="Q493" s="2"/>
-      <c r="R493" s="18"/>
+      <c r="R493" s="17"/>
       <c r="S493" s="2"/>
       <c r="T493" s="2"/>
       <c r="U493" s="2"/>
@@ -29425,7 +29471,7 @@
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
       <c r="Q494" s="2"/>
-      <c r="R494" s="18"/>
+      <c r="R494" s="17"/>
       <c r="S494" s="2"/>
       <c r="T494" s="2"/>
       <c r="U494" s="2"/>
@@ -29448,7 +29494,7 @@
       <c r="O495" s="2"/>
       <c r="P495" s="2"/>
       <c r="Q495" s="2"/>
-      <c r="R495" s="18"/>
+      <c r="R495" s="17"/>
       <c r="S495" s="2"/>
       <c r="T495" s="2"/>
       <c r="U495" s="2"/>
@@ -29471,7 +29517,7 @@
       <c r="O496" s="2"/>
       <c r="P496" s="2"/>
       <c r="Q496" s="2"/>
-      <c r="R496" s="18"/>
+      <c r="R496" s="17"/>
       <c r="S496" s="2"/>
       <c r="T496" s="2"/>
       <c r="U496" s="2"/>
@@ -29494,7 +29540,7 @@
       <c r="O497" s="2"/>
       <c r="P497" s="2"/>
       <c r="Q497" s="2"/>
-      <c r="R497" s="18"/>
+      <c r="R497" s="17"/>
       <c r="S497" s="2"/>
       <c r="T497" s="2"/>
       <c r="U497" s="2"/>
@@ -29517,7 +29563,7 @@
       <c r="O498" s="2"/>
       <c r="P498" s="2"/>
       <c r="Q498" s="2"/>
-      <c r="R498" s="18"/>
+      <c r="R498" s="17"/>
       <c r="S498" s="2"/>
       <c r="T498" s="2"/>
       <c r="U498" s="2"/>
@@ -29540,7 +29586,7 @@
       <c r="O499" s="2"/>
       <c r="P499" s="2"/>
       <c r="Q499" s="2"/>
-      <c r="R499" s="18"/>
+      <c r="R499" s="17"/>
       <c r="S499" s="2"/>
       <c r="T499" s="2"/>
       <c r="U499" s="2"/>
@@ -29563,7 +29609,7 @@
       <c r="O500" s="2"/>
       <c r="P500" s="2"/>
       <c r="Q500" s="2"/>
-      <c r="R500" s="18"/>
+      <c r="R500" s="17"/>
       <c r="S500" s="2"/>
       <c r="T500" s="2"/>
       <c r="U500" s="2"/>
@@ -29586,7 +29632,7 @@
       <c r="O501" s="2"/>
       <c r="P501" s="2"/>
       <c r="Q501" s="2"/>
-      <c r="R501" s="18"/>
+      <c r="R501" s="17"/>
       <c r="S501" s="2"/>
       <c r="T501" s="2"/>
       <c r="U501" s="2"/>
@@ -29609,7 +29655,7 @@
       <c r="O502" s="2"/>
       <c r="P502" s="2"/>
       <c r="Q502" s="2"/>
-      <c r="R502" s="18"/>
+      <c r="R502" s="17"/>
       <c r="S502" s="2"/>
       <c r="T502" s="2"/>
       <c r="U502" s="2"/>
@@ -29632,7 +29678,7 @@
       <c r="O503" s="2"/>
       <c r="P503" s="2"/>
       <c r="Q503" s="2"/>
-      <c r="R503" s="18"/>
+      <c r="R503" s="17"/>
       <c r="S503" s="2"/>
       <c r="T503" s="2"/>
       <c r="U503" s="2"/>
@@ -29655,7 +29701,7 @@
       <c r="O504" s="2"/>
       <c r="P504" s="2"/>
       <c r="Q504" s="2"/>
-      <c r="R504" s="18"/>
+      <c r="R504" s="17"/>
       <c r="S504" s="2"/>
       <c r="T504" s="2"/>
       <c r="U504" s="2"/>
@@ -29678,7 +29724,7 @@
       <c r="O505" s="2"/>
       <c r="P505" s="2"/>
       <c r="Q505" s="2"/>
-      <c r="R505" s="18"/>
+      <c r="R505" s="17"/>
       <c r="S505" s="2"/>
       <c r="T505" s="2"/>
       <c r="U505" s="2"/>
@@ -29701,7 +29747,7 @@
       <c r="O506" s="2"/>
       <c r="P506" s="2"/>
       <c r="Q506" s="2"/>
-      <c r="R506" s="18"/>
+      <c r="R506" s="17"/>
       <c r="S506" s="2"/>
       <c r="T506" s="2"/>
       <c r="U506" s="2"/>
@@ -29724,7 +29770,7 @@
       <c r="O507" s="2"/>
       <c r="P507" s="2"/>
       <c r="Q507" s="2"/>
-      <c r="R507" s="18"/>
+      <c r="R507" s="17"/>
       <c r="S507" s="2"/>
       <c r="T507" s="2"/>
       <c r="U507" s="2"/>
@@ -29747,7 +29793,7 @@
       <c r="O508" s="2"/>
       <c r="P508" s="2"/>
       <c r="Q508" s="2"/>
-      <c r="R508" s="18"/>
+      <c r="R508" s="17"/>
       <c r="S508" s="2"/>
       <c r="T508" s="2"/>
       <c r="U508" s="2"/>
@@ -29770,7 +29816,7 @@
       <c r="O509" s="2"/>
       <c r="P509" s="2"/>
       <c r="Q509" s="2"/>
-      <c r="R509" s="18"/>
+      <c r="R509" s="17"/>
       <c r="S509" s="2"/>
       <c r="T509" s="2"/>
       <c r="U509" s="2"/>
@@ -29793,7 +29839,7 @@
       <c r="O510" s="2"/>
       <c r="P510" s="2"/>
       <c r="Q510" s="2"/>
-      <c r="R510" s="18"/>
+      <c r="R510" s="17"/>
       <c r="S510" s="2"/>
       <c r="T510" s="2"/>
       <c r="U510" s="2"/>
@@ -29816,7 +29862,7 @@
       <c r="O511" s="2"/>
       <c r="P511" s="2"/>
       <c r="Q511" s="2"/>
-      <c r="R511" s="18"/>
+      <c r="R511" s="17"/>
       <c r="S511" s="2"/>
       <c r="T511" s="2"/>
       <c r="U511" s="2"/>
@@ -29839,7 +29885,7 @@
       <c r="O512" s="2"/>
       <c r="P512" s="2"/>
       <c r="Q512" s="2"/>
-      <c r="R512" s="18"/>
+      <c r="R512" s="17"/>
       <c r="S512" s="2"/>
       <c r="T512" s="2"/>
       <c r="U512" s="2"/>
@@ -29862,7 +29908,7 @@
       <c r="O513" s="2"/>
       <c r="P513" s="2"/>
       <c r="Q513" s="2"/>
-      <c r="R513" s="18"/>
+      <c r="R513" s="17"/>
       <c r="S513" s="2"/>
       <c r="T513" s="2"/>
       <c r="U513" s="2"/>
@@ -29885,7 +29931,7 @@
       <c r="O514" s="2"/>
       <c r="P514" s="2"/>
       <c r="Q514" s="2"/>
-      <c r="R514" s="18"/>
+      <c r="R514" s="17"/>
       <c r="S514" s="2"/>
       <c r="T514" s="2"/>
       <c r="U514" s="2"/>
@@ -29908,7 +29954,7 @@
       <c r="O515" s="2"/>
       <c r="P515" s="2"/>
       <c r="Q515" s="2"/>
-      <c r="R515" s="18"/>
+      <c r="R515" s="17"/>
       <c r="S515" s="2"/>
       <c r="T515" s="2"/>
       <c r="U515" s="2"/>
@@ -29931,7 +29977,7 @@
       <c r="O516" s="2"/>
       <c r="P516" s="2"/>
       <c r="Q516" s="2"/>
-      <c r="R516" s="18"/>
+      <c r="R516" s="17"/>
       <c r="S516" s="2"/>
       <c r="T516" s="2"/>
       <c r="U516" s="2"/>
@@ -29954,7 +30000,7 @@
       <c r="O517" s="2"/>
       <c r="P517" s="2"/>
       <c r="Q517" s="2"/>
-      <c r="R517" s="18"/>
+      <c r="R517" s="17"/>
       <c r="S517" s="2"/>
       <c r="T517" s="2"/>
       <c r="U517" s="2"/>
@@ -29977,7 +30023,7 @@
       <c r="O518" s="2"/>
       <c r="P518" s="2"/>
       <c r="Q518" s="2"/>
-      <c r="R518" s="18"/>
+      <c r="R518" s="17"/>
       <c r="S518" s="2"/>
       <c r="T518" s="2"/>
       <c r="U518" s="2"/>
@@ -30000,7 +30046,7 @@
       <c r="O519" s="2"/>
       <c r="P519" s="2"/>
       <c r="Q519" s="2"/>
-      <c r="R519" s="18"/>
+      <c r="R519" s="17"/>
       <c r="S519" s="2"/>
       <c r="T519" s="2"/>
       <c r="U519" s="2"/>
@@ -30023,7 +30069,7 @@
       <c r="O520" s="2"/>
       <c r="P520" s="2"/>
       <c r="Q520" s="2"/>
-      <c r="R520" s="18"/>
+      <c r="R520" s="17"/>
       <c r="S520" s="2"/>
       <c r="T520" s="2"/>
       <c r="U520" s="2"/>
@@ -30046,7 +30092,7 @@
       <c r="O521" s="2"/>
       <c r="P521" s="2"/>
       <c r="Q521" s="2"/>
-      <c r="R521" s="18"/>
+      <c r="R521" s="17"/>
       <c r="S521" s="2"/>
       <c r="T521" s="2"/>
       <c r="U521" s="2"/>
@@ -30069,7 +30115,7 @@
       <c r="O522" s="2"/>
       <c r="P522" s="2"/>
       <c r="Q522" s="2"/>
-      <c r="R522" s="18"/>
+      <c r="R522" s="17"/>
       <c r="S522" s="2"/>
       <c r="T522" s="2"/>
       <c r="U522" s="2"/>
@@ -30092,7 +30138,7 @@
       <c r="O523" s="2"/>
       <c r="P523" s="2"/>
       <c r="Q523" s="2"/>
-      <c r="R523" s="18"/>
+      <c r="R523" s="17"/>
       <c r="S523" s="2"/>
       <c r="T523" s="2"/>
       <c r="U523" s="2"/>
@@ -30115,7 +30161,7 @@
       <c r="O524" s="2"/>
       <c r="P524" s="2"/>
       <c r="Q524" s="2"/>
-      <c r="R524" s="18"/>
+      <c r="R524" s="17"/>
       <c r="S524" s="2"/>
       <c r="T524" s="2"/>
       <c r="U524" s="2"/>
@@ -30138,7 +30184,7 @@
       <c r="O525" s="2"/>
       <c r="P525" s="2"/>
       <c r="Q525" s="2"/>
-      <c r="R525" s="18"/>
+      <c r="R525" s="17"/>
       <c r="S525" s="2"/>
       <c r="T525" s="2"/>
       <c r="U525" s="2"/>
@@ -30161,7 +30207,7 @@
       <c r="O526" s="2"/>
       <c r="P526" s="2"/>
       <c r="Q526" s="2"/>
-      <c r="R526" s="18"/>
+      <c r="R526" s="17"/>
       <c r="S526" s="2"/>
       <c r="T526" s="2"/>
       <c r="U526" s="2"/>
@@ -30184,7 +30230,7 @@
       <c r="O527" s="2"/>
       <c r="P527" s="2"/>
       <c r="Q527" s="2"/>
-      <c r="R527" s="18"/>
+      <c r="R527" s="17"/>
       <c r="S527" s="2"/>
       <c r="T527" s="2"/>
       <c r="U527" s="2"/>
@@ -30207,7 +30253,7 @@
       <c r="O528" s="2"/>
       <c r="P528" s="2"/>
       <c r="Q528" s="2"/>
-      <c r="R528" s="18"/>
+      <c r="R528" s="17"/>
       <c r="S528" s="2"/>
       <c r="T528" s="2"/>
       <c r="U528" s="2"/>
@@ -30230,7 +30276,7 @@
       <c r="O529" s="2"/>
       <c r="P529" s="2"/>
       <c r="Q529" s="2"/>
-      <c r="R529" s="18"/>
+      <c r="R529" s="17"/>
       <c r="S529" s="2"/>
       <c r="T529" s="2"/>
       <c r="U529" s="2"/>
@@ -30253,7 +30299,7 @@
       <c r="O530" s="2"/>
       <c r="P530" s="2"/>
       <c r="Q530" s="2"/>
-      <c r="R530" s="18"/>
+      <c r="R530" s="17"/>
       <c r="S530" s="2"/>
       <c r="T530" s="2"/>
       <c r="U530" s="2"/>
@@ -30276,7 +30322,7 @@
       <c r="O531" s="2"/>
       <c r="P531" s="2"/>
       <c r="Q531" s="2"/>
-      <c r="R531" s="18"/>
+      <c r="R531" s="17"/>
       <c r="S531" s="2"/>
       <c r="T531" s="2"/>
       <c r="U531" s="2"/>
@@ -30299,7 +30345,7 @@
       <c r="O532" s="2"/>
       <c r="P532" s="2"/>
       <c r="Q532" s="2"/>
-      <c r="R532" s="18"/>
+      <c r="R532" s="17"/>
       <c r="S532" s="2"/>
       <c r="T532" s="2"/>
       <c r="U532" s="2"/>
@@ -30322,7 +30368,7 @@
       <c r="O533" s="2"/>
       <c r="P533" s="2"/>
       <c r="Q533" s="2"/>
-      <c r="R533" s="18"/>
+      <c r="R533" s="17"/>
       <c r="S533" s="2"/>
       <c r="T533" s="2"/>
       <c r="U533" s="2"/>
@@ -30345,7 +30391,7 @@
       <c r="O534" s="2"/>
       <c r="P534" s="2"/>
       <c r="Q534" s="2"/>
-      <c r="R534" s="18"/>
+      <c r="R534" s="17"/>
       <c r="S534" s="2"/>
       <c r="T534" s="2"/>
       <c r="U534" s="2"/>
@@ -30368,7 +30414,7 @@
       <c r="O535" s="2"/>
       <c r="P535" s="2"/>
       <c r="Q535" s="2"/>
-      <c r="R535" s="18"/>
+      <c r="R535" s="17"/>
       <c r="S535" s="2"/>
       <c r="T535" s="2"/>
       <c r="U535" s="2"/>
@@ -30391,7 +30437,7 @@
       <c r="O536" s="2"/>
       <c r="P536" s="2"/>
       <c r="Q536" s="2"/>
-      <c r="R536" s="18"/>
+      <c r="R536" s="17"/>
       <c r="S536" s="2"/>
       <c r="T536" s="2"/>
       <c r="U536" s="2"/>
@@ -30473,6 +30519,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SendEmailAlert xmlns="946b7fcb-b6b4-4ef2-be73-dba3a580ace5">false</SendEmailAlert>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2023-02-28T09:00:00Z</PublishingStartDate>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083FFD119360DC84484E2B4BC034A779D" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37f7aeb0bfa991116e0925e78e4c4444">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="946b7fcb-b6b4-4ef2-be73-dba3a580ace5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b0b3c10d26b353f35ef415658de9dd0" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30635,20 +30695,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SendEmailAlert xmlns="946b7fcb-b6b4-4ef2-be73-dba3a580ace5">false</SendEmailAlert>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2023-02-28T09:00:00Z</PublishingStartDate>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26D0A117-CCD0-498C-B48E-3F203DA5F4E5}">
   <ds:schemaRefs>
@@ -30658,6 +30704,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43432645-305B-482A-B557-1122CDA63320}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="946b7fcb-b6b4-4ef2-be73-dba3a580ace5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB8E3E1-BEF8-4E71-88F6-CC58A78491AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C303DCC5-E842-42AC-A413-130AFE0ABF1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30674,21 +30739,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB8E3E1-BEF8-4E71-88F6-CC58A78491AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43432645-305B-482A-B557-1122CDA63320}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>